--- a/tablets_matches.xlsx
+++ b/tablets_matches.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,12 +401,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 10e chromebook  </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+          <t>lenovo 10e chromebook tablet - 82am0001sp</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -416,19 +416,19 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Lenovo-10e-Chromebook-Tablet-82AM0001SP/dp/B08PBZSZ7N/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+10e+chromebook&amp;qid=1631016461&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 10e chromebook  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+          <t>lenovo 10e chromebook tablet - 10.1" ips (mediatek mt8183, 4gb ram, almacenamiento de 32gb, wifi + bluetooth 4.2, chrome os), color gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -438,19 +438,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Lenovo-Tablet-LN10-Procesador-almacenamiento/dp/B08C6NZ2V2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+10e+chromebook&amp;qid=1631016461&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 10e chromebook  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, sin sistema operativo) azul/negro - teclado qwerty portugués</t>
+          <t>lenovo 10e chromebook tablet - 82am0005sp</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -460,7 +460,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Operativo-Portugu%C3%A9s/dp/B097F6RP6G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Lenovo-10e-Chromebook-Tablet-82AM0005SP/dp/B08QVSMLH1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+10e+chromebook&amp;qid=1631016461&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
@@ -489,12 +489,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo 330  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+          <t>lenovo ideapad 330-15ikb - ordenador portátil 15.6" hd (intel core i3-7020u, ram de 4gb, 500gb de hdd, intel hd graphics 620, sin sistema operativo) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Lenovo-ideapad-330-15IKB-Ordenador-operativo/dp/B07GR2T5JV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+330&amp;qid=1631016474&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo essential  </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lenovo legion 5 - ordenador portátil gaming 17.3" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+          <t>lenovo thunderbolt 3 essential dock estación de conexión 40av0135eu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,19 +548,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V215TKW/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Lenovo-Thunderbolt-Essential-estaci%C3%B3n-40AV0135EU/dp/B084T7C454/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+essential&amp;qid=1631016514&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo essential  </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+          <t>lenovo notebook thinkpad essential v15-iil 82c500g5sp (0194778007788)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -570,19 +570,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Lenovo-Notebook-Essential-82C500G5SP-0194778007788/dp/B087LSP27L/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+essential&amp;qid=1631016514&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo essential  </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, azul [versión es/pt]</t>
+          <t>lenovo thinkpad essential - mochila portatil 15.6, color negro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5CBWWL/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Essential-Mochila-portatil/dp/B00J99CIAI/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+essential&amp;qid=1631016514&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, negro [versión es/pt]</t>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -636,26 +636,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5FJL6X/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631015905&amp;s=electronics&amp;sr=1-22</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>############################################################################</t>
+          <t xml:space="preserve">lenovo flex 2  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 5-5500u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 en modo s), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08V22LPF2/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -665,19 +680,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A08277293CSE1WJ7N7YAQ&amp;url=%2FLenovo-Bluetooth-Ultrabook-certificado-Reacondicionado%2Fdp%2FB08QQ9SQ5B%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bt450%26qid%3D1630950305%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630950305&amp;id=5763143928774301&amp;widgetName=sp_atf</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>portátil lenovo thinkpad t450 | intel core i5 | disco ssd | 14" hd+ | webcam | win10 pro (reacondicionado) (ram 8 gb – ssd 240 gb)</t>
+          <t>lenovo ideapad flex 5 - ordenador portátil convertible 14" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, windows 10 home), lenovo digital pen, gris - teclado qwerty portugués</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -687,19 +702,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-Thinkpad-T450-reacondicionado/dp/B08TX5MTL1/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Ordenador-Convertible/dp/B095PLP9L6/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+          <t>lenovo ideapad flex 5 - portátil convertíble 14" fullhd (intel core i7-1165g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -709,19 +724,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Bluetooth-Ultrabook-certificado-Reacondicionado/dp/B08QQ9SQ5B/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Convert%C3%ADble-i7-1165G7/dp/B08TPBN5K3/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450 intel core i5-5300u 8gb 128gb 1366x768 webcam bt win 10 pro (reacondicionado)</t>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 7-4700u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -731,19 +746,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5300U-Reacondicionado/dp/B08J44PV16/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08M3LJX5H/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo flex 2  </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>portátil lenovo thinkpad, intel core i5, disco ssd, pantalla de 14 pulgadas, hd, webcam, win10 pro (reacondicionado) (t450 – ram 8 gb – ssd 256 gb)</t>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -753,7 +768,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-ThinkPad-reacondicionado-T450/dp/B09BJFQFZG/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+flex+2&amp;qid=1631016528&amp;s=electronics&amp;sr=1-10</t>
         </is>
       </c>
     </row>
@@ -782,12 +797,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lenovo ultrabook de negocios thinkpad t450 14" led: base i54300u 8gb 500 gb 7200 rpm 14" windows 7 professional actualizable a ganar 8 profesional bluetooth lector de huella digital.</t>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -797,19 +812,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-Ultrabook-negocios-ThinkPad-T450/dp/B015FJCXJG/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-25</t>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00477901HK5K9SNCSY3M&amp;url=%2FLenovo-IdeaPad-Chromebook-Port%25C3%25A1til-Graphics%2Fdp%2FB08T19XK41%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B1%26qid%3D1631016558%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631016558&amp;id=2240020394331609&amp;widgetName=sp_atf</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450 negro, grafito portátil 35,6 cm (14") 1366 x 768 pixeles 2,2 ghz 5ª generación de procesadores intel® core™ i5 i5-5200u - ordenador portátil (5ª generación de procesadores intel® core™ i5, 2,2 ghz, 35,6 cm (14"), 1366 x 768 pixeles, 8 gb, 256 gb)</t>
+          <t>lenovo ideapad 1 - ordenador portátil 14" hd (amd 3020e, 4gb ram, 64gb emmc, amd radeon graphics, windows 10 home en modo s), gris - teclado qwerty portugués</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -819,19 +834,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-Ordenador-port%C3%A1til/dp/B00U2ZXT6K/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1630950305&amp;s=electronics&amp;sr=1-28</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Portugu%C3%A9s/dp/B08TCKQ8CR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-i5-1135G7/dp/B08V249BKY/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450s 14 pulgadas 1600 x 900 hd+ intel core i5 256 gb ssd disco duro 8 gb de memoria windows 10 pro umts lte webcam business notebook (reacondicionado)</t>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -841,19 +878,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-pulgadas-Business-reacondicionado/dp/B09DZ3JY44/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1630950331&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B08TPDN659/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t450s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t450s 2.3ghz i5-5300u 14" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i5-5300u, windows 7 professional, 3+3, 64 bits, windows 10 pro, intel core i5-5xxx)</t>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 3700u, 8gb ram, 512gb ssd, amd radeon rx vega 10 graphics, windows 10 home) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -863,19 +900,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-20BX0047UK-ThinkPad-T450s/dp/B017LX8YCE/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1630950331&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN1ZSML/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, intel iris xe graphics, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-i7-1165G7-Operativo/dp/B094R8C84P/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t480s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lenovo thinkpad t480s - 20l8sfk204</t>
+          <t>lenovo ideapad duet 3i - tablet 2 en 1 (10,3 pulgadas, 1920 x 1200, full hd, wideview, touch), color gris (teclado alemán)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -885,19 +944,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-20L8SFK204-ThinkPad-T480s/dp/B08H2C4RFV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1630950345&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-3i-pulgadas/dp/B08D16ZY5Q/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t480s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lenovo portátil thinkpad t480s | 14" fhd ips | intel core i5-8350u quad-core | 8gb ddr4 | 256gb ssd | win10</t>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (intel celeron n4020, 8gb ram, 256gb ssd, intel uhd graphics 600, sin sistema operativo), color negro - teclado qwerty español</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -907,19 +966,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkPad-pulgadas-i5-8350U-Quad-Core/dp/B079J5LGXZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1630950345&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-Operativo/dp/B08TN35QQB/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo t480s  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lenovo 40ag0090eu negro - base (acoplamiento, lenovo, thinkpad t480s, 90 w, negro)</t>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -929,19 +988,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-40AG0090EU-Negro-Acoplamiento-ThinkPad/dp/B079QG111N/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1630950345&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14 - ordenador portátil 14" fullhd (intel core i3-1005, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+          <t>lenovo ideapad 3 chromebook - ordenador portátil 14" fullhd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -951,19 +1032,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14-Ordenador-port%C3%A1til/dp/B08C6M6V5H/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Ordenador-Port%C3%A1til/dp/B08WRT63Z2/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+          <t>lenovo ideapad duet chromebook - pantalla de 10.1" fullhd (mediatek p60t, 4 gb de ram, almacenamiento de 128 gb, chrome os, wifi+bt) lenovo keyboard pack, azul/gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -973,19 +1054,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/IdeaPad-Duet-Chromebook-CT-X636F-ZA6F0006ES/dp/B08CVR88WM/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+          <t>lenovo ideapad 5 - ordenador portátil 14" fullhd (amd ryzen 7 5700u, 16gb de ram, 512gb ssd, amd radeon graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -995,19 +1076,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B099KBZY98/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14  </t>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lenovo thinkbook 14s yoga - portátil táctil convertible 14" fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color azul - teclado qwerty español</t>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon rx vega 8, window 10 home en modo s) gris - teclado qwerty español</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1017,29 +1098,8198 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-convertible/dp/B092JB6FPY/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Teclado/dp/B08V22W2QS/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Port%C3%A1til-Graphics/dp/B08T19XK41/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2 en 1 de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 home en modo s), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L66P2D9/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 7-4700u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08M3LJX5H/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 5-5500u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 en modo s), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08V22LPF2/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 1  </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia gtx1650-4gb, sin sistema operativo), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TP6WSKV/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+1&amp;qid=1631016558&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 100  </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cyd 45w netbook cargador-adaptador para lenovo yoga 310-14 510-14 710-13 ideapad 100-14 100-15 100-15iby 100-14iby 100-15ibd 80mj00clge 80mj001aus 80mj0015cf n2940 chromebook 100s-11iby 80yn</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/CYD-Lenovo-Yoga-IdeaPad-N2940-Chromebook/dp/B078PGWMFT/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+100&amp;qid=1631016574&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00477901HK5K9SNCSY3M&amp;url=%2FLenovo-IdeaPad-Chromebook-Port%25C3%25A1til-Graphics%2Fdp%2FB08T19XK41%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B3%26qid%3D1631016617%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1631016617&amp;id=8566699335352960&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B08TPDN659/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 5 3500u, 8gb ram, 512gb ssd, amd radeon vega 8 graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN61GJC/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-i5-1135G7/dp/B08V249BKY/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (intel celeron n4020, 8gb ram, 256gb ssd, intel uhd graphics 600, sin sistema operativo), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-Operativo/dp/B08TN35QQB/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i5-1135G7/dp/B09491W8D2/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 3700u, 8gb ram, 512gb ssd, amd radeon rx vega 10 graphics, windows 10 home) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN1ZSML/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - ordenador portátil 14" fullhd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Ordenador-Port%C3%A1til/dp/B08WRT63Z2/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B096MN3C5W/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Port%C3%A1til-Graphics/dp/B08T19XK41/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - portátil 15.6" fullhd (amd athlon 3020e, 8gb ram, 256gb ssd, amd radeon graphics, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Port%C3%A1til-Graphics-Operativo/dp/B08CRWNDGN/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, windows 10 home) gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Portugu%C3%A9s/dp/B094YCD6FL/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650-4gb, windows 10 home), negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TN27JCV/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3&amp;qid=1631016617&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 14itl6  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>lenovo ideapad s300 ip 3 14itl6 core_i3-1115g4 4g</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LENOVO-IDEAPAD-S300-14ITL6-Core_I3-1115G4/dp/B09DGNL66D/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+14itl6&amp;qid=1631016631&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00224112OV85XYVOOIPQ&amp;url=%2FLenovo-IdeaPad-Flex-Chromebook-convert%25C3%25ADble%2Fdp%2FB08TM1BZY8%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B3%2Bchromebook%26qid%3D1631016644%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631016644&amp;id=4017482207390718&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05706741IMH9M21A5HD0&amp;url=%2FLenovo-IdeaPad-Chromebook-Port%25C3%25A1til-Graphics%2Fdp%2FB08T19XK41%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dlenovo%2Bideapad%2B3%2Bchromebook%26qid%3D1631016644%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1631016644&amp;id=4017482207390718&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - portátil 11" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Port%C3%A1til-Graphics/dp/B08T19XK41/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - ordenador portátil 14" fullhd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Ordenador-Port%C3%A1til/dp/B08WRT63Z2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil táctil convertible 11.6" hd (intel celeron n4020, 8gb ram, 128gb emmc, intel uhd graphics 600, chrome os), color azul oscuro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convertible/dp/B08TX2KN7L/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 3 chromebook - portátil convertíble 11.6" hd (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, chrome os) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Chromebook-convert%C3%ADble/dp/B08TM1BZY8/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook, pantalla 11.6" hd tn, procesador intel celeron n4000, 64 gb emmc, ram 4 gb, chrome os, onyx black</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-pantalla-procesador/dp/B0913BX9D1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 3 chromebook  </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 chromebook - pantalla de 14" hd (procesador intel celeron n4020, 64 gb emmc, ram 8 gb, chrome os) - abyss blue</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Chromebook-Pantalla-procesador/dp/B091HMCQC1/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+3+chromebook&amp;qid=1631016644&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 330  </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 330-15ikb - ordenador portátil 15.6" hd (intel core i3-7020u, ram de 4gb, 500gb de hdd, intel hd graphics 620, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ideapad-330-15IKB-Ordenador-operativo/dp/B07GR2T5JV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+330&amp;qid=1631016687&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, intel iris xe graphics, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-i7-1165G7-Operativo/dp/B094R8C84P/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 14" fullhd (amd ryzen 7 5700u, 16gb de ram, 512gb ssd, amd radeon graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B099KBZY98/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-convertible-i5-1135G7/dp/B08TN224K8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon rx vega 8, window 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Teclado/dp/B08V22W2QS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 7-4700u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08M3LJX5H/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - portátil táctil convertible 14" fullhd (amd ryzen 5-5500u, 8gb ram, 512gb ssd, amd radeon graphics, windows 10 en modo s), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Port%C3%A1til-Convertible/dp/B08V22LPF2/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (amd ryzen 5 5500u, 16gb ram, 512gb ssd, amd radeon rx vega 7, window 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Teclado/dp/B08V1ZMCRK/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 - ordenador portátil 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i7-1165G7/dp/B094RD42NH/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>lenovo ideapad flex 5 - ordenador portátil convertible 14" fullhd (amd ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, windows 10 home), lenovo digital pen, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Flex-Ordenador-Convertible/dp/B095PLP9L6/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home en modo s), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-port%C3%A1til-i5-1135G7/dp/B08V249BKY/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 5 3500u, 8gb ram, 512gb ssd, amd radeon vega 8 graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN61GJC/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 14" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 home), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-i3-1115G4/dp/B08TPDN659/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 7 3700u, 8gb ram, 512gb ssd, amd radeon rx vega 10 graphics, windows 10 home) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN1ZSML/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 5 pro - ordenador portátil 14" 2.8k (intel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Pro-Ordenador-i5-1135G7/dp/B08V22N4WT/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+5&amp;qid=1631016716&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 500  </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 330-15ikb - ordenador portátil 15.6" hd (intel core i3-7020u, ram de 4gb, 500gb de hdd, intel hd graphics 620, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ideapad-330-15IKB-Ordenador-operativo/dp/B07GR2T5JV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+500&amp;qid=1631016731&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 500  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 110-15ibr - portátil de 15.6" hd (intel celeron n3060, ram de 4 gb, hdd de 500 gb, intel hd graphics 400, windows 10 home) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-110-15IBR-Port%C3%A1til-Graphics/dp/B01N2HJ749/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+500&amp;qid=1631016731&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 500  </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>lenovo ideapad 3 - ordenador portátil 15.6" fullhd (amd ryzen 5 3500u, 8gb ram, 512gb ssd, amd radeon vega 8 graphics, windows 10 home en modo s) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Ordenador-Port%C3%A1til-Graphics/dp/B08TN61GJC/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+500&amp;qid=1631016731&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2 en 1 de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 home en modo s), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L66P2D9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3i - tablet 2 en 1 (10,3 pulgadas, 1920 x 1200, full hd, wideview, touch), color gris (teclado alemán)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-3i-pulgadas/dp/B08D16ZY5Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - tablet de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 en modo s, wifi + bluetooth), office 365, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Bluetooth-Portugu%C3%A9s/dp/B08THRNK8G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 10,3" pentium n5030 8gb 128gb wuxga w10p</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Pentium-N5030-128GB/dp/B0953Q857C/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - laptop 128gb, 4gb ram, grey</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-Duet-Laptop-128GB/dp/B08CKW3RCS/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016797&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2en1 de 10.3" wuxga (intel pentium silver n5030,8gb ram,128gb emmc,intel uhd graphics 605,windows 10 home en modo s), lenovo digital pen, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L6GD68B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - portátil 2 en 1 de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 home en modo s), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Port%C3%A1til-Graphics/dp/B08L66P2D9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3i - tablet 2 en 1 (10,3 pulgadas, 1920 x 1200, full hd, wideview, touch), color gris (teclado alemán)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-3i-pulgadas/dp/B08D16ZY5Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - tablet de 10.3" wuxga (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics 600, windows 10 en modo s, wifi + bluetooth), office 365, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Bluetooth-Portugu%C3%A9s/dp/B08THRNK8G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 10,3" pentium n5030 8gb 128gb wuxga w10p</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Pentium-N5030-128GB/dp/B0953Q857C/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - laptop 128gb, 4gb ram, grey</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-Duet-Laptop-128GB/dp/B08CKW3RCS/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet 3  </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet 3 - tablet de 10.3" wuxga (intel pentium silver n5030, 8gb ram, 128gb emmc, windows 10 en modo s, wifi+bt 5.0) lenovo digital pen, gris - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Duet-Pentium-Portugu%C3%A9s/dp/B08THRMN66/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+3&amp;qid=1631016812&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet chromebook  </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet chromebook - pantalla de 10.1" fullhd (mediatek p60t, 4 gb de ram, almacenamiento de 128 gb, chrome os, wifi+bt) lenovo keyboard pack, azul/gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/IdeaPad-Duet-Chromebook-CT-X636F-ZA6F0006ES/dp/B08CVR88WM/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+chromebook&amp;qid=1631016825&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad duet chromebook  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>lenovo ideapad duet chromebook ibrido (2 in 1) 25,6 cm (10.1") 1920 x 1200 pixel</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ZA6F0029IT/dp/B088KMBPCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+duet+chromebook&amp;qid=1631016825&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad flex 5 14alc05  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ideapad flex 5 14alc05 - ordenador portátil convertible, pantalla de 14 pulgadas fullhd touch, procesador amd ryzen 5 5500u, 512 gb ssd, 8 gb ram, lenovo digital pen, windows 10, gris grafito</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/IdeaPad-Flex-14ALC05-convertible-procesador/dp/B08YDGT8X5/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+flex+5+14alc05&amp;qid=1631016853&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad gaming 3  </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650-4gb, windows 10 home), negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TN27JCV/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+gaming+3&amp;qid=1631016866&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad gaming 3  </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>lenovo ideapad gaming 3 - ordenador portátil gaming 15.6" fullhd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia gtx1650-4gb, sin sistema operativo), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-IdeaPad-Gaming-Ordenador-GTX1650-4GB/dp/B08TP6WSKV/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+gaming+3&amp;qid=1631016866&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad s145  </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>lenovo ideapad s145-15iil - ordenador portátil</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ideapad-S145-15IIL-Ordenador-port%C3%A1til/dp/B088L9ZW25/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+ideapad+s145&amp;qid=1631016907&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo l460  </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l460 intel core i5-6200 cpu 8 gb ram 500 gb hdd win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L460-I5-6200-Reacondicionado/dp/B08CKWBTYR/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+l460&amp;qid=1631016960&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, sin sistema operativo) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Operativo-Portugu%C3%A9s/dp/B097F6RP6G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, windows 10 home) azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-3060-6GB/dp/B097F55YWF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - portátil gaming 15.6" fullhd 144hz (amd ryzen 7 4800h, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, windows 10), negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-RTX2060-6GB-Portugu%C3%A9s/dp/B08TCJF7NY/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, azul [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5CBWWL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, negro [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5FJL6X/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>lenovo legion 7 - portátil gaming 15.6" fullhd 240hz (intel core i7-10750h, 16gb ram, 512gb ssd, geforce rtx 2080 super max-q 8gb, sin sistema operativo), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-i7-10750H-Operativo/dp/B08DD2GR9M/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016974&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, sin sistema operativo) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Operativo-Portugu%C3%A9s/dp/B097F6RP6G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd, 120hz (amd ryzen 5 5600h, 8gb ram, 512gb ssd, nvidia rtx 3060-6gb, freesync, windows 10 home) azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-3060-6GB/dp/B097F55YWF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - portátil gaming 15.6" fullhd 144hz (amd ryzen 7 4800h, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, windows 10), negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-RTX2060-6GB-Portugu%C3%A9s/dp/B08TCJF7NY/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, azul [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5CBWWL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>lenovo legion phone duel- móvil gaming 6.65'' fullhd, snapdragon 865+ 5g, 12gb ram, 256 gb ufs 3.1, tarjeta gráfica qualcomm adreno 650, android 10, negro [versión es/pt]</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Snapdragon-Tarjeta-gr%C3%A1fica-Qualcomm/dp/B08L5FJL6X/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 5  </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>lenovo legion 7 - portátil gaming 15.6" fullhd 240hz (intel core i7-10750h, 16gb ram, 512gb ssd, geforce rtx 2080 super max-q 8gb, sin sistema operativo), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-i7-10750H-Operativo/dp/B08DD2GR9M/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+5&amp;qid=1631016988&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>lenovo legion 7 - portátil gaming 15.6" fullhd 240hz (intel core i7-10750h, 16gb ram, 512gb ssd, geforce rtx 2080 super max-q 8gb, sin sistema operativo), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-i7-10750H-Operativo/dp/B08DD2GR9M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6 - portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, geforce rtx 3060-6gb, wifi 6, sin sistema operativo), azul/negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Gen-Port%C3%A1til-Operativo/dp/B09DT2SXCS/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd 120hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1650 4gb, freedos), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-Port%C3%A1til-i7-10750H/dp/B093WZ9BNG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 gen 6- ordenador portátil gaming 15.6" fullhd 165hz (amd ryzen 7 5800h, 16gb ram, 512gb ssd, nvidia geforce rtx 3060-6gb, windows 10 home) azul/negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-Port%C3%A1til-GeForce-3060-6GB/dp/B09BW36DGL/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - ordenador portátil gaming 15.6" fullhd (amd ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Ordenador-RTX3060-6GB-Operativo/dp/B08V23GNCB/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo legion 7  </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>lenovo legion 5 - portátil gaming 15.6" fullhd 144hz (amd ryzen 7 4800h, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, windows 10), negro - teclado qwerty portugués</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Legion-Port%C3%A1til-RTX2060-6GB-Portugu%C3%A9s/dp/B08TCJF7NY/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+legion+7&amp;qid=1631017001&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t410  </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t410&amp;qid=1631017014&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t410  </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>mavis laven teclado de repuesto, piezas de reparación de teclado compatibles con lenovo ibm t410 / t410s / t400s / t520 / t420 / x220 / t510 / w510 laptop</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Mavis-Laven-Repuesto-reparaci%C3%B3n-compatibles/dp/B07VWMVJKF/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t410&amp;qid=1631017014&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t410  </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>vbestlife teclado de repuesto para computadora portátil apto para lenovo para ibm t410/t410s/t400s/t520/t420/x220/t510/w510 series notebook</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Vbestlife-Repuesto-computadora-port%C3%A1til-Notebook/dp/B086W651RP/ref=sr_1_31?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t410&amp;qid=1631017014&amp;s=electronics&amp;sr=1-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t430  </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t430, intel core i5-3320m, pantalla 14", webcam, win10 pro (reacondicionado)… (t430 - ram 8gb - ssd 128gb)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-ThinkPad-T430-reacondicionado/dp/B0915YJCM5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t430&amp;qid=1631017030&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t430  </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t430 core i5 16gb 240gb ssd dvd wifi webcam usb 3.0 windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSSF72G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t430&amp;qid=1631017030&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t440p  </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440p (20aws0q300) portátil de 14 pulgadas intel core i5 4210m / procesador de 2,6 ghz con turbo hasta 3,2 ghz, 4 gb de ram, 320 gb de disco duro, resolución 1366 x 768, peso ligero 1,9 kg, wifi, sin cámara web, lector de tarjetas inteligentes, windows 7 profesional</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-T440p-768-resoluci%C3%B3n-inteligentes-Professional/dp/B010FRL1VE/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t440p&amp;qid=1631017044&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t450 | intel core i5 | disco ssd | 14" hd+ | webcam | win10 pro (reacondicionado) (ram 8 gb – ssd 240 gb)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-Thinkpad-T450-reacondicionado/dp/B08TX5MTL1/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Bluetooth-Ultrabook-certificado-Reacondicionado/dp/B08QQ9SQ5B/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 intel core i5-5300u 8gb 128gb 1366x768 webcam bt win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5300U-Reacondicionado/dp/B08J44PV16/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 i5-5000u / ram: ddr3 8gb / ssd 480gb / display: 14pulgadas / windows 10pro / no dvd / grado a (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5000U-Reacondicionado/dp/B07RGQ5GV8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>lenovo ultrabook de negocios thinkpad t450 14" led: base i54300u 8gb 500 gb 7200 rpm 14" windows 7 professional actualizable a ganar 8 profesional bluetooth lector de huella digital.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ultrabook-negocios-ThinkPad-T450/dp/B015FJCXJG/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450  </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 negro, grafito portátil 35,6 cm (14") 1366 x 768 pixeles 2,2 ghz 5ª generación de procesadores intel® core™ i5 i5-5200u - ordenador portátil (5ª generación de procesadores intel® core™ i5, 2,2 ghz, 35,6 cm (14"), 1366 x 768 pixeles, 8 gb, 256 gb)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-Ordenador-port%C3%A1til/dp/B00U2ZXT6K/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450&amp;qid=1631017058&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450s  </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450s 2.3ghz i5-5300u 14" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i5-5300u, windows 7 professional, 3+3, 64 bits, windows 10 pro, intel core i5-5xxx)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20BX0047UK-ThinkPad-T450s/dp/B017LX8YCE/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1631017072&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t450s  </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t450s&amp;qid=1631017072&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo t480s  </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>lenovo 40ag0090eu negro - base (acoplamiento, lenovo, thinkpad t480s, 90 w, negro)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-40AG0090EU-Negro-Acoplamiento-ThinkPad/dp/B079QG111N/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+t480s&amp;qid=1631017087&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s g2 itl - ordenador portátil 13.3" qxga (intel core i7-1165g7, 16gb ram, 1tb ssd, intel iris xe graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-13s-ITL-Ordenador/dp/B08W1Y4JSR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s gris portátil 33,8 cm (13.3") 1920 x 1080 pixeles intel core i5 de 10ma generación 16 gb ddr4-sdram 512 gb ssd windows 10 pro thinkbook 13s, intel core i5 de</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM/dp/B08287QRGG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s iwl - ordenador portátil 13.3" fullhd (intel core i5-8265u, 8gb ram, 256gb ssd, intel uhd graphics 620, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-13s-Ordenadores-Portatiles-Gris/dp/B07TXR7BMG/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s gen2 (20v90008fr)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-13s-Gen2-20V90008FR/dp/B08LSHZ6LG/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+13s&amp;qid=1631017101&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t xml:space="preserve">lenovo thinkbook 14  </t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 - ordenador portátil 14" fullhd (intel core i3-1005, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-Ordenador-port%C3%A1til/dp/B08C6M6V5H/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga - portátil táctil convertible 14" fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-convertible/dp/B092JB6FPY/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B08TBBKNDT/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1630950372&amp;s=electronics&amp;sr=1-25</t>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B08TBBKNDT/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14  </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B0924F8V4G/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14&amp;qid=1631017114&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+g2+itl&amp;qid=1631017128&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+g2+itl&amp;qid=1631017128&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 16gb ram , 512gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08W8R3J62/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+g2+itl&amp;qid=1631017128&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 iil  </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 iil - ordenador portátil, pantalla de 14 pulgadas full hd ips (procesador intel core i5-1035g1, 256 gb ssd, ram 8 gb, windows 10, mineral grey</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkbook-IIL-Ordenador-procesador/dp/B08TM7S81D/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+iil&amp;qid=1631017141&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14 iil  </t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14-iil - 20sl00d3sp</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20SL00D3SP-ThinkBook-14-IIL/dp/B08FCN4CB1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14+iil&amp;qid=1631017141&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14s yoga  </t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga - portátil táctil convertible 14" fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-convertible/dp/B092JB6FPY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14s+yoga&amp;qid=1631017154&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14s yoga  </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B0924F8V4G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14s+yoga&amp;qid=1631017154&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 14s yoga  </t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14s yoga itl - portátil táctil 14" fullhd (inel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14s-Yoga-ITL/dp/B08TBBKNDT/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+14s+yoga&amp;qid=1631017154&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i5-1135G7/dp/B08T64TFSK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil ci3-1005 syst</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20SM007GSP-ThinkBook-15-IIL/dp/B08FCQYC3Q/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkbook 15-iil i3-1005g1 8gb ddr4 512ssd</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Notebook-Lenovo-ThinkBook-15-IIL-i3-1005G1/dp/B092DSTT8W/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil - 20sm002lsp</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-20SM002LSP/dp/B086T4DJP6/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core? i3 de 10ma generación 8 gb ddr4-sdram 256 gb</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM/dp/B083Q95HHB/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15  </t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i3-1115G4/dp/B08YRRNSNF/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15&amp;qid=1631017168&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i5-1135G7/dp/B08T64TFSK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+g2+itl&amp;qid=1631017181&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i3-1115G4/dp/B08YRRNSNF/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+g2+itl&amp;qid=1631017181&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkbook 15-iil i3-1005g1 8gb ddr4 512ssd</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Notebook-Lenovo-ThinkBook-15-IIL-i3-1005G1/dp/B092DSTT8W/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil ci3-1005 syst</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20SM007GSP-ThinkBook-15-IIL/dp/B08FCQYC3Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil - 20sm002lsp</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-20SM002LSP/dp/B086T4DJP6/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil i3-1005g1/8gb/256ssd/fhd/mate/w10pro</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-i3-1005G1-256SSD/dp/B091CW3PQN/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil intel core i3-1005g1 15.6p nt 8gb 256gb ssd pcie nvme intel uhd graphics wifi6ax22560+bt w10p64 1y depot</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LENOVO-ThinkBook-i3-1005G1-Graphics-WiFi6AX22560/dp/B08528H627/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15 iil  </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15-iil g2 i5-1135g7/16gb/512ssd/fhd/mate/w10pro</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-IIL-i5-1135G7-512SSD/dp/B08PMJ8Y94/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15+iil&amp;qid=1631017193&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook 15p  </t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>lenovo nb thinkbook 15p 20v30007ix 15.6" ips i5-10300h 16gb ssd512gb nvidia gtx1650 4gb no dvd w10p</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-20V30007IX-i5-10300H-SSD512GB/dp/B091KRQ9YZ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+15p&amp;qid=1631017208&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i5-1135G7/dp/B08T64TFSK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-14-ITL-i5-1135G7/dp/B08T5PB6SZ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 14 g2 itl ci3-11 syst</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKBOOK-ITL-CI3-11-SYST/dp/B08VW11YJL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 13s g2 itl - ordenador portátil 13.3" qxga (intel core i7-1165g7, 16gb ram, 1tb ssd, intel iris xe graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-13s-ITL-Ordenador/dp/B08W1Y4JSR/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkbook g2 itl  </t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>lenovo thinkbook 15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkBook-15-ITL-i3-1115G4/dp/B08YRRNSNF/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkbook+g2+itl&amp;qid=1631017220&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - ordenador portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Ordenador-i5-10210U/dp/B08FCPHVTN/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20RD001FSP-ThinkPad-E15-20RD001FSP/dp/B083M9YBBL/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l13 gen 2 - ordenador portátil 13.3" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L13-Gen-Ordenador/dp/B08PL8NFST/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - ordenador portátil 14" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Negro-1920x1080/dp/B0836Q84CN/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VW6PXBG/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Port%C3%A1til-i5-1135G7/dp/B08QD3MDTF/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 gen 1 - portátil 15" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000SSP-ThinkPad-T15-Gen1-20S6000SSP/dp/B08FMSVT6Q/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 nano gen 1 - portátil 13" 2k (intel core i5-1130g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Nano-Gen-i5-1130G7/dp/B08WCB7ZTJ/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen 1 - portátil 14" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L14-Gen-i7-10510U/dp/B08ZLGGKPZ/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad  </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 amd - 20t8000vsp</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E15-Gen-Amd/dp/B08CH1LXXH/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad&amp;qid=1631017233&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad 13  </t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 nano gen 1 - portátil 13" 2k (intel core i5-1130g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Nano-Gen-i5-1130G7/dp/B08WCB7ZTJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+13&amp;qid=1631017249&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - ordenador portátil 14" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Negro-1920x1080/dp/B0836Q84CN/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - portátil 14" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E14-Port%C3%A1til-i5-1135G7/dp/B08QD3MDTF/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 negro portátil 35,6 cm (14") 1920 x 1080 pixeles intel core i5 de 10ma generación 16 gb ddr4-sdram 512 gb ssd windows 10 pro thinkpad e14, intel core i5 de</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM/dp/B083M8VX97/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14  </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e14 - portátil 14" fullhd (intel core i3-10110u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20RA000XSP-ThinkPad-E14-20RA000XSP/dp/B08FCP6B3J/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e14&amp;qid=1631017263&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - ordenador portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Ordenador-i5-10210U/dp/B08FCPHVTN/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 - portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20RD001FSP-ThinkPad-E15-20RD001FSP/dp/B083M9YBBL/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VVWQVB7/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VW6PXBG/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15  </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 amd - 20t8000vsp</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E15-Gen-Amd/dp/B08CH1LXXH/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15&amp;qid=1631017289&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VW6PXBG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 - ordenador portátil 15.6" fullhd (intel core i5-1135g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-E15-Gen-Ordenador/dp/B08VVWQVB7/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 amd - 20t8000vsp</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E15-Gen-Amd/dp/B08CH1LXXH/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e15 gen 2  </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e15 gen 2 intel core i7-1165g7 notebook 39,6 cm (15,6") 16gb ram, 512gb ssd, mx450, full hd, win10 pro</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Intel-i7-1165G7-Notebook/dp/B08PMMJXGK/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e15+gen+2&amp;qid=1631017304&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e460  </t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad e460 2.3ghz i5-6200u 14" 1366 x 768pixeles negro - ordenador portátil (portátil, negro, concha, acrilonitrilo butadieno estireno (abs), de plástico, oficina en casa, small business, i5-6200u)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-3GHz-i5-6200U-768Pixeles/dp/B0178JBGDK/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e460&amp;qid=1631017331&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e540  </t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e540&amp;qid=1631017358&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e570  </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>p prettyia para lenovo thinkpad e570 e575 e570c teclado</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Prettyia-Lenovo-Thinkpad-E570C-Teclado/dp/B089MBG32Y/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+e570&amp;qid=1631017371&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e330  </t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>pantalla 13.3" led para lenovo thinkpad edge e330 3354-9rg 40 pin para portatil - juanio -</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Pantalla-Lenovo-ThinkPad-3354-9RG-portatil/dp/B095HL3SRG/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e330&amp;qid=1631017409&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e530  </t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad edge e530 nosotros inglés teclado 04 x 0264 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-E530-nosotros-teclado-Reacondicionado/dp/B0892QXVWJ/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e530&amp;qid=1631017422&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e530  </t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>lenovo 45 n1053 ion de 11.1 v batería recargable – baterías (ion de litio), notebook/tablet pc, 11,1 v, 62 wh, negro, thinkpad edge e430, e435, thinkpad edge e530, e535</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-45-N1053-Ion-recargable-Bater%C3%ADas-Notebook/dp/B00FDMO1A0/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e530&amp;qid=1631017422&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e540  </t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>globalsmart batería para portátil alta capacidad para lenovo thinkpad edge e540 6 celdas negro</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Globalsmart-Capacidad-ThinkPad-Edge-E540/dp/B07PVNBB98/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+edge+e540&amp;qid=1631017462&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l13  </t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l13 gen 2 - ordenador portátil 13.3" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L13-Gen-Ordenador/dp/B08PL8NFST/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l13&amp;qid=1631017475&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l13 gen 2  </t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l13 gen 2 - ordenador portátil 13.3" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L13-Gen-Ordenador/dp/B08PL8NFST/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l13+gen+2&amp;qid=1631017488&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen 1 - portátil 14" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L14-Gen-i7-10510U/dp/B08ZLGGKPZ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen 1 - portátil 14" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L14-Gen-i5-10210U/dp/B08XJ31XKD/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen1 amd - 20u50007sp</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L14-Gen1-Amd/dp/B08FJFKSG4/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 g2 intel core i5-1135g7 notebook 35,6cm(14") 8gb ram, 256gb ssd, full hd, win 10 pro, 4g</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Intel-i5-1135G7-Notebook/dp/B096VZHCTJ/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l14  </t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l14 gen1 amd - 20u50008sp</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L14-Gen1-Amd/dp/B08FJGDYW3/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l14&amp;qid=1631017515&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l15  </t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l15 gen 1 - portátil 15.6" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Port%C3%A1til-Generaci%C3%B3n-Ddr4-Sdram/dp/B08BLBFKZJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l15&amp;qid=1631017528&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l15  </t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l15 gen 1 - portátil 15.6 fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L15-Gen1-20U30015Sp/dp/B08CHGV72R/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l15&amp;qid=1631017528&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l380  </t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l380 laptop de 13.3" - core i3 cpu a 2,2 ghz, 4 gb de ram, 128 gb ssd, windows 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-L380-Laptop-13-3/dp/B09BMBPF72/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l380&amp;qid=1631017541&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l420  </t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>disco duro ssd de 960 gb compatible con lenovo thinkpad l420 t420s x100e sl300 – componente alternativo</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Disco-compatible-Lenovo-ThinkPad-T420s/dp/B09CDYN2MM/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l420&amp;qid=1631017583&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l440  </t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad pro dock 04w3948 - base de carga para thinkpad t440, t440s, l540, t440p, t540p, l440, x240, sin fuente de alimentación</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-04-W3948-fuente-alimentaci%C3%B3n/dp/B013U28Z06/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l440&amp;qid=1631017612&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l450  </t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l450&amp;qid=1631017626&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l460  </t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l460 intel core i5-6200 cpu 8 gb ram 500 gb hdd win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-L460-I5-6200-Reacondicionado/dp/B08CKWBTYR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l460&amp;qid=1631017640&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l470  </t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l470&amp;qid=1631017654&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l540  </t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l540&amp;qid=1631017694&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l570  </t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad l570 15,6 pulgadas 1920 × 1080 full hd intel core i5 256 gb ssd disco duro 8 gb de memoria win 10 pro webcam umts lte portátil ultrabook (certificado y revisado)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Pulgadas-Ultrabook-Certificado/dp/B082B57XNG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+l570&amp;qid=1631017721&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad p50  </t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad p50 2.7ghz i7-6820hq 15.6" 3840 x 2160pixels black (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i7-6820HQ-2160pixels-Reacondicionado/dp/B08JTXFDR1/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+p50&amp;qid=1631017735&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad p50s  </t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+p50s&amp;qid=1631017748&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t14  </t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t14 gen1-20s00011sp</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S00011SP-Thinkpad-T14-Gen1-20S00011Sp/dp/B08CHNVSGD/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t14&amp;qid=1631017774&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 gen 1 - portátil 15" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000SSP-ThinkPad-T15-Gen1-20S6000SSP/dp/B08FMSVT6Q/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 (gen 1) - ordenador portátil 15" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000NSP-ThinkPad-T15-Gen1-20S6000NSP/dp/B08CN83KZT/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15p gen 1 - portátil 15.6 fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia geforce gtx 1050, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20TN0004SP-THINKPAD-T15P-CI7-10750H/dp/B08LKV4XRR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 15.6in i5-10210u</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T15-15-6IN-I5-10210U/dp/B08CMY7F3V/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>lenovo ts/thinkpad t15 g1/i5/8gb/256gb/w10p- portátil ts/thinkpad t15 g1/i5/8gb/256gb/w10p-, portátil</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-256GB-W10P-Port%C3%A1til/dp/B08B4JPDS5/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017787&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 gen 1 - portátil 15" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000SSP-ThinkPad-T15-Gen1-20S6000SSP/dp/B08FMSVT6Q/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 (gen 1) - ordenador portátil 15" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20S6000NSP-ThinkPad-T15-Gen1-20S6000NSP/dp/B08CN83KZT/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15p gen 1 - portátil 15.6 fullhd (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia geforce gtx 1050, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20TN0004SP-THINKPAD-T15P-CI7-10750H/dp/B08LKV4XRR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15  </t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t15 15.6in i5-10210u</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T15-15-6IN-I5-10210U/dp/B08CMY7F3V/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t15&amp;qid=1631017800&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t410  </t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t410 - ordenador portátil (dvd-rw, touchpad, windows 7 professional, negro, hd audio, intel)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T410-Ordenador-Professional/dp/B003RYUSE4/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t410&amp;qid=1631017827&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t410s  </t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t410s&amp;qid=1631017841&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 i5-2520m 2.5ghz 8gb 128gb ssd webcam windows 10 professional 64-bit (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B01K7GK5MO/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 - ordenador portátil (portátil, dvd±rw, thinkpad ultranav, windows 7 professional, ión de litio, 64-bit)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T420-Ordenador-Professional/dp/B006Y7DAAA/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 - ordenador portátil (gigabit ethernet, dvd-rw, thinkpad ultranav, windows 7 professional, ión de litio, negro)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T420-Ordenador-Professional/dp/B00AHUD2L2/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420  </t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t420 - ordenador portátil de 14 pulgadas, color negro (intel core i5-2520m / 2,50 ghz, 8 gb de ram, disco duro de 1 tb, grabadora de dvd, webcam, windows 7 professional)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-port%C3%A1til-grabadora-Profesional/dp/B015RO2CAY/ref=sr_1_31?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420&amp;qid=1631017855&amp;s=electronics&amp;sr=1-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t420s  </t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad mini dock series 3type 4337sin llave para thinkpad t400s, t410, t410i, t410s, t410si, t420, t420i, t420s, t420si, t510, t510i, a-ware</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-4337sin-T410si-T420si/dp/B010WMBL2Q/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t420s&amp;qid=1631017870&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t430  </t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t430 core i5 16gb 240gb ssd dvd wifi webcam usb 3.0 windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSSF72G/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t430&amp;qid=1631017883&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t430  </t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t430, intel core i5-3320m, pantalla 14", webcam, win10 pro (reacondicionado)… (t430 - ram 8gb - ssd 128gb)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-ThinkPad-T430-reacondicionado/dp/B0915YJCM5/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t430&amp;qid=1631017883&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t430s  </t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>sunmall teclado de repuesto para ordenador portátil con puntero (sin retroiluminación) compatible con lenovo ibm thinkpad t430 t430s t430i x230 x230t x230i t530 w530 (no compatible con t430u x230s)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/retroiluminaci%C3%B3n-X230-X230I-T430-T430s-L430-T530-T530i-W530-L530-nosotros/dp/B01K4GPGEY/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t430s&amp;qid=1631017898&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 business notebook, procesador intel i5 2 x 1,9 ghz, memoria ram de 8 gb, disco duro de 480 gb, pantalla de 14 pulgadas, hd, 1600 x 900, cam, windows 10 pro, r40t (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-r40t-8GB/dp/B07H1KZ71D/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 business notebook, procesador intel i5 2 x 1,9 ghz, memoria ram de 8 gb, disco duro de 480 gb, pantalla de 14 pulgadas, 1366 x 768, cam, windows 10 pro, 1h08 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-1h08-8GB/dp/B07GT3G34N/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>lenovo t440 14-inch thinkpad laptop (intel core i5 1.6 ghz processor, 4 gb ddr3 ram, 500 gb hdd, front camera, windows 7 professional 64-bit)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/14-inch-ThinkPad-Processor-Windows-Professional/dp/B00GUCI5TA/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 4 gb 320 gb</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-T440-4-GB-320-GB/dp/B07DH7J9WR/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 business notebook, procesador intel i5 2 x 1,9 ghz, memoria ram de 8 gb, ssd de 240 gb, pantalla de 14 pulgadas, 1366 x 768, cam, windows 10 pro, 1h08 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-1h08-8GB/dp/B07GT3LV3V/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 - ordenador portátil (ultrabook, windows 8 pro , ión de litio, 64-bit, negro, concha)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T440-Ordenador-Ultrabook/dp/B00YGLF6TY/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 4 gb 160 gb</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-T440-4-GB-160-GB/dp/B07DH4WVDS/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 - ordenador portátil de 14" intel core i5-4300u cpu 4 gb ram 128 gb ssd win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T440-Ordenador-Reacondicionado/dp/B08G1R3VZV/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440  </t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440 laptop, i5-4300u, 1.9ghz, 256gb solid state drive, 8gb ram, with windows 10 professional (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Professional-Certified-Refurbished/dp/B06XDNSB36/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440&amp;qid=1631017911&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440p  </t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t440p (20aws0q300) portátil de 14 pulgadas intel core i5 4210m / procesador de 2,6 ghz con turbo hasta 3,2 ghz, 4 gb de ram, 320 gb de disco duro, resolución 1366 x 768, peso ligero 1,9 kg, wifi, sin cámara web, lector de tarjetas inteligentes, windows 7 profesional</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-T440p-768-resoluci%C3%B3n-inteligentes-Professional/dp/B010FRL1VE/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440p&amp;qid=1631017926&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440p  </t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440p&amp;qid=1631017926&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440s  </t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>portátil ultrabook lenovo thinkpad t440s - intel icore i5 4300u 1,9 ghz x 2 - ram 8 gb - hd 250 ssd - led 14 in 1600 x 900 - windows 10 pro - (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Ultrabook-Lenovo-ricondizionato-garantito/dp/B07H8DVGWF/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440s&amp;qid=1631017941&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t440s  </t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t440s&amp;qid=1631017941&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>portátil lenovo thinkpad t450 | intel core i5 | disco ssd | 14" hd+ | webcam | win10 pro (reacondicionado) (ram 8 gb – ssd 240 gb)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Lenovo-Thinkpad-T450-reacondicionado/dp/B08TX5MTL1/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>notebook lenovo thinkpad t450, intel core i5-5300u, ram 8gb, ssd 256gb, display 14" hd, webcam, win10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Bluetooth-Ultrabook-certificado-Reacondicionado/dp/B08QQ9SQ5B/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 i5-5000u / ram: ddr3 8gb / ssd 480gb / display: 14pulgadas / windows 10pro / no dvd / grado a (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5000U-Reacondicionado/dp/B07RGQ5GV8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 intel core i5-5300u 8gb 128gb 1366x768 webcam bt win 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-i5-5300U-Reacondicionado/dp/B08J44PV16/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>lenovo ultrabook de negocios thinkpad t450 14" led: base i54300u 8gb 500 gb 7200 rpm 14" windows 7 professional actualizable a ganar 8 profesional bluetooth lector de huella digital.</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ultrabook-negocios-ThinkPad-T450/dp/B015FJCXJG/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 negro, grafito portátil 35,6 cm (14") 1366 x 768 pixeles 2,2 ghz 5ª generación de procesadores intel® core™ i5 i5-5200u - ordenador portátil (5ª generación de procesadores intel® core™ i5, 2,2 ghz, 35,6 cm (14"), 1366 x 768 pixeles, 8 gb, 256 gb)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T450-Ordenador-port%C3%A1til/dp/B00U2ZXT6K/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 - ordenador portátil de 14 pulgadas hd+ (intel core i5-5300u / 2.30 ghz, 8 gb de ram, disco duro de 120 gb ssd, webcam, windows 10 professional)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-port%C3%A1til-2-30-GHz-10-Profesional/dp/B07KFMR8HX/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450  </t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t450 2.1ghz i3-5010u 14" 1600 x 900pixeles negro - ordenador portátil (portátil, negro, concha, i3-5010u, intel core i3-5xxx, bga1168)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-1GHz-i3-5010U-900Pixeles/dp/B017LX7V14/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450&amp;qid=1631017956&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t450s  </t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t450s&amp;qid=1631017971&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 portátil de 14 pulgadas (negro) (intel core i5-6200u 2.3 ghz, 8 gb ddr4 ram, 256 gb ssd, intel hd graphics 520, windows 7 pro) (renovado)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T460-Cuaderno-pulgadas/dp/B07N6JXM5N/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 | i5-6300u - 2,4 ghz, 16 gb de ram, 256 gb de ssd, windows 10 pro.</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Ordenador-Port%C3%A1til-win10-Pro/dp/B01N5CD7TR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 14 pulgadas 1920 × 1080 full hd intel core i5 256 gb ssd disco duro 8 gb de memoria win 10 pro mar webcam teclado portátil ultrabook (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ThinkPad-Pulgadas-iluminaci%C3%B3n-Ultrabook-Certificado/dp/B084Q7D9VP/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460  </t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t460 ultrabook - intel core i5-6300u, 16 gb de ram, disco ssd 256 gb, webcam, wifi, bluetooth, usb 3.0, windows 10 pro (teclado azerty francés) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T460-Ultrabook-reacondicionado/dp/B08DRBFSSS/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460&amp;qid=1631017988&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460p  </t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>piezas de repuesto originales y nuevas para lenovo thinkpad t460s, t460p, t470s, t470p 14" wqhd (2560 x 1440) ips lcd screen</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Piezas-repuesto-originales-nuevas-ThinkPad/dp/B08924QSB4/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460p&amp;qid=1631018001&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t460s  </t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>ordenador portátil lenovo thinkpad t460s, intel core i5-6300u, ram 8 gb, ssd 256 gb, pantalla 14 pulgadas, webcam, win10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Ordenador-port%C3%A1til-Lenovo-ThinkPad-reacondicionado/dp/B0973CVHPX/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t460s&amp;qid=1631018015&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470  </t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470&amp;qid=1631018029&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470p  </t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>piezas de repuesto originales y nuevas para lenovo thinkpad t460s, t460p, t470s, t470p 14" wqhd (2560 x 1440) ips lcd screen</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Piezas-repuesto-originales-nuevas-ThinkPad/dp/B08924QSB4/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470p&amp;qid=1631018043&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470p  </t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>us/uk/sp/fr english backlit keyboard for lenovo t460s t460p t470s t470p thinkpad 13 2nd laptop (color : no backlight uk)</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/English-Backlit-Keyboard-Lenovo-ThinkPad/dp/B09957X5WW/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470p&amp;qid=1631018043&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t470s  </t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t470, t470s, l470 y t420 variación (reacondicionado) negro thinkpad t470 - core i5</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Variaci%C3%B3n-reacondicionado-ThinkPad/dp/B07RZ85JT9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t470s&amp;qid=1631018057&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t480s  </t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t480s intel® 1600 mhz 8192 mb portátil, impulsión dura del flash uhd gráfico. 620 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-port%C3%A1til-impulsi%C3%B3n-Reacondicionado/dp/B09BM9CHR7/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t480s&amp;qid=1631018084&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t480s  </t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>lenovo 40ag0090eu negro - base (acoplamiento, lenovo, thinkpad t480s, 90 w, negro)</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-40AG0090EU-Negro-Acoplamiento-ThinkPad/dp/B079QG111N/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t480s&amp;qid=1631018084&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 laptop | 14" fhd | 1.6ghz intel core i5-8365u quad-core | 16gb ddr4 | 256gb ssd | win10 pro - 3yr premier</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Laptop-i5-8365U-Quad-Core/dp/B083KP3VMP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 ci5-8265u (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-T490-CI5-8265U-Reacondicionado/dp/B09B77L1NG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T490-Reacondicionado/dp/B09B711P2R/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 20n3000kge / 14" full-hd display / intel i5-8265u / 8gb ram / 256gb ssd / windows 10 pro</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-20N3000KGE-i5-8265U-256GB/dp/B07RG871Q7/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490  </t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490 core i5-8365u 8 gb 256 gb ssd 14 pulgadas fhd windows 10 pro laptop (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i5-8365U-pulgadas-Reacondicionado/dp/B08YNYHZ1F/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490&amp;qid=1631018099&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490s  </t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490s 20nx002sge 14" full hd ips i5-8265u 8gb/256gb ssd w10p</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T490s-20NX002SGE-i5-8265U/dp/B07RF9LVPD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490s&amp;qid=1631018112&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t490s  </t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t490s 20nx000ege / 14" fhd-display / intel i7-8565u / 16gb ddr4 ram / 512gb ssd / 4g lte / windows 10 pro</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T490s-20NX000EGE-i7-8565U/dp/B07RF9FX9B/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t490s&amp;qid=1631018112&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t495  </t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t495 negro portátil 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 5 pro 8 gb ddr4-sdram 512 gb ssd windows 10 pro thinkpad t495, amd ryzen 5 pro, 2,1 ghz, 35,6 cm (14"), 1920</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Port%C3%A1til-Pixeles-DDR4-SDRAM/dp/B07ZBDMXHB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t495&amp;qid=1631018126&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t540p  </t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t540p&amp;qid=1631018195&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t550  </t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad t550 15.6 pulgadas full hd i potente ordenador portátil i intel core i5-5.gen win 10 pro intel hd graphics i 2,3 kg negro (reacondicionado) (8 gb de ram - 256 gb ssd)</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-T550-ordenador-reacondicionado/dp/B08KFPFJW5/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t550&amp;qid=1631018209&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t580  </t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>lenovo lenovobandeja de dispositivo de almacenamientoblancopara thinkpad p52s 20lb, 20lc, t580 20l9, 20la</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Estante-THINKPAD-T580-20l9-f0r41604/dp/B07JJXRMYL/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+t580&amp;qid=1631018252&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w540  </t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w540&amp;qid=1631018279&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w540  </t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad w540 i7-4710mq (dk) **new retail**, 61n2544-g (**new retail** 16gb/1tb/fhd/mb/k1/3/f/b/c/w8p)</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i7-4710MQ-Retail-61N2544-G/dp/B00U5TLIFC/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w540&amp;qid=1631018279&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w541  </t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w541&amp;qid=1631018294&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w541  </t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad basic dock - port replicator - for thinkpad l440; l450; l540; t440; t440p; t440s; t450; t450s; t540p; w540; w541; x240; x250, [importado de reino unido]</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Basic-Dock-replicator/dp/B00UUUB84M/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w541&amp;qid=1631018294&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w550s  </t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>zhangxia teclados de reemplazo teclado de la versión ru para lenovo thinkpad p50s t560 w540 t540p w541 t550 w550s l540 l560 e531 e540 accesorios portátiles</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Zhangxia-Teclados-reemplazo-Accesorios-port%C3%A1tiles/dp/B09CTF6SNJ/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+w550s&amp;qid=1631018308&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon  </t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon&amp;qid=1631018321&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon  </t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon g7 14" fhd ips i5-8265u 16gb/512gb ssd 4g win10pro</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-i5-8265U-Win10Pro/dp/B07ZHM4ZJP/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon&amp;qid=1631018321&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon 4th gen  </t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>fqparts cubierta inferior de la caja del ordenador portátil d shell para lenovo thinkpad x1 carbon 1st gen 2nd gen 3rd gen 4th gen 5th gen - kabylake 5th gen - skylake 6th gen 7th gen color negro</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/fqparts-Cubierta-Inferior-Ordenador-port%C3%A1til/dp/B099DBZZZ9/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon+4th+gen&amp;qid=1631018337&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon gen 4  </t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon+gen+4&amp;qid=1631018403&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon gen 5  </t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x1 carbon gen 9 - portátil 14" wuxga (intel core i5-1135g7, 8gb ram, 256gb ssd, integrated intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Carbon-Gen-Integrated/dp/B096YTJ187/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+carbon+gen+5&amp;qid=1631018416&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 yoga  </t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga gen 1 - portátil táctil convertible 13.3" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) thinkpad pen pro, negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-H%C3%ADbrido-Pixeles-Pantalla/dp/B08CKG5T1N/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x1+yoga&amp;qid=1631018430&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga gen 1 - portátil táctil convertible 13.3" fullhd (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro) thinkpad pen pro, negro- teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-H%C3%ADbrido-Pixeles-Pantalla/dp/B08CKG5T1N/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 gen 1 - portátil 13.3" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20T2003FSP-Pc-Portatil-20T2003Fsp/dp/B08CMS67GK/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga gen1-20sx0004sp</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-X13-Yoga-Gen1-20Sx0004Sp/dp/B08CRTQPPZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 gen1-20t2003tsp</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-20T2003TSP-Thinkpad-X13-Gen1-20T2003Tsp/dp/B08CNCPBJS/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x13  </t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x13 yoga i5-10210u</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-THINKPAD-X13-Yoga-I5-10210U/dp/B08KWC3LHM/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x13&amp;qid=1631018469&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x201  </t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>globalsmart batería para portátil alta capacidad para lenovo ibm thinkpad x201 tablet 8 celdas negro</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Globalsmart-Capacidad-ThinkPad-X201-Tablet/dp/B07QC5HJ9L/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x201&amp;qid=1631018497&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x220  </t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x220 - portátil</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/X220-Lenovo-Thinkpad-Port%C3%A1til/dp/B0050B7AMA/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x220&amp;qid=1631018512&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x230i  </t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>sunmall teclado de repuesto para ordenador portátil con puntero (sin retroiluminación) compatible con lenovo ibm thinkpad t430 t430s t430i x230 x230t x230i t530 w530 (no compatible con t430u x230s)</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/retroiluminaci%C3%B3n-X230-X230I-T430-T430s-L430-T530-T530i-W530-L530-nosotros/dp/B01K4GPGEY/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x230i&amp;qid=1631018525&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x240  </t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5 pulgadas (1366x768) 4th gen intel core i5-4210y 8gb 240gb ssd windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSZCDD4/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x240&amp;qid=1631018539&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x240  </t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5" 4th gen intel core i7-4600u 8gb 256gb ssd webcam windows 10 professional 64-bit with antivirus (certified refurbished)</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Professional-Antivirus-Certified-Refurbished/dp/B072DXM2K6/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x240&amp;qid=1631018539&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250, intel core i5 5300u 2,3 ghz, pantalla led hd (1366 x 768), memoria ram ddr3 de 8 gb, ssd de 180 gb, windows 10 pro.</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-i5-5300U-Pantalla-Windows/dp/B07HL6B8L8/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 - ordenador portátil (i7-5600u, windows 7 professional, 3+3, 64-bit, windows 10 pro, intel core i7-5xxx)</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X250-Ordenador-Professional/dp/B07R5SNP3H/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 12,5 pulgadas hd intel core i5 256 gb ssd disco duro 8 gb de memoria windows 10 pro webcam business notebook (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-pulgadas-Business-reacondicionado/dp/B097LVLWC9/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 12,5 pulgadas intel core i5 256 gb ssd disco duro 8 gb de memoria win 10 pro mar webcam umts lte (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Pulgadas-Certificado-reacondicionado/dp/B07Z8G3KKK/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 - ordenador portátil (12,5", hd, intel core i5-5300u, 2,30 ghz, 8 gb de ram, ssd de 120 gb, webcam, windows 10 professional), color negro</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X250-Ordenador-Professional/dp/B086WMQ51C/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 – 1366 8gb ram - 480gb ssd</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X250-1366-8GB/dp/B07H1S1FMS/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x250  </t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x250 12.5 pulgadas ultrabook core i5-5300u 8gb 256gb ssd windows 10 professional 64-bit (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ThinkPad-Ultrabook-Professional-Certified-Refurbished/dp/B01M5FP9L1/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x250&amp;qid=1631018552&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x260  </t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 12.5 ultrabook core i5 6300u 2.4ghz 8gb ram ssd hdmi wifi webcam windows 10 professional 64 bit renovado 256 gb (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Ultrabook-Professional-Reacondicionado/dp/B0953ZL42M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x260&amp;qid=1631018567&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x260  </t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.3ghz i5-6200u 12.5" 1366 x 768pixeles negro - portátil (i5-6200u, thinkpad ultranav, windows 7 professional, 3+3, 64-bit, windows 10 pro) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-3GHz-i5-6200U-768Pixeles/dp/B086C639T9/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x260&amp;qid=1631018567&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x260  </t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.5ghz i7-6500u 12.5" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i7-6500u, thinkpad ultranav, windows 7 professional, 3+3, 64 bits, windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-5GHz-i7-6500U-1080Pixeles/dp/B01EJW7VSI/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x260&amp;qid=1631018567&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x270  </t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x270 20hms6ad00 12,5" i5 7200u 8gb ram 256gb ssd wwan win 10 de (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-20HMS6AD00-7200U-Reacondicionado/dp/B09B74PP91/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x270&amp;qid=1631018580&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x270  </t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x270 ultrabook de 12,5 pulgadas, intel core i5-6300u 2.4ghz 8gb 512gb ssd hdmi wifi webcam windows 10 pro de 64 bits (renovado)</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X270-12-5-Ultrabook/dp/B082P83VSD/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+thinkpad+x270&amp;qid=1631018580&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>lenovo v v15 computer portatile grigio 39,6 cm (15.6") 1920 x 1080 pixel amd ryz</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-pantalla-pulgadas/dp/B089DBLZGG/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>lenovo v15 n4020 4gb 256ssd w10 15.6</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-N4020-256SSD-15-6/dp/B08VW1FP9P/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 4gb 256gb 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-3020E-FREEDOS/dp/B089S2JK2M/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles amd ryzen 5 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, amd ryzen 5, 2,1 ghz, 39,6 cm (15.6"), 1920 x</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Pixeles-DDR4-SDRAM-802-11ac/dp/B0864ZYF67/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core i3 de 10ma generación 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, intel® core i3</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM-802-11ac/dp/B08655JG8Y/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>lenovo v v15 portátil gris 39,6 cm (15.6") 1920 x 1080 pixeles amd athlon gold 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, amd athlon gold, 2,4 ghz, 39,6 cm (15.6"),</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Pixeles-DDR4-SDRAM-802-11ac/dp/B08KR9FM85/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>lenovo s0229981 portátil v15, intel core i3-1115g4, 8 gb ddr4, 15.6", 256 gb ssd</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229981-Port%C3%A1til-Intel-I3-1115G4/dp/B08ZLHDN6G/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>lenovo notebook thinkpad essential v15-iil 82c500g5sp (0194778007788)</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Notebook-Essential-82C500G5SP-0194778007788/dp/B087LSP27L/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada 82c7 - portátil 15.6" fullhd (ryzen 5 3500u, 8gb ram, 256gb ssd, amd radeon vega 8 graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORT%C3%81TIL-LENOVO-V15-ADA-82C7007TSP/dp/B08FZTGRXQ/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 8gb 256gbssd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-256GBSSD-FREEDOS/dp/B089S2H9TK/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada - 82c7009bsp</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-82C7009BSP/dp/B08KHGW9M1/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>lenovo v v15 computer portatile grigio 39,6 cm (15.6") 1920 x 1080 pixel amd ryz</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Essential-82C70006IX-R5-3500U-SSD256GB/dp/B08BTLL2BR/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core i5 de 10ma generación 8 gb ddr4-sdram 512 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, intel® core i5</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM-802-11ac/dp/B08651PN89/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>lenovo v v15 gris portátil 39,6 cm (15.6") 1920 x 1080 pixeles intel® core i5 de 10ma generación 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro v v15, intel® core i5</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Port%C3%A1til-Generaci%C3%B3n-DDR4-SDRAM-802-11ac/dp/B0864P1FCT/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v v15  </t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>portátil lenovo v15 cpu amd silver 3020e 2 core a 1,2 ghz, 15,6 pulgadas, pantalla hd 1366 x 768 píxeles, ddr4 8 gb, ssd 256 gb, webcam, wifi, bt, win 10 pro, a/v, listo para usar en gar. italia</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-V15-pulgadas-pantalla-p%C3%ADxeles/dp/B08PMP4DVY/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v+v15&amp;qid=1631018650&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v110-15ast  </t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>piezas originales para lenovo v110-15ast v110-15iap 15.6" reposamanos mayúsculas con nosotros teclado 5cb0l78358</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/originales-V110-15AST-V110-15IAP-Reposamanos-5CB0L78358/dp/B08VDMVY37/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v110-15ast&amp;qid=1631018666&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>lenovo v14 - ordenador portátil 14" hd (athlon 3020e, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-Ordenador-port%C3%A1til-Graphics/dp/B08C6TL5FB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>lenovo v14 - ordenador portátil 14" hd (amd ryzen 3-3250u, 4gb ram, 128gb ssd, uma graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-Ordenador-port%C3%A1til-Graphics/dp/B08C6ZPX38/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>portatil lenovo v14 ada 3020e 4gb 256gbssd 14" freedos</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-3020E-256GBSSD-FREEDOS/dp/B097T81TRQ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>lenovo v14 igl - ordenador portátil 14" fullhd (celeron n4020, 4gb ram, 128gb ssd, intel uhd graphics win10 pro for edu), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-IGL-Ordenador-Port%C3%A1til/dp/B098V4QNJT/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14  </t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>lenovo s0227183 ultrabook, v14 82c4000u2sp 14" i5-1035g1, 8 gb ram, 256 gb ssd, gris</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V14-i5-1035G1-8GB-256SSD/dp/B088YM8PL3/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14&amp;qid=1631018693&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14 ada  </t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>portatil lenovo v14 ada 3020e 4gb 256gbssd 14" freedos</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-3020E-256GBSSD-FREEDOS/dp/B097T81TRQ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v14+ada&amp;qid=1631018707&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>lenovo s0229981 portátil v15, intel core i3-1115g4, 8 gb ddr4, 15.6", 256 gb ssd</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229981-Port%C3%A1til-Intel-I3-1115G4/dp/B08ZLHDN6G/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>lenovo s0229870 portátil v15, intel core i3-1115g4, 8 gb ddr4, 15.6", 512 gb ssd</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229870-Port%C3%A1til-Intel-I3-1115G4/dp/B08YKG3Q9Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>lenovo v15 ill - portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-82C500A3SP-V15-IIL/dp/B08FXRVN14/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>lenovo v15-ada - portátil 15.6" hd (amd 3020e, 8gb ram, 256gb ssd, amd radeon graphics, windows10), clor gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-Port%C3%A1til-Graphics-Windows10/dp/B089SC1R1D/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>lenovo v15 n4020 4gb 256ssd w10 15.6</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-N4020-256SSD-15-6/dp/B08VW1FP9P/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 512gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-512GBSSD/dp/B0926QSLGF/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>lenovo v v15 computer portatile grigio 39,6 cm (15.6") 1920 x 1080 pixel amd ryz</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-pantalla-pulgadas/dp/B089DBLZGG/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i5-1135G7/dp/B0924P4J6X/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>lenovo s0229452 notebook v15 15.6" intel core i5 - 1035g1, 8 gb ddr4, 256 gb ssd</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-S0229452-Notebook-15-6-Intel/dp/B08X1P5RYG/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada 82c7 - portátil 15.6" fullhd (ryzen 5 3500u, 8gb ram, 256gb ssd, amd radeon vega 8 graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORT%C3%81TIL-LENOVO-V15-ADA-82C7007TSP/dp/B08FZTGRXQ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>lenovo v15 i3-1005g1 8gb 256ssd dos 15.6</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-i3-1005G1-256SSD-15-6/dp/B0895KLFY6/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 4gb 256gb 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-3020E-FREEDOS/dp/B089S2JK2M/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>lenovo v15 amd r3-3250u 8gb 256ssd dos 15.6"</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-R3-3250U-256SSD-15-6/dp/B08FGM7338/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 8gb 256gbssd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-256GBSSD-FREEDOS/dp/B089S2H9TK/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i3-1115G4/dp/B08YZ512F3/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15 g2 itl i3-1115g4 8gb 512gbssd fhd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-I3-1115G4-512GBSSD-FREEDOS/dp/B099SF1HLR/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15  </t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada - 82c7009bsp</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-82C7009BSP/dp/B08KHGW9M1/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15&amp;qid=1631018782&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada 82c7 - portátil 15.6" fullhd (ryzen 5 3500u, 8gb ram, 256gb ssd, amd radeon vega 8 graphics, windows 10 pro), color gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORT%C3%81TIL-LENOVO-V15-ADA-82C7007TSP/dp/B08FZTGRXQ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>lenovo v15-ada - portátil 15.6" hd (amd 3020e, 8gb ram, 256gb ssd, amd radeon graphics, windows10), clor gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-Port%C3%A1til-Graphics-Windows10/dp/B089SC1R1D/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 8gb 256gbssd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-256GBSSD-FREEDOS/dp/B089S2H9TK/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>lenovo portatil v15-ada amd 3020e 4gb 256gb 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-PORTATIL-V15-ADA-3020E-FREEDOS/dp/B089S2JK2M/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>lenovo v15 ada - 82c7009bsp</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-ADA-82C7009BSP/dp/B08KHGW9M1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 ada  </t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>lenovo 15.6" amd-3020e 4gb 256ssd webcam essential v15-ada no os</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-AMD-3020E-256SSD-Essential-V15-ADA/dp/B08K99VTJB/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+ada&amp;qid=1631018797&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 512gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-512GBSSD/dp/B0926QSLGF/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i5-1135g7, 8gb ram, 256gb ssd, intel iris xe graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i5-1135G7/dp/B0924P4J6X/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15 g2 itl i3-1115g4 8gb 512gbssd fhd 15,6 freedos</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-I3-1115G4-512GBSSD-FREEDOS/dp/B099SF1HLR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>lenovo v15 g2 itl - portátil 15.6" fullhd (intel core i3-1115g4, 8gb ram, 256gb ssd, intel uhd graphics, windows 10 pro), negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-G2-ITL-i3-1115G4/dp/B08YZ512F3/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 256gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-256GBSSD/dp/B0999KNCTL/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 itl  </t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15 g2 itl i5-1135g7 8gb 256gbssd fhd 15,6" freedos</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-I5-1135G7-256GBSSD-FREEDOS/dp/B099SDVJJN/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+g2+itl&amp;qid=1631018824&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 iil  </t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>lenovo notebook thinkpad essential v15-iil 82c500g5sp (0194778007788)</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Notebook-Essential-82C500G5SP-0194778007788/dp/B087LSP27L/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+iil&amp;qid=1631018839&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 iil  </t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>lenovo v15 iil intel core i5 - 1035g1 4 gb ddr4, disco duro de 1 tb, gráficos intel uhd integrados, pantalla fhd antirreflejos, teclado inglés, sistema no operativo, gris hierro</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-V15-Intel-Core-antirreflejos/dp/B08V5CNC5V/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15+iil&amp;qid=1631018839&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15-itl  </t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 512gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-512GBSSD/dp/B0926QSLGF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15-itl&amp;qid=1631018865&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15-itl  </t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>portatil lenovo v15-itl g2 i5-1135g7 8gb 256gbssd 15,6" fhd w10h</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-LENOVO-V15-ITL-I5-1135G7-256GBSSD/dp/B0999KNCTL/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v15-itl&amp;qid=1631018865&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v17-iil  </t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>lenovo nb 17.3" i5-1035g1 8gb 512ssd w10p essential v17-iil</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-I5-1035G1-512SSD-Essential-V17-IIL/dp/B08KW87WDG/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+v17-iil&amp;qid=1631018878&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo w540  </t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>tarjeta madre placa principal de cuaderno fit for lenovo thinkpad w540 w541 placa base portátil 12291-2 48.4lo14.021 gpu k1100m 2gb computer motherboard</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Principal-Cuaderno-ThinkPad-48-4LO14-021-Motherboard/dp/B09DL2NHNN/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+w540&amp;qid=1631018916&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x230  </t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>lenovo x230 (12 pulgadas laptop) [intel core i5 3320m 2.60ghz, 8gb memory, 256gb ssd,with windows 10 professional (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-2-60GHz-Professional-Certified-Refurbished/dp/B01C6WNH3Q/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x230&amp;qid=1631018944&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x240  </t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5" (1366x768) 4th gen intel core i5-4210y 8gb 500gb windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSW7BMX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x240&amp;qid=1631018958&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x240  </t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>lenovo x240 i5 8gb ram 480gb ssd</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-X240-1366-8GB/dp/B07GT36FD5/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x240&amp;qid=1631018958&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x240  </t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x240 12.5 pulgadas (1366x768) 4th gen intel core i5-4210y 8gb 240gb ssd windows 10 professional 64-bit laptop pc (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-Professional-Certified-Refurbished/dp/B07CSZCDD4/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x240&amp;qid=1631018958&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x260  </t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 12.5 ultrabook core i5 6300u 2.4ghz 8gb ram ssd hdmi wifi webcam windows 10 professional 64 bit renovado 256 gb (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Thinkpad-Ultrabook-Professional-Reacondicionado/dp/B0953ZL42M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x260&amp;qid=1631018973&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x260  </t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.3ghz i5-6200u 12.5" 1366 x 768pixeles negro - portátil (i5-6200u, thinkpad ultranav, windows 7 professional, 3+3, 64-bit, windows 10 pro) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-3GHz-i5-6200U-768Pixeles/dp/B086C639T9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x260&amp;qid=1631018973&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x260  </t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>lenovo thinkpad x260 2.5ghz i7-6500u 12.5" 1920 x 1080pixeles 3g 4g negro - ordenador portátil (i7-6500u, thinkpad ultranav, windows 7 professional, 3+3, 64 bits, windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-ThinkPad-2-5GHz-i7-6500U-1080Pixeles/dp/B01EJW7VSI/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+x260&amp;qid=1631018973&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 520-14ikb  </t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>ftdlcd® para lenovo yoga 520-14ikb 80x8 81c8 520-14isk 520-14arr 14 pulgadas fhd ips pantalla táctil digitalizador lcd assembly + marco b140han04.2 1920x1080</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/520-14IKB-Pantalla-Diditizer-B140HAN04-2-1920X1080/dp/B07TDLQYP8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+520-14ikb&amp;qid=1631018987&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>lenovo yoga 9 14itl5 82bg 14" portátil intel i7-1185g7 3 ghz (4,8 ghz turbo), 16 gb ram, 1 tb m2 ssd, ultra hd 4 k, tactile, windows 10 home, negro teclado italiano</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Yoga-82BG-port%C3%A1til-i7-1185G7/dp/B09D3PJCS4/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+9+14itl5&amp;qid=1631019028&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>lenovo yoga 9 14itl5 82bg 14" portátil intel i5-1135g72.4 ghz (4.2 ghz turbo), 8 gb de ram, 512 gb m2 ssd, full hd, táctil, windows 10 home, mica, teclado italiano</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-port%C3%A1til-i5-1135G72-4-Windows-italiano/dp/B09D3KMRK9/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+9+14itl5&amp;qid=1631019028&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>lenovo yoga slim 9 14itl5- ordenador portátil 14’’ uhd (intel core i7-1165g7, 16gb ram, 1tb ssd, integrated intel iris xe graphics, windows 10 pro) shadow black - teclado qwerty portugal</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-i7-1165G7-Integrated/dp/B092JMKX94/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+9+14itl5&amp;qid=1631019028&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga duet  </t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>lenovo yoga duet 7 - portátil 2 en 1 wqhd de 13 &amp;amp; amp; quot; (intel core i5-10210u, 8gb ram, 256gb ssd, intel uhd graphics, windows 10), lenovo bolígrafo digital, gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Yoga-Duet-Port%C3%A1til-i5-10210U/dp/B08VJBNLC2/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+duet&amp;qid=1631019056&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga slim 9 14itl5  </t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>lenovo yoga slim 9 14itl5- ordenador portátil 14’’ uhd (intel core i7-1165g7, 16gb ram, 1tb ssd, integrated intel iris xe graphics, windows 10 pro) shadow black - teclado qwerty portugal</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Lenovo-Ordenador-port%C3%A1til-i7-1165G7-Integrated/dp/B092JMKX94/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lenovo+yoga+slim+9+14itl5&amp;qid=1631019082&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
         </is>
       </c>
     </row>

--- a/tablets_matches.xlsx
+++ b/tablets_matches.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,12 +401,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr blanco  </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, uma graphics, windows 10 home), color plata - teclado qwerty español</t>
+          <t>apple iphone xr (128 gb) - en blanco</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -416,19 +416,19 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Apple-iPhone-XR-128-GB-Blanco/dp/B08L71BVYB/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+blanco&amp;qid=1631026080&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr blanco  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-44 - ordenador portátil 15.6" full hd, laptop (amd ryzen 7 4700u, 8 gb ram, 512 gb ssd, uma graphics, comfyview, endless os), pc portátil color negro - teclado qwerty español</t>
+          <t>apple iphone xr 64 gb blanco (reacondicionado)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -438,19 +438,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-44-Ordenador-ComfyView/dp/B08WX5F7LM/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Apple-iPhone-XR-Blanco-Reacondicionado/dp/B07N9N4VZ9/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+blanco&amp;qid=1631026080&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr blanco  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-56g - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, nvidia geforce mx350 2gb, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+          <t>apple iphone xr (64 gb) - en blanco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -460,19 +460,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-11</t>
+          <t>https://www.amazon.es/Apple-iPhone-XR-64-GB-Blanco/dp/B08L6ZJPTK/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+blanco&amp;qid=1631026080&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr blanco  </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-56 - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, intel iris xe graphics, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+          <t>apple iphone xr 128 gb blanco (reacondicionado)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -482,56 +482,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-56-Ordenador-i7-1165G7/dp/B08PX3C2SW/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-15</t>
+          <t>https://www.amazon.es/Apple-iPhone-128-Blanco-Reacondicionado/dp/B07N9HM41P/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+blanco&amp;qid=1631026080&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer aspire 1  </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" full hd, laptop (intel core i5-1035g1, 16gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer aspire 1  </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>acer aspire 3 a315-56-35rx 15.6" i3-1005g1 1.2ghz ram 8gb 256gb ssd windows 10 home black nx.hs5et.001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASPIRE-A315-56-35RX-I3-1005G1-WINDOWS-NX-HS5ET-001/dp/B094X7PTQV/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
         <is>
           <t>############################################################################</t>
         </is>

--- a/tablets_matches.xlsx
+++ b/tablets_matches.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,13 +390,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" activeCellId="1" sqref="A1 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -416,7 +416,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
@@ -438,7 +438,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-44-Ordenador-ComfyView/dp/B08WX5F7LM/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Acer-Aspire-A515-44-Ordenador-ComfyView/dp/B08WX5F7LM/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-11</t>
+          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-56-Ordenador-i7-1165G7/dp/B08PX3C2SW/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-15</t>
+          <t>https://www.amazon.es/Acer-Aspire-A515-56-Ordenador-i7-1165G7/dp/B08PX3C2SW/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-11</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-28</t>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-18</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>acer aspire 3 a315-56-35rx 15.6" i3-1005g1 1.2ghz ram 8gb 256gb ssd windows 10 home black nx.hs5et.001</t>
+          <t>acer aspire 3 a317-53-34a6 - ordenador portátil de 17,3 pulgadas, hd+, portátil (intel core i3-1115g4, ram de 8 gb, ssd 512 gb, intel uhd graphics, windows 10) - teclado azerty (francés), color gris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -526,12 +526,2454 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASPIRE-A315-56-35RX-I3-1005G1-WINDOWS-NX-HS5ET-001/dp/B094X7PTQV/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022114&amp;s=electronics&amp;sr=1-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+          <t>https://www.amazon.es/Acer-Aspire-A317-53-34A6-Ordenador-i3-1115G4/dp/B08WDJ296F/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a317-53-34a6 - ordenador portátil de 17,3 pulgadas, hd+, portátil (intel core i3-1115g4, ram de 8 gb, ssd 512 gb, intel uhd graphics, windows 10) - teclado azerty (francés), color gris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A317-53-34A6-Ordenador-i3-1115G4/dp/B08WDJ296F/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a315-56 - ordenador portátil 15.6” full hd, laptop (intel core i5-1035g1, 12gb ram, ram, 512gb ssd, uma graphics, sin sistema operativo), pc portátil color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Operativo/dp/B08F5KP4R6/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a315-41 - ordenador portátil 15.6” full hd, laptop (amd ryzen 5 2500u, 8gb ram, ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-A315-41-R8ZC-Ordenador-port%C3%A1til-Tarjeta/dp/B07D8B9N2K/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, uma graphics, windows 10 home), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>acer aspire 5 15.6 inch fhd slim laptop, amd ryzen 3 3200u,vega 3 graphics, 4gb ddr4, 128gb ssd, american english qwerty backlit keyboard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Graphics-American-English-Keyboard/dp/B094MN1RJG/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-56g - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, nvidia geforce mx350 2gb, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" full hd, laptop (intel core i5-1035g1, 16gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer aspire 3  </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>acer aspire 3 a315-56-5205 - ordenador portátil (15,6") fhd (core i5, 8 gb de ram, ssd 512 gb, intel uhd graphics, windows 10f) - french keyboard (azerty)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Aspire-A315-56-5205-Ordenador-port%C3%A1til/dp/B089T436YR/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" full hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05597672G4QY1JSFXC4J&amp;url=%2FAcer-Chromebook-314-CB314-1H-Ordenador%2Fdp%2FB08XC1G78P%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dacer%2Bchromebook%2B314%2Bcb314-1h%26qid%3D1631022466%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631022466&amp;id=7392795416160363&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" full hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Ordenador/dp/B08XC1G78P/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" hd, laptop (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Procesador/dp/B085PCPNCV/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Procesador/dp/B085PDG71J/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 514  </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 514 - ordenador portátil 2 en 1 convertible y tactil 14" full hd, laptop (amd ryzen 3 3250c, 8gb ram, 128gb ssd, uma graphics, chrome os), pc portátil plata - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-14-Port%C3%A1til-Graphics/dp/B08FC69VMH/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 514  </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 514 - ordenador portátil 2 en 1 convertible y tactil 14" full hd, laptop (amd athlon n3050c, 4gb ram, 64gb ssd, uma graphics, chrome os) pc portátil color plata - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-13-Port%C3%A1til-Graphics/dp/B08FC7LW5Z/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 514  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>acer chromebook 514 cb514-1ht - ordenador táctil 14" full hd ips, laptop (intel pentium n4200, 4gb ram, 128gb emmc, intel hd graphics 505, chrome os), pc portátil plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-514-CB514-1HT-Procesador/dp/B085PDBDR7/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 714 cb714-1w  </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0852293IATLVS1Z17QM&amp;url=%2FAcer-Chromebook-714-CB714-1W-Procesador%2Fdp%2FB085PDJ3V3%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dacer%2Bchromebook%2B714%2Bcb714-1w%26qid%3D1631022495%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631022495&amp;id=6310489993055812&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 714 cb714-1w  </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-714-CB714-1W-Procesador/dp/B085PDJ3V3/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+714+cb714-1w&amp;qid=1631022495&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>acer chromebook 715 cb715-1wt-37gm - core i3 8130u / 2.2 ghz - cromo os - 8 gb ram - 32 gb emmc -...</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-715-CB715-1WT-37GM-8130U/dp/B08BB2HR7M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook 715 15" fhd ips - core i5-8250u - 8 gb ddr4 - 128 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - bateria 56wh - chrome - plata</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-NX-HB2EB-002-Chromebook-CB715-1W-50LT/dp/B07Y82B5LY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook 715 15" fhd ips - core i3-8165u - 8 gb ddr4 - 64 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - batería 56wh - chrome enterprise - plata</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-715-FHD/dp/B087WH2G8X/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook 715 15" fhd ips - core i5-8250u - 8 gb ddr4 - 128 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - bateria 56wh - chrome enterprise - plata</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-715-FHD/dp/B089T7LGZQ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook 715  </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>acer chromebook 715 for work cb715-1wt-p9ku</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ACER-Chromebook-715-Work-CB715-1WT-P9KU/dp/B08KYCN472/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook r 13  </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook r 13  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>acer chromebook 713 - portátil táctil convertible 13.5" qhd (intel core i5-1021u, 8gb ram, 128gb ssd, chrome os), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-713-Port%C3%A1til-Convertible/dp/B08FC5V3ZV/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook r 13  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-714-CB714-1W-Procesador/dp/B085PDJ3V3/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 13" fhd touch 4gb/64gb emmc chromeos cp513-1h-s72y</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Touch-ChromeOS-CP513-1H-S72Y/dp/B093TK2P99/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 13 13.5" touch chromebook - core i5 1.6ghz cpu, 8gb ram, google chrome</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-13-5-Touch/dp/B08CNPVN1D/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 13  </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>acer portátil chromebook spin 13,5" qhd touch ips - core i3-8165u - 8 gb ddr3 - 64 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - wacom stylus pen - no odd - chrome enterprise - plata</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-SPIN-Touch/dp/B089T36KSF/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 311  </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 311 cp311-3h - ordenador portátil 2 en 1 convertible y táctil 11.6" hd ips (mtk mt8183, 4gb ram, 32gb emmc, mali-g72 mp3 graphics, chrome os), pc portátil plata - qwerty</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-311-CP311-3H/dp/B085PCN161/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+311&amp;qid=1631022563&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 13" fhd touch 4gb/64gb emmc chromeos cp513-1h-s72y</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Touch-ChromeOS-CP513-1H-S72Y/dp/B093TK2P99/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h-s98j - ordenador portátil 7c emmc 64gb + ram 8gb silver</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ChromeBook-Spin-513-CP513-1H-S98J/dp/B09CZ1RMQX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer chromebook spin 513  </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>acer chromebook spin 513 cp513-1h-s0xg - 33,8 cm (13,3") - snapdragon 7c kryo 468 - silber</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H-S0XG/dp/B08XND6SMZ/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn315-72g - ordenador portátil 15.6" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia geforce gtx 1650, windows 10 home), pc portátil blanco - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN315-72G-Ordenador-i5-10300H/dp/B099F3RFPS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p-75p3-35,6 cm (14") - core i7 10750h - 16 gb ram - ssd de 1,024 tb</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P-75P3-35/dp/B08QN9RGVJ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B08KY71HH4/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B096BFZFM8/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-79tg - 35,6 cm (14") - core i7 10750h - 16 gb ram - 1.024 tb ssd - español</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC315-72P-79TG/dp/B08QNDCGK3/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 intel core i7-10750h notebook 35,56 cm (14") 16gb ram, 512gb ssd, intel uhd grafik, full-hd, win 10 pro</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-Full-HD/dp/B08QNDKZPR/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn315-72g-7356-39,6 cm (15.6") - core i7 10750h - 16 gb ram - 512 gb ssd - español</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN315-72G-7356-39-15-10750H/dp/B08KZPNJ52/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p - ordenador portátil convertible y tactil 14" full hd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), laptop blanco, teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P/dp/B099F2ZVJF/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn315-72 - ordenador portátil 15.6" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 home), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN315-72-Ordenador-i5-10300H/dp/B099F4CWY9/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro 15.6" i7-10750h win10p</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-15-6-i7-10750H-Win10P/dp/B08LSHQVJX/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-7226 w10p</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72P-7226-W10P/dp/B08VHBBJH3/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72-50ym - 35,6 cm (14") - core i5 10300h - 8 gb ram - 256 gb ssd - deutsch</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-50YM-10300H-Deutsch/dp/B08QN9N9TS/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel cc314-72g portátil blanco 35,6 cm (14") 1920 x 1080 pixeles pantalla táctil intel® core i7 de 10ma generación 16 gb ddr4-sdram 1000 gb ssd nvidia® geforce® gtx 1650 ti</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CC314-72G-Generaci%C3%B3n-DDR4-SDRAM/dp/B08KZNLY2G/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel cc315-72g-70lb i7-10750h</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72G-70lb-i7-10750H/dp/B08VHB8DRF/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3  </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B096BFZFM8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro 15.6" i7-10750h win10p</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-15-6-i7-10750H-Win10P/dp/B08LSHQVJX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B08KY71HH4/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-79tg - 35,6 cm (14") - core i7 10750h - 16 gb ram - 1.024 tb ssd - español</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC315-72P-79TG/dp/B08QNDCGK3/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p - ordenador portátil convertible y tactil 14" full hd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), laptop blanco, teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P/dp/B099F2ZVJF/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc315-72p-7226 w10p</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72P-7226-W10P/dp/B08VHBBJH3/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 intel core i7-10750h notebook 35,56 cm (14") 16gb ram, 512gb ssd, intel uhd grafik, full-hd, win 10 pro</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-Full-HD/dp/B08QNDKZPR/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 ezel pro cc314-72p-75p3-35,6 cm (14") - core i7 10750h - 16 gb ram - ssd de 1,024 tb</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P-75P3-35/dp/B08QN9RGVJ/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>acer cuaderno conceptd 7 pro cn715-72p-76ll - 39,62 cm (15,6") - intel core i7-10750h - weiß</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Cuaderno-ConceptD-Pro-CN715-72P-76LL/dp/B08XNJ277T/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 3 pro  </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro intel core i7-10750h notebook 39,62cm (15,6") 16gb ram, 512gb ssd, nvidia quadro, fullhd, win 10 pro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-NVIDIA/dp/B08QNBX4BY/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p-76qy - 39,6 cm (15,6") - i7-10875h</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-76QY-i7-10875H/dp/B08XNGWX3N/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p-78u0 15.6"</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-78U0-15-6/dp/B08P8X8FMY/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>acer cuaderno conceptd 7 pro cn715-72p-76ll - 39,62 cm (15,6") - intel core i7-10750h - weiß</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Cuaderno-ConceptD-Pro-CN715-72P-76LL/dp/B08XNJ277T/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10875h, 32gb ram, 1tb ssd, nvidia quadro rtx 5000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B096BBRMP5/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer conceptd 7 pro  </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>extensa acer 15 ex215-31 - ordenador portátil 15.6" hd (intel n4020, 8gb ram, 256gb ssd, intel uhd graphics , negro- teclado qwerty español, sin sistema operativo)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Extensa-Acer-15-EX215-31-Ordenador/dp/B08KQ1BL61/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>acer portatil extensa 15 ex215-22 ryzen 5-3500u 15.6" fhd 8gb s512gb wifi.ac linux negro</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-PORTATIL-EXTENSA-EX215-22-5-3500U/dp/B08PPHTH2G/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-22 - ordenador portátil 15.6" fhd (windows 10 home s, amd ryzen 3 3250u, 8gb ram, 256gb ssd, radeon™ graphics , negro, teclado qwerty español)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ACER-EXTENSA-15-EX215-22-Ordenador/dp/B08Y81LSJW/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-22 - ordenador portátil 15.6" fhd (iamd ryzen 3 3250u, 8gb ram, 256gb ssd, radeon™ graphics , negro- teclado qwerty español, sin sistema operativo)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-EXTENSA-EX215-22-Ordenador-operativo/dp/B08PD5T99B/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>acer extensa 15 | ex215-52-519j - nx.eg8eb.00l</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-519J-NX-EG8EB-00L/dp/B08HD2K7WM/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>portatil acer extensa 15 ex215-52-78j5 negro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-ACER-EXTENSA-EX215-52-78J5-Negro/dp/B08NXMDRC7/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>acer extensa 15 | ex215-52-33py - nx.eg8eb.00d</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-33PY-NX-EG8EB-00D/dp/B08HCSCYX4/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-52-507r - 39,62 cm (15.6") - core i5 1035g1-8 gb ram - 512 gb ssd - español</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-507R-1035G1-8/dp/B08P57JSFN/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa 15  </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>acer extensa 15 ex215-31-p5eq portátil negro 39,6 cm (15.6") 1920 x 1080 pixeles intel® pentium® silver 4 gb ddr4-sdram 128 gb ssd wi-fi 5 (802.11ac) windows 10 pro extensa 15 ex215-31-p5eq,</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-EX215-31-P5EQ-Port%C3%A1til-Pentium%C2%AE-DDR4-SDRAM/dp/B08CNDYS7S/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer extensa ex2540  </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>hdd-2-5inch-2tb-2000gb acer extensa ex2540 i3 15.6 2tb 2tb hdd unidad de disco duro 2.5 sata nuevo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/hdd-2-5inch-2tb-2000gb-Extensa-ex2540-Unidad-disco/dp/B07DMG8BSV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+ex2540&amp;qid=1631022684&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd, gaming laptop 144hz (intel core i7-10750h, 16b ram, 1tb ssd, nvidia geforce rtx3070, sin so) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-i7-10750H/dp/B08SWS2PSV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd 144 hz, gaming laptop (intel core i7-10750h, 16b ram, 1tb ssd, nvidia rtx 3060, sin so), pc portátil negro - teclado qwerty</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-RTX3060-6GB/dp/B099F6DRKY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd, gaming laptop (intel core i7-10750h, 16b ram, 1tb ssd, nvidia rtx2060, sin so), pc portátil negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-Ordenador/dp/B086W6SWQ8/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 gaming laptop, intel i7-10750h, nvidia geforce rtx 3060 6gb, 15.6" fhd 144hz 3ms ips display, 16gb ddr4, 512gb nvme ssd, wifi 6 american english backlit keyboard</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-i7-10750H-American-Keyboard/dp/B08VKV5WQ1/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 ph315-51-76vb - ordenador portátil de 15.6" full hd (intel core i7-8750h, 16gb ram, 128gb ssd, 1tb hdd, nvidia geforce gtx1060, windows 10) negro - teclado español</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-PH315-51-76VB/dp/B07G3RY9HS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 - portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx3080-8gb, sin sistema operativo), color negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-RTX3080-8GB/dp/B09BFQLLL7/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 portátil gaming gtx 1060 with new i7 15.6 inch</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-Port%C3%A1til-Gaming/dp/B07FS4N3PR/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 - ordenador portátil gaming de 15.6" fullhd (intel core i7-9750h, 16gb ram, 512gb ssd, nvidia geforce gtx 1660ti 6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-300-Ordenador/dp/B083QW7DS8/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>acer predator helios 300 gaming laptop, intel i7-10750h, nvidia geforce rtx 2070 super, 15.6" fhd 300hz nvidia g-sync display, 16gb ddr4, 512gb nvme ssd, american english backlit keyboard</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-i7-10750H-American-Keyboard/dp/B096W9ZQNL/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer predator helios 300  </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>acer predator helios 300, 39,62 cm (15,6 zoll), fhd, 240hz, rtx 3070</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Predator-Helios-Zoll-240Hz/dp/B096W6SDV1/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil 14" full hd, laptop (amd ryzen 3 3200u, 8gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B08F5JM5ZS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil ultrafino 13.5" qhd (intel core i7-1065g7, 16gb ram, 1tb ssd, intel iris plus graphics, windows 10 home), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Ordenador-ultrafino-i7-1065G7/dp/B089B3499K/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-59-50mz - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08SW2YLVX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>acer swift 3 - portátil 14" fullhd (ryzen 5 3500u , 8gb ram, 512gb ssd, uma graphics, windows 10 home) - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B0936PVXLQ/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>acer swift 3 (sf314-57-55bk) 14" full hd ips, intel i5-1035g1, 8gb ram, 512gb ssd, windows 10</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-SF314-57-55BK-i5-1035G1-Windows/dp/B07WL4J978/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-42-r86v plata portátil 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 5 8 gb lpddr4-sdram 256 gb ssd wi-fi 6 (802.11ax) windows 10 home swift 3 sf314-42-r86v, amd ryzen 5, 2,3</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-SF314-42-R86V-Port%C3%A1til-LPDDR4-SDRAM-802-11ax/dp/B0873PG7Y8/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-42-r4xj portátil plata 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 7 8 gb lpddr4-sdram 1000 gb ssd wi-fi 6 (802.11ax) windows 10 home swift 3 sf314-42-r4xj, amd ryzen 7, 2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-SF314-42-R4XJ-Port%C3%A1til-LPDDR4-SDRAM-802-11ax/dp/B085F4HVB4/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>acer swift 5 nu-sf514-55t-5001 - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 512gb ssd, intel evo, iris xe graphics, windows 10 home), pc portátil color negro - qwerty</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08F5JB5NV/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 3  </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-52g - ordenador portátil 14" fhd ips (intel core i5-8250u, 8 gb de ram, 256 gb ssd, nvidia geforce mx150 de 2 gb, windows 10 home) azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-SF314-52G-Ordenador-port%C3%A1til/dp/B079NPFRXC/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>acer swift 5 nu-sf514-55t-5001 - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 512gb ssd, intel evo, iris xe graphics, windows 10 home), pc portátil color negro - qwerty</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08F5JB5NV/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>acer swift 3 - portátil 14" fullhd (ryzen 5 3500u , 8gb ram, 512gb ssd, uma graphics, windows 10 home) - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B0936PVXLQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil 14" full hd, laptop (amd ryzen 3 3200u, 8gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B08F5JM5ZS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>acer swift 3 - ordenador portátil ultrafino 13.5" qhd (intel core i7-1065g7, 16gb ram, 1tb ssd, intel iris plus graphics, windows 10 home), color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Ordenador-ultrafino-i7-1065G7/dp/B089B3499K/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>acer swift 3 (sf314-57-55bk) 14" full hd ips, intel i5-1035g1, 8gb ram, 512gb ssd, windows 10</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-SF314-57-55BK-i5-1035G1-Windows/dp/B07WL4J978/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>acer swift 3 sf314-59-50mz - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08SW2YLVX/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer swift 5  </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>acer swift 5 sf514-55gt-78fl 14" touch screen i7-1165g7 ram 8gb-ssd 512gb m.2 nvme-nvidia geforce mx350 2gb-win 10 home</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-SWIFT-SF514-55GT-78FL-i7-1165G7-NVMe-NVIDIA/dp/B08NTV2X7V/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acer travelmate  </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>acer travelmate spin b3 tmb311rn-31-p5kk - educación - 29,46 cm (11,6") - intel pentium silver n503</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Acer-TravelMate-TMB311RN-31-P5KK-Pantalla-DDR4-SDRAM/dp/B0896F7S85/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+travelmate&amp;qid=1631022799&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>############################################################################</t>
         </is>

--- a/tablets_matches.xlsx
+++ b/tablets_matches.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,23 +390,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1 A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr coral  </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, uma graphics, windows 10 home), color plata - teclado qwerty español</t>
+          <t>apple iphone xr 64 gb coral (reacondicionado)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -416,19 +416,19 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Apple-iPhone-XR-Coral-Reacondicionado/dp/B07N9GFRK8/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+coral&amp;qid=1631027611&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr coral  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-44 - ordenador portátil 15.6" full hd, laptop (amd ryzen 7 4700u, 8 gb ram, 512 gb ssd, uma graphics, comfyview, endless os), pc portátil color negro - teclado qwerty español</t>
+          <t>apple iphone xr 128 gb coral (reacondicionado)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -438,19 +438,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-44-Ordenador-ComfyView/dp/B08WX5F7LM/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Apple-iPhone-128-Coral-Reacondicionado/dp/B07N9MDR6R/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+coral&amp;qid=1631027611&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr coral  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-56g - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, nvidia geforce mx350 2gb, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+          <t>apple iphone xr, 256 gb - coral (reacondicionado)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -460,19 +460,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Apple-iPhone-256-Coral-Reacondicionado/dp/B07N9N4W13/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+coral&amp;qid=1631027611&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone xr blanco  </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-56 - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, intel iris xe graphics, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+          <t>apple iphone xr 128 gb blanco (reacondicionado)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -482,19 +482,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-56-Ordenador-i7-1165G7/dp/B08PX3C2SW/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-11</t>
+          <t>https://www.amazon.es/Apple-iPhone-128-Blanco-Reacondicionado/dp/B07N9HM41P/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+blanco&amp;qid=1631026080&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone se negro  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" full hd, laptop (intel core i5-1035g1, 16gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
+          <t>apple iphone se (128 gb) - en negro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -504,19 +504,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-18</t>
+          <t>https://www.amazon.es/Apple-iPhone-SE-128-GB-Negro/dp/B08L6YWM4B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+se+negro&amp;qid=1631027623&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 1  </t>
+          <t xml:space="preserve">iphone se negro  </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>acer aspire 3 a317-53-34a6 - ordenador portátil de 17,3 pulgadas, hd+, portátil (intel core i3-1115g4, ram de 8 gb, ssd 512 gb, intel uhd graphics, windows 10) - teclado azerty (francés), color gris</t>
+          <t>apple iphone se (64 gb) - en negro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -526,19 +526,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A317-53-34A6-Ordenador-i3-1115G4/dp/B08WDJ296F/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+1&amp;qid=1631022323&amp;s=electronics&amp;sr=1-27</t>
+          <t>https://www.amazon.es/Apple-iPhone-SE-64-GB-Negro/dp/B08L6XHW5C/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+se+negro&amp;qid=1631027623&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iphone se negro  </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>apple iphone se (256 gb) - en negro (incluye earpods, adaptador de corriente)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-SE-256-GB/dp/B0875XHDXV/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+se+negro&amp;qid=1631027623&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 3  </t>
+          <t xml:space="preserve">iphone se negro  </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>acer aspire 3 a317-53-34a6 - ordenador portátil de 17,3 pulgadas, hd+, portátil (intel core i3-1115g4, ram de 8 gb, ssd 512 gb, intel uhd graphics, windows 10) - teclado azerty (francés), color gris</t>
+          <t>apple iphone se 2a generación, 64gb, negro (reacondicionado)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -548,19 +570,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A317-53-34A6-Ordenador-i3-1115G4/dp/B08WDJ296F/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Apple-iPhone-Generaci%C3%B3n-64GB-Reacondicionado/dp/B08D39SX4M/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+se+negro&amp;qid=1631027623&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 3  </t>
+          <t xml:space="preserve">iphone se negro  </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>acer aspire 3 a315-56 - ordenador portátil 15.6” full hd, laptop (intel core i5-1035g1, 12gb ram, ram, 512gb ssd, uma graphics, sin sistema operativo), pc portátil color negro - teclado qwerty español</t>
+          <t>apple iphone se 2a generación, 128gb, negro (reacondicionado)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -570,19 +592,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Operativo/dp/B08F5KP4R6/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Apple-iPhone-Generaci%C3%B3n-128GB-Reacondicionado/dp/B08D377VBX/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+se+negro&amp;qid=1631027623&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 3  </t>
+          <t xml:space="preserve">iphone se negro  </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>acer aspire 3 a315-41 - ordenador portátil 15.6” full hd, laptop (amd ryzen 5 2500u, 8gb ram, ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color negro - teclado qwerty español</t>
+          <t>apple iphone se (256 gb) - en negro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -592,63 +614,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-A315-41-R8ZC-Ordenador-port%C3%A1til-Tarjeta/dp/B07D8B9N2K/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer aspire 3  </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" fullhd (intel core i5-1035g1, 8gb ram, 256gb ssd, uma graphics, windows 10 home), color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5JK7VR/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer aspire 3  </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>acer aspire 5 15.6 inch fhd slim laptop, amd ryzen 3 3200u,vega 3 graphics, 4gb ddr4, 128gb ssd, american english qwerty backlit keyboard</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Graphics-American-English-Keyboard/dp/B094MN1RJG/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-16</t>
+          <t>https://www.amazon.es/Apple-iPhone-SE-256-GB-Negro/dp/B08L6Y1QJZ/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+se+negro&amp;qid=1631027623&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer aspire 3  </t>
+          <t xml:space="preserve">samsung galaxy m21 negro  </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>acer aspire 5 a515-56g - ordenador portátil 15.6" full hd, laptop (intel core i7-1165g7, 8 gb ram, 512 gb ssd, nvidia geforce mx350 2gb, comfyview, sin os), pc portátil plata, teclado qwerty español</t>
+          <t>samsung galaxy m21 - smartphone dual sim de 6.4" samoled fhd+, triple cámara 48 mp, 4 gb ram, 64 gb rom ampliables, batería 6000 mah, android, versión española, color negro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -658,63 +636,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Aspire-A515-56G-Ordenador-i7-1165G7/dp/B08PX44Q8J/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer aspire 3  </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>acer aspire 5 a515-55 - ordenador portátil 15.6" full hd, laptop (intel core i5-1035g1, 16gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Aspire-Port%C3%A1til-i5-1035G1-Graphics/dp/B08F5KDS6M/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer aspire 3  </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>acer aspire 3 a315-56-5205 - ordenador portátil (15,6") fhd (core i5, 8 gb de ram, ssd 512 gb, intel uhd graphics, windows 10f) - french keyboard (azerty)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Aspire-A315-56-5205-Ordenador-port%C3%A1til/dp/B089T436YR/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+aspire+3&amp;qid=1631022339&amp;s=electronics&amp;sr=1-29</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-M21-Smartphone-Ampliables/dp/B0883HGRJL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m21+negro&amp;qid=1631027875&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">samsung galaxy a72 blanco  </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>samsung smartphone galaxy a72 con pantalla infinity-o fhd+ de 6,7 pulgadas, 8 gb de ram y 256 gb de memoria interna ampliable, batería de 5000 mah y carga superrápida blanco (es versión)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWPQKYS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a72+blanco&amp;qid=1631028079&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+          <t xml:space="preserve">samsung galaxy a72 blanco  </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" full hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+          <t>samsung smartphone galaxy a72 con pantalla infinity-o fhd+ de 6,7 pulgadas, 6 gb de ram y 128 gb de memoria interna ampliable, batería de 5000 mah y carga superrápida blanco (es versión)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -724,63 +680,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05597672G4QY1JSFXC4J&amp;url=%2FAcer-Chromebook-314-CB314-1H-Ordenador%2Fdp%2FB08XC1G78P%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dacer%2Bchromebook%2B314%2Bcb314-1h%26qid%3D1631022466%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631022466&amp;id=7392795416160363&amp;widgetName=sp_atf</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" full hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Ordenador/dp/B08XC1G78P/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" hd, laptop (intel celeron n4020, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Procesador/dp/B085PCPNCV/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWKD19H/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a72+blanco&amp;qid=1631028079&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 314 cb314-1h  </t>
+          <t xml:space="preserve">samsung galaxy a12 azul  </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>acer chromebook 314 cb314-1h - ordenador portátil 14" hd, laptop (intel celeron n4020, 4gb ram, 32gb emmc, intel uhd graphics, chrome os), pc portátil color plata - teclado qwerty español</t>
+          <t>samsung galaxy a12 | smartphone libre 4g ram y 128gb capacidad interna ampliables | cámara principal 48mp | 5.000 mah de batería y carga rápida | color azul [versión española]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -790,19 +702,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-314-CB314-1H-Procesador/dp/B085PDG71J/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+314+cb314-1h&amp;qid=1631022466&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B08Q8JXS17/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+azul&amp;qid=1631028379&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">samsung galaxy a12 azul  </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 | smartphone libre 4g ram y 64gb capacidad interna ampliables | cámara principal 48mp | 5.000 mah de batería y carga rápida | color azul [versión española]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B08Q8LZG85/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+azul&amp;qid=1631028379&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 514  </t>
+          <t xml:space="preserve">samsung galaxy a12 azul  </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>acer chromebook spin 514 - ordenador portátil 2 en 1 convertible y tactil 14" full hd, laptop (amd ryzen 3 3250c, 8gb ram, 128gb ssd, uma graphics, chrome os), pc portátil plata - teclado qwerty</t>
+          <t>samsung galaxy a12 | smartphone libre 3g ram y 32gb capacidad interna ampliables | cámara principal 48mp | 5.000 mah de batería y carga rápida | color azul [versión española]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -812,19 +746,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-14-Port%C3%A1til-Graphics/dp/B08FC69VMH/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B08VNS37VH/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+azul&amp;qid=1631028379&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 514  </t>
+          <t xml:space="preserve">samsung galaxy a12 azul  </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>acer chromebook spin 514 - ordenador portátil 2 en 1 convertible y tactil 14" full hd, laptop (amd athlon n3050c, 4gb ram, 64gb ssd, uma graphics, chrome os) pc portátil color plata - teclado qwerty</t>
+          <t>samsung galaxy a12 | smartphone libre 3g ram y 32gb capacidad interna ampliables | cámara principal 48mp | 5.000 mah de batería y carga rápida | color azul [versión española]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -834,63 +768,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-13-Port%C3%A1til-Graphics/dp/B08FC7LW5Z/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook 514  </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>acer chromebook 514 cb514-1ht - ordenador táctil 14" full hd ips, laptop (intel pentium n4200, 4gb ram, 128gb emmc, intel hd graphics 505, chrome os), pc portátil plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Chromebook-514-CB514-1HT-Procesador/dp/B085PDBDR7/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+514&amp;qid=1631022480&amp;s=electronics&amp;sr=1-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook 714 cb714-1w  </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0852293IATLVS1Z17QM&amp;url=%2FAcer-Chromebook-714-CB714-1W-Procesador%2Fdp%2FB085PDJ3V3%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dacer%2Bchromebook%2B714%2Bcb714-1w%26qid%3D1631022495%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631022495&amp;id=6310489993055812&amp;widgetName=sp_atf</t>
+          <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B098PFVRZ8/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+azul&amp;qid=1631028379&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 714 cb714-1w  </t>
+          <t xml:space="preserve">samsung galaxy a01 core negro  </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+          <t>samsung galaxy a01 core single sim 16gb, color negro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,19 +790,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-714-CB714-1W-Procesador/dp/B085PDJ3V3/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+714+cb714-1w&amp;qid=1631022495&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Single-Color-Negro/dp/B08XMMDPYS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a01+core+negro&amp;qid=1631028934&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 715  </t>
+          <t xml:space="preserve">samsung galaxy a51 5g blanco  </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>acer chromebook 715 cb715-1wt-37gm - core i3 8130u / 2.2 ghz - cromo os - 8 gb ram - 32 gb emmc -...</t>
+          <t>samsung galaxy a51 5g - smartphone 6.5" super amoled (6gb ram, 128gb rom), blanco</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -922,41 +812,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-715-CB715-1WT-37GM-8130U/dp/B08BB2HR7M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook 715  </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>acer portátil chromebook 715 15" fhd ips - core i5-8250u - 8 gb ddr4 - 128 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - bateria 56wh - chrome - plata</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-NX-HB2EB-002-Chromebook-CB715-1W-50LT/dp/B07Y82B5LY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-A51-5G-Smartphone/dp/B08BLLG746/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a51+5g+blanco&amp;qid=1631029114&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 715  </t>
+          <t xml:space="preserve">samsung galaxy s20 5g rojo  </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>acer portátil chromebook 715 15" fhd ips - core i3-8165u - 8 gb ddr4 - 64 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - batería 56wh - chrome enterprise - plata</t>
+          <t>samsung galaxy g781b s20 fe 5g 6/128gb rojo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -966,19 +834,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-715-FHD/dp/B087WH2G8X/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-G781B-128GB-Cloud/dp/B08JH4YKM4/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s20+5g+rojo&amp;qid=1631029544&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 715  </t>
+          <t xml:space="preserve">samsung galaxy s20 5g rojo  </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>acer portátil chromebook 715 15" fhd ips - core i5-8250u - 8 gb ddr4 - 128 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - lector de huellas - no odd - bateria 56wh - chrome enterprise - plata</t>
+          <t>samsung galaxy s20 fe 5g - smartphone 128gb, 6gb ram, dual sim, cloud rojo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -988,19 +856,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-715-FHD/dp/B089T7LGZQ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-S20-FE-Smartphone/dp/B08Q29L18P/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s20+5g+rojo&amp;qid=1631029544&amp;s=electronics&amp;sr=1-19</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook 715  </t>
+          <t xml:space="preserve">samsung galaxy s20 5g rojo  </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>acer chromebook 715 for work cb715-1wt-p9ku</t>
+          <t>samsung galaxy s20 fe 5g - smartphone 128gb, 6gb ram, dual sim, cloud rojo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1010,19 +878,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ACER-Chromebook-715-Work-CB715-1WT-P9KU/dp/B08KYCN472/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+715&amp;qid=1631022509&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-S20-FE-Rojo/dp/B08JVKWY5S/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s20+5g+rojo&amp;qid=1631029544&amp;s=electronics&amp;sr=1-23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook r 13  </t>
+          <t xml:space="preserve">samsung galaxy s9+ negro  </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+          <t>samsung smartphone galaxy s9+ (single sim) 64gb - negro (reacondicionado)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1032,41 +900,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook r 13  </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>acer chromebook 713 - portátil táctil convertible 13.5" qhd (intel core i5-1021u, 8gb ram, 128gb ssd, chrome os), color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Chromebook-713-Port%C3%A1til-Convertible/dp/B08FC5V3ZV/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-19</t>
+          <t>https://www.amazon.es/Samsung-BSM-G965X-Smartphone-Bluetooth-Reacondicionado/dp/B07MJGLH7L/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s9+negro&amp;qid=1631030242&amp;s=electronics&amp;sr=1-23</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook r 13  </t>
+          <t xml:space="preserve">samsung galaxy s8 negro  </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>acer chromebook 714 cb714-1w - ordenador portátil táctil 14" full hd ips, laptop (intel core i3-8130u, 4gb ram, 64gb emmc, intel uhd graphics, chrome os), pc portátil gris - teclado qwerty español</t>
+          <t>samsung galaxy s8 smartphone, 4gb ram, 64gb, 12mp, android 9, (versión española: incluye samsung pay, compatibilidad de redes), negro, 5.8"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1076,19 +922,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-714-CB714-1W-Procesador/dp/B085PDJ3V3/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+r13&amp;qid=1631022535&amp;s=electronics&amp;sr=1-27</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-espa%C3%B1ola/dp/B06XXFHG6J/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+negro&amp;qid=1631030416&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">samsung galaxy s8 negro  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>samsung galaxy s8, smartphone libre (5.8'', 4gb ram, 64gb, 12mp) [versión alemana: no incluye samsung pay ni acceso a promociones samsung members], color negro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-alemana/dp/B06XJ49G5B/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+negro&amp;qid=1631030416&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook spin 13  </t>
+          <t xml:space="preserve">samsung galaxy s8 negro  </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+          <t>samsung galaxy s8 plus - smartphone libre de 6.2" qhd+ (4 g, bluetooth, octa-core s, 64 gb memoria interna, 4 gb ram, camara de 12 mp, android), negro, - [versión española]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1098,19 +966,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Plus-Smartphone-Bluetooth/dp/B06XX1X2NY/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+negro&amp;qid=1631030416&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook spin 13  </t>
+          <t xml:space="preserve">samsung galaxy s8 negro  </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>acer chromebook spin 513 13" fhd touch 4gb/64gb emmc chromeos cp513-1h-s72y</t>
+          <t>samsung galaxy s8 plus - smartphone libre (6.2'', 4gb ram, 64gb, 12mp), negro, - [versión alemana: no incluye samsung pay ni acceso a promociones samsung members]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1120,41 +988,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Touch-ChromeOS-CP513-1H-S72Y/dp/B093TK2P99/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook spin 13  </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>acer chromebook spin 13 13.5" touch chromebook - core i5 1.6ghz cpu, 8gb ram, google chrome</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Spin-13-5-Touch/dp/B08CNPVN1D/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Plus-Smartphone-promociones/dp/B06XJ6BTYT/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+negro&amp;qid=1631030416&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook spin 13  </t>
+          <t xml:space="preserve">samsung galaxy s8 plata  </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>acer portátil chromebook spin 13,5" qhd touch ips - core i3-8165u - 8 gb ddr3 - 64 gb emmc hdd - intel hd - 802.11ac/b/g/n + bt- tpm - wacom stylus pen - no odd - chrome enterprise - plata</t>
+          <t>samsung galaxy s8 plus - smartphone libre de 6.2" qhd+ (4 g, bluetooth, octa-core s, 64 gb memoria interna, 4 gb ram, camara de 12 mp, android), plata, - [versión española]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1164,19 +1010,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-port%C3%A1til-Chromebook-SPIN-Touch/dp/B089T36KSF/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+13&amp;qid=1631022549&amp;s=electronics&amp;sr=1-19</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Plus-Smartphone-Bluetooth/dp/B06XX6F5XY/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">samsung galaxy s8 plata  </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>samsung galaxy s8 + smartphone (pantalla táctil de 6,2 pulgadas, memoria 64 gb, android) plata de titanio (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Smartphone-Pantalla-Pulgadas-Reacondicionado/dp/B073FCYRRQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook spin 311  </t>
+          <t xml:space="preserve">samsung galaxy s8 plata  </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>acer chromebook spin 311 cp311-3h - ordenador portátil 2 en 1 convertible y táctil 11.6" hd ips (mtk mt8183, 4gb ram, 32gb emmc, mali-g72 mp3 graphics, chrome os), pc portátil plata - qwerty</t>
+          <t>samsung galaxy s8 - smartphone libre de 5.8" (4 g, bluetooth, octa-core s, 64 gb memoria interna, 4 gb ram, camara de 12 mp, android), plata, - [versión española]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1186,19 +1054,41 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Spin-311-CP311-3H/dp/B085PCN161/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+311&amp;qid=1631022563&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Bluetooth-Octa-Core/dp/B06XXC5V5M/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">samsung galaxy s8 plata  </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>samsung galaxy s8 plus - smartphone libre android (6.2", 4 gb ram, 4g, 12 mp), plata, - [versión alemana: no incluye samsung pay ni acceso a promociones samsung members]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Galaxy-Plus-Smartphone-promociones/dp/B06XJ474HV/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook spin 513  </t>
+          <t xml:space="preserve">samsung galaxy s8 plata  </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>acer chromebook spin 513 cp513-1h - ordenador portátil 2 en 1 convertible y táctil 13.3 full hd ips (qualcomm snapdragon sc7180, 8gb ram, 64gb emmc, uma graphics, chrome os), pc portátil azul - qwerty</t>
+          <t>samsung smartphone galaxy s8 (hybrid sim) 64gb - plata (reacondicionado)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1208,19 +1098,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H/dp/B08V54D9JP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Samsung-Smartphone-Galaxy-Hybrid-64GB/dp/B0764K8Z1H/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook spin 513  </t>
+          <t xml:space="preserve">samsung galaxy s8 plata  </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>acer chromebook spin 513 13" fhd touch 4gb/64gb emmc chromeos cp513-1h-s72y</t>
+          <t>samsung galaxy s8 - smartphone libre (5.8'', 4gb ram, 64gb, 12mp), plata, - [versión francesa: no incluye samsung pay ni acceso a promociones samsung members]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1230,19 +1120,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Touch-ChromeOS-CP513-1H-S72Y/dp/B093TK2P99/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-S8-Smartphone-promociones/dp/B06XVXWNY8/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer chromebook spin 513  </t>
+          <t xml:space="preserve">samsung galaxy s8 plata  </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>acer chromebook spin 513 cp513-1h-s98j - ordenador portátil 7c emmc 64gb + ram 8gb silver</t>
+          <t>samsung galaxy s8 - smartphone libre (5.8'', 4gb ram, 64gb, 12mp), plata, - [versión alemana: no incluye samsung pay ni acceso a promociones samsung members]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1252,63 +1142,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ChromeBook-Spin-513-CP513-1H-S98J/dp/B09CZ1RMQX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer chromebook spin 513  </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>acer chromebook spin 513 cp513-1h-s0xg - 33,8 cm (13,3") - snapdragon 7c kryo 468 - silber</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Chromebook-Spin-513-CP513-1H-S0XG/dp/B08XND6SMZ/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+chromebook+spin+513&amp;qid=1631022577&amp;s=electronics&amp;sr=1-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-S8-Smartphone-promociones/dp/B06XJ65K58/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+plata&amp;qid=1631030438&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">samsung galaxy s8 azul  </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>samsung galaxy s8 sm-g950f sim única 4g 64gb azul - smartphone (14,7 cm (5.8"), 64 gb, 12 mp, android, 7.0, azul)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Galaxy-SM-G950F-%C3%BAnica-64GB/dp/B075MGQKWV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+azul&amp;qid=1631030453&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s8 rosa  </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+          <t>samsung sm-g950f galaxy s8 - smartphone (sim única, 4g, 64gb, 14,7 cm (5.8"), 12 mp, android, 7.0), rosa, -[versión alemana]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1318,41 +1186,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 cn315-72g - ordenador portátil 15.6" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia geforce gtx 1650, windows 10 home), pc portátil blanco - teclado qwerty</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN315-72G-Ordenador-i5-10300H/dp/B099F3RFPS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Samsung-SM-G950F-Galaxy-S8-Smartphone/dp/B076X8K1ND/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s8+rosa&amp;qid=1631030475&amp;s=electronics&amp;sr=1-21</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc314-72p-75p3-35,6 cm (14") - core i7 10750h - 16 gb ram - ssd de 1,024 tb</t>
+          <t>samsung - tablet galaxy tab s7 fe de 12,4 pulgadas con wi-fi y sistema operativo android plata es version</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1362,19 +1208,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P-75P3-35/dp/B08QN9RGVJ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Samsung-Pulgadas-Sistema-Operativo-Android/dp/B09BJWGCQM/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+          <t>samsung galaxy tab s7+ - tablet de 12.4" qhd (wifi, procesador qualcomm snapdragon 865 plus, ram de 6gb, almacenamiento de 128gb, android 10, s pen incluido) - color plata [versión española]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1384,19 +1230,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B08KY71HH4/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Tab-Procesador-Almacenamiento/dp/B08DW5Z2R8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+          <t>samsung galaxy tab s7+ - tablet de 12.4" qhd (wifi, procesador qualcomm snapdragon 865 plus, ram de 6gb, almacenamiento de 256 gb, android 10, s pen incluido) - color plata [versión española]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1406,19 +1252,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B096BFZFM8/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Tab-Procesador-Almacenamiento/dp/B08DKPCFNH/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc315-72p-79tg - 35,6 cm (14") - core i7 10750h - 16 gb ram - 1.024 tb ssd - español</t>
+          <t>samsung - tablet galaxy tab s7 fe de 12.4 pulgadas con 5g y sistema operativo android 128 gb, plata, es versión</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,19 +1274,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC315-72P-79TG/dp/B08QNDCGK3/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Samsung-Pulgadas-sistema-operativo-Android/dp/B094P1D5HF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+          <t>samsung galaxy s7 - smartphone de 5.1" (sim única, android, 32 gb, 4g, nanosim, gsm, hspa+, umts, wcdma, lte), plata - [importado de alemania]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1450,19 +1296,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-Alemana/dp/B01BTZFQX0/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>acer conceptd 3 intel core i7-10750h notebook 35,56 cm (14") 16gb ram, 512gb ssd, intel uhd grafik, full-hd, win 10 pro</t>
+          <t>samsung - tablet galaxy tab s7 fe de 12.4 pulgadas con 5g y sistema operativo android 64 gb, plata, es versión</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1472,19 +1318,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-Full-HD/dp/B08QNDKZPR/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-9</t>
+          <t>https://www.amazon.es/Samsung-Pulgadas-sistema-operativo-Android/dp/B094NYD967/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>acer conceptd 3 cn315-72g-7356-39,6 cm (15.6") - core i7 10750h - 16 gb ram - 512 gb ssd - español</t>
+          <t>samsung galaxy s7 - smartphone de 5.1" (tarjeta sim sencilla, android, 32 gb, nanosim, gsm, hspa+, lte), plata - [únicamente con tarjeta sim europea]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1494,19 +1340,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN315-72G-7356-39-15-10750H/dp/B08KZPNJ52/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-Alemana/dp/B01E1QP8NM/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc314-72p - ordenador portátil convertible y tactil 14" full hd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), laptop blanco, teclado qwerty</t>
+          <t>samsung galaxy tab s7 - tablet de 11" con pantalla qhd (wi-fi, procesador qualcomm snapdragon 865+, ram de 6gb, rom de 128gb, android 10 actualizable) - color plata [versión española]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1516,19 +1362,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P/dp/B099F2ZVJF/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-11</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Tab-S7-Incluido/dp/B08DKPYN4K/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">samsung galaxy s7 plata  </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>acer conceptd 3 cn315-72 - ordenador portátil 15.6" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 home), pc portátil blanco - teclado qwerty español</t>
+          <t>samsung galaxy s7 edge - smartphone de 5.5'' (sim única, android, memoria interna de 32 gb, 4g, nanosim, gsm, hspa+, lte), plata</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1538,41 +1384,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN315-72-Ordenador-i5-10300H/dp/B099F4CWY9/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 pro 15.6" i7-10750h win10p</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-15-6-i7-10750H-Win10P/dp/B08LSHQVJX/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-13</t>
+          <t>https://www.amazon.es/Samsung-Galaxy-Smartphone-Versi%C3%B3n-Alemana/dp/B01E1QPH1U/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s7+plata&amp;qid=1631030581&amp;s=electronics&amp;sr=1-19</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">xiaomi xiaomi mix 4 blanco  </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc315-72p-7226 w10p</t>
+          <t>xiaomi mi mix 2 special edition - smartphone 5.99" (4g, snapdragon 835 octa core, memoria interna de 128 gb ampliable con microsd, ram de 8 gb, cámara dual de 12 mp, android one) blanco</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1582,41 +1406,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72P-7226-W10P/dp/B08VHBBJH3/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 cn314-72-50ym - 35,6 cm (14") - core i5 10300h - 8 gb ram - 256 gb ssd - deutsch</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-50YM-10300H-Deutsch/dp/B08QN9N9TS/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-18</t>
+          <t>https://www.amazon.es/Xiaomi-Mix-Special-Smartphone-Snapdragon/dp/B079FX25CL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+xiaomi+mi+4+blanco&amp;qid=1631030605&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">xiaomi poco m3 pro 5g azul  </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel cc314-72g portátil blanco 35,6 cm (14") 1920 x 1080 pixeles pantalla táctil intel® core i7 de 10ma generación 16 gb ddr4-sdram 1000 gb ssd nvidia® geforce® gtx 1650 ti</t>
+          <t>xiaomi poco m3 pro 5g smartphone,6gb 128gb teléfono móvil,dotdisplay fhd+ de 6,5”,mediatek dimensity 700,cámara triple, versión global(azul)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1626,41 +1428,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CC314-72G-Generaci%C3%B3n-DDR4-SDRAM/dp/B08KZNLY2G/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 ezel cc315-72g-70lb i7-10750h</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72G-70lb-i7-10750H/dp/B08VHB8DRF/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-23</t>
+          <t>https://www.amazon.es/Xiaomi-Smartphone-Tel%C3%A9fono-DotDisplay-Dimensity/dp/B095HN211H/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+poco+m3+pro+5g+azul&amp;qid=1631030751&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3  </t>
+          <t xml:space="preserve">xiaomi mi 10t pro 5g negro  </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+          <t>pack xiaomi mi 10t pro 5g negro (smartphone 8gb+128gb, cámara 108mp, snapdragon 865, 5.000mah, carga 33w, versión oficial) + mi electric scooter 1s</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1670,19 +1450,41 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3&amp;qid=1631022606&amp;s=electronics&amp;sr=1-24</t>
+          <t>https://www.amazon.es/Xiaomi-Smartphone-Snapdragon-5-000mAh-Electric/dp/B095PPJ2TC/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+pro+5g+negro&amp;qid=1631031234&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xiaomi mi 10t pro 5g negro  </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>xiaomi mi 10t pro (pantalla 6.67" fhd+, 8gb+256gb, cámara de 108mp, snapdragon 865 5g, 5.000mah con carga 33w) negro, con alexa hands-free</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Snapdragon-5-000mAh-Hands-Free/dp/B08HJDQXBD/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+pro+5g+negro&amp;qid=1631031234&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t pro 5g negro  </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+          <t>xiaomi mi 10t pro (pantalla 6.67" fhd+ dotdisplay, 8gb+128gb, cámara de 108mp, snapdragon 865 5g, 5.000mah comcarga 33w) negro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1692,19 +1494,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HJHTFVW/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+pro+5g+negro&amp;qid=1631031234&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t pro 5g negro  </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+          <t>xiaomi mi 10t pro pack de lanzamiento (pantalla 6.67" fhd+ dotdisplay, 8gb+128gb, cámara de 108mp, snapdragon 865 5g, 5.000mah con carga 33w) negro cósmico [versión española]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1714,41 +1516,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B096BFZFM8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Xiaomi-Lanzamiento-Pantalla-DotDisplay-Snapdragon/dp/B08J88WYPM/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+pro+5g+negro&amp;qid=1631031234&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g negro  </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro 15.6" i7-10750h win10p</t>
+          <t>xiaomi mi 10t pro (pantalla 6.67" fhd+, 8gb+256gb, cámara de 108mp, snapdragon 865 5g, 5.000mah con carga 33w) negro, con alexa hands-free</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1758,19 +1538,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-15-6-i7-10750H-Win10P/dp/B08LSHQVJX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Snapdragon-5-000mAh-Hands-Free/dp/B08HJDQXBD/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+negro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g negro  </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+          <t>pack xiaomi mi 10t pro 5g negro (smartphone 8gb+128gb, cámara 108mp, snapdragon 865, 5.000mah, carga 33w, versión oficial) + mi electric scooter 1s</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1780,19 +1560,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Xiaomi-Smartphone-Snapdragon-5-000mAh-Electric/dp/B095PPJ2TC/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+negro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g negro  </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro cn314-72p - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+          <t>xiaomi mi 10t pro (pantalla 6.67" fhd+ dotdisplay, 8gb+128gb, cámara de 108mp, snapdragon 865 5g, 5.000mah comcarga 33w) negro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1802,19 +1582,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN314-72P-Ordenador/dp/B08KY71HH4/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HJHTFVW/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+negro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g negro  </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc315-72p-79tg - 35,6 cm (14") - core i7 10750h - 16 gb ram - 1.024 tb ssd - español</t>
+          <t>xiaomi mi 10t 5g (pantalla 6.67" fhd+ dotdisplay, 6gb+128gb, cámara de 64mp, snapdragon 865 5g, 5.000mah carga 33w) negro cósmico, con alexa hands-free</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1824,19 +1604,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC315-72P-79TG/dp/B08QNDCGK3/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-Hands-Free/dp/B08HHCXBND/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+negro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g negro  </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc314-72p - ordenador portátil convertible y tactil 14" full hd (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), laptop blanco, teclado qwerty</t>
+          <t>xiaomi mi 10t pro pack de lanzamiento (pantalla 6.67" fhd+ dotdisplay, 8gb+128gb, cámara de 108mp, snapdragon 865 5g, 5.000mah con carga 33w) negro cósmico [versión española]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1846,19 +1626,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P/dp/B099F2ZVJF/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.es/Xiaomi-Lanzamiento-Pantalla-DotDisplay-Snapdragon/dp/B08J88WYPM/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+negro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g negro  </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc315-72p-7226 w10p</t>
+          <t>xiaomi mi 10t pack de lanzamiento (pantalla 6.67" fhd+ dotdisplay, 6gb+128gb, cámara de 64mp, snapdragon 865 5g, 5.000mah con carga 33w) negro cósmico [versión española] + scooter essential</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1868,41 +1648,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-CC315-72P-7226-W10P/dp/B08VHBBJH3/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 intel core i7-10750h notebook 35,56 cm (14") 16gb ram, 512gb ssd, intel uhd grafik, full-hd, win 10 pro</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-Full-HD/dp/B08QNDKZPR/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-13</t>
+          <t>https://www.amazon.es/Xiaomi-Lanzamiento-DotDisplay-Snapdragon-Essential/dp/B08J87NRW4/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+negro&amp;qid=1631031265&amp;s=electronics&amp;sr=1-14</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g plata  </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>acer conceptd 3 ezel pro cc314-72p-75p3-35,6 cm (14") - core i7 10750h - 16 gb ram - ssd de 1,024 tb</t>
+          <t>xiaomi mi 10t 5g (pantalla 6.67" fhd+ dotdisplay, 6gb+128gb, cámara de 64mp, snapdragon 865 5g, 5.000mah carga 33w) plata lunar</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1912,19 +1670,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Ezel-Pro-CC314-72P-75P3-35/dp/B08QN9RGVJ/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-15</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HJHP6Y6/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+plata&amp;qid=1631031278&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g plata  </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>acer cuaderno conceptd 7 pro cn715-72p-76ll - 39,62 cm (15,6") - intel core i7-10750h - weiß</t>
+          <t>xiaomi mi 10t pro (pantalla 6.67" fhd+ dotdisplay, 8gb+256gb, cámara de 108mp, snapdragon 865 5g, 5.000mah comcarga 33w) plata lunar</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1934,19 +1692,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Cuaderno-ConceptD-Pro-CN715-72P-76LL/dp/B08XNJ277T/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-22</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HHCZ8YD/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+plata&amp;qid=1631031278&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g plata  </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+          <t>xiaomi mi 10t pro (pantalla 6.67" fhd+ dotdisplay, 8gb+128gb, cámara de 108mp, snapdragon 865 5g, 5.000mah comcarga 33w) plata</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1956,19 +1714,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-23</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HJDNNQY/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+plata&amp;qid=1631031278&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 3 pro  </t>
+          <t xml:space="preserve">xiaomi mi 10t 5g plata  </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro intel core i7-10750h notebook 39,62cm (15,6") 16gb ram, 512gb ssd, nvidia quadro, fullhd, win 10 pro</t>
+          <t>xiaomi mi 10t (pantalla 6.67" fhd+ dotdisplay, 8gb+128gb, cámara de 64mp, snapdragon 865 5g, 5.000mah comcarga 33w) plata</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1978,19 +1736,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-i7-10750H-Notebook-NVIDIA/dp/B08QNBX4BY/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+3+pro&amp;qid=1631022619&amp;s=electronics&amp;sr=1-26</t>
+          <t>https://www.amazon.es/Xiaomi-Pantalla-Dotdisplay-Snapdragon-5-000Mah/dp/B08HJGGSDS/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=xiaomi+mi+10t+5g+plata&amp;qid=1631031278&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
+          <t xml:space="preserve">google pixel 5 verde  </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10750h, 32gb ram, 1tb ssd, nvidia quadro rtx 3000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+          <t>google pixel 5 15,2 cm (6") 8 gb 128 gb sim única 5g usb tipo c verde 4000 mah pixel 5, 15,2 cm (6"), 1080 x 2340 pixeles, 8 gb, 128 gb, 12,2 mp, verde</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2000,41 +1758,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B099F1QFSY/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>acer conceptd 7 pro cn715-72p-76qy - 39,6 cm (15,6") - i7-10875h</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-76QY-i7-10875H/dp/B08XNGWX3N/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Google-Pixel-%C3%BAnica-Verde-Pixeles/dp/B08JN8MCT5/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=google+pixel+5+verde&amp;qid=1631031338&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
+          <t xml:space="preserve">oppo reno4 z 5g negro  </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>acer conceptd 7 pro cn715-72p-78u0 15.6"</t>
+          <t>oppo - smartphone reno4 z - 5g - 6.57" fhd+ - 8/128gb - negro</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2044,41 +1780,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-78U0-15-6/dp/B08P8X8FMY/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>acer cuaderno conceptd 7 pro cn715-72p-76ll - 39,62 cm (15,6") - intel core i7-10750h - weiß</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Cuaderno-ConceptD-Pro-CN715-72P-76LL/dp/B08XNJ277T/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Oppo-Smartphone-Reno4-128GB-Negro/dp/B07NYWYRWG/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo+reno4+z+5g+negro&amp;qid=1631031472&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
+          <t xml:space="preserve">oppo reno4 5g negro  </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>acer conceptd 7 pro cn715-72p - ordenador portátil 15.6" 4k uhd ips, laptop (intel core i7-10875h, 32gb ram, 1tb ssd, nvidia quadro rtx 5000, windows 10 pro) pc portátil blanco, teclado qwerty español</t>
+          <t>oppo - smartphone reno4 z - 5g - 6.57" fhd+ - 8/128gb - negro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2088,41 +1802,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN715-72P-Ordenador/dp/B096BBRMP5/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd, laptop (intel core i7-10750h, 8gb ram, 1tb ssd, nvidia gtx 1650, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i7-10750H/dp/B08KY87FJT/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.es/Oppo-Smartphone-Reno4-128GB-Negro/dp/B07NYWYRWG/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oppo+reno4+5g+negro&amp;qid=1631031503&amp;s=electronics&amp;sr=1-22</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
+          <t xml:space="preserve">oneplus 9 negro  </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>acer conceptd 3 pro cn315-72p - ordenador portátil 15.6" full hd, laptop (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia quadro t1000, windows 10 pro), pc portátil blanco - teclado qwerty español</t>
+          <t>oneplus 9 pro 5g smartphone con cámara hasselblad para móvil, 8gb de ram + 128gb, negro (stellar black)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2132,19 +1824,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-Pro-CN315-72P-Ordenador/dp/B08KY7T6YR/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-11</t>
+          <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08V1N3RKH/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+9+negro&amp;qid=1631031768&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer conceptd 7 pro  </t>
+          <t xml:space="preserve">oneplus 9 negro  </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>acer conceptd 3 cn314-72 - ordenador portátil 14" full hd ips, laptop (intel core i5-10300h, 8gb ram, 512gb ssd, intel uhd graphics, windows 10 pro), pc portátil color blanco - teclado qwerty español</t>
+          <t>oneplus 6 - smartphone de 6.28" (pantalla amoled 19:9 fullhd, cámara dual 16+20mp, 8gb de ram, hasta 128gb de memoria, qualcomm snapgradon 845), color negro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2154,19 +1846,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-ConceptD-CN314-72-Ordenador-i5-10300H/dp/B099F1HGJT/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+conceptd+7+pro&amp;qid=1631022632&amp;s=electronics&amp;sr=1-16</t>
+          <t>https://www.amazon.es/OnePlus-Smartphone-Pantalla-Qualcomm-Snapgradon/dp/B07CHL6XN6/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+9+negro&amp;qid=1631031768&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer extensa 15  </t>
+          <t xml:space="preserve">oneplus 8 negro  </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>extensa acer 15 ex215-31 - ordenador portátil 15.6" hd (intel n4020, 8gb ram, 256gb ssd, intel uhd graphics , negro- teclado qwerty español, sin sistema operativo)</t>
+          <t>oneplus 9 pro 5g smartphone con cámara hasselblad para móvil, 8gb de ram + 128gb, negro (stellar black)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2176,19 +1868,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Extensa-Acer-15-EX215-31-Ordenador/dp/B08KQ1BL61/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/ONEPLUS-Smartphone-c%C3%A1mara-Hasselblad-m%C3%B3vil/dp/B08V1N3RKH/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+8+negro&amp;qid=1631031851&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer extensa 15  </t>
+          <t xml:space="preserve">oneplus 8 negro  </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>acer portatil extensa 15 ex215-22 ryzen 5-3500u 15.6" fhd 8gb s512gb wifi.ac linux negro</t>
+          <t>oneplus 6 - smartphone de 6.28" (pantalla amoled 19:9 fullhd, cámara dual 16+20mp, 8gb de ram, hasta 128gb de memoria, qualcomm snapgradon 845), color negro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2198,19 +1890,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-PORTATIL-EXTENSA-EX215-22-5-3500U/dp/B08PPHTH2G/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/OnePlus-Smartphone-Pantalla-Qualcomm-Snapgradon/dp/B07CHL6XN6/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+8+negro&amp;qid=1631031851&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer extensa 15  </t>
+          <t xml:space="preserve">oneplus 8 negro  </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>acer extensa 15 ex215-22 - ordenador portátil 15.6" fhd (windows 10 home s, amd ryzen 3 3250u, 8gb ram, 256gb ssd, radeon™ graphics , negro, teclado qwerty español)</t>
+          <t>oneplus 6t 128 gb/8 gb (negro medianoche), desbloqueado de fábrica</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2220,19 +1912,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ACER-EXTENSA-15-EX215-22-Ordenador/dp/B08Y81LSJW/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/OnePlus-Negro-Medianoche-Desbloqueado-f%C3%A1brica/dp/B07DJHY82F/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+8+negro&amp;qid=1631031851&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer extensa 15  </t>
+          <t xml:space="preserve">oneplus 8 negro  </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>acer extensa 15 ex215-22 - ordenador portátil 15.6" fhd (iamd ryzen 3 3250u, 8gb ram, 256gb ssd, radeon™ graphics , negro- teclado qwerty español, sin sistema operativo)</t>
+          <t>pantalla amoled material de lcd y digitalizador asamblea completa for oneplus 8 pro (negro) durable (color : black)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2242,19 +1934,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-EXTENSA-EX215-22-Ordenador-operativo/dp/B08PD5T99B/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Pantalla-Material-digitalizador-Asamblea-Completa/dp/B095293GSG/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+8+negro&amp;qid=1631031851&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer extensa 15  </t>
+          <t xml:space="preserve">oneplus 8 negro  </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>acer extensa 15 | ex215-52-519j - nx.eg8eb.00l</t>
+          <t>oneplus 5t a5010 snapdragon 835 6 pulgadas dual sim smartphone 8 + 128 gb negro</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2264,19 +1956,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-519J-NX-EG8EB-00L/dp/B08HD2K7WM/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/OnePlus-A5010-Snapdragon-Smartphone-128GB/dp/B07849XSQ2/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+8+negro&amp;qid=1631031851&amp;s=electronics&amp;sr=1-23</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer extensa 15  </t>
+          <t xml:space="preserve">oneplus 8 negro  </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>portatil acer extensa 15 ex215-52-78j5 negro</t>
+          <t>oneplus 5t 8gb+128gb - snapdragon™835 octa core - 4g - camara dual - 20+16mp negro</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2286,41 +1978,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PORTATIL-ACER-EXTENSA-EX215-52-78J5-Negro/dp/B08NXMDRC7/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer extensa 15  </t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>acer extensa 15 | ex215-52-33py - nx.eg8eb.00d</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-33PY-NX-EG8EB-00D/dp/B08HCSCYX4/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Oneplus-5T-8GB-128GB-SnapdragonTM835/dp/B077XDQLGP/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+8+negro&amp;qid=1631031851&amp;s=electronics&amp;sr=1-24</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">acer extensa 15  </t>
+          <t xml:space="preserve">oneplus 8 plata  </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>acer extensa 15 ex215-52-507r - 39,62 cm (15.6") - core i5 1035g1-8 gb ram - 512 gb ssd - español</t>
+          <t>oneplus 8t 5g - smartphone fhd de 6.55 "120 hz + pantalla fluida, 8 gb de ram + 128 gb de espacio de almacenamiento, cámara cuádruple, carga warp de 65 w, sim dual, 5g, plata (lunar silver)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2330,650 +2000,34 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Acer-Extensa-15-EX215-52-507R-1035G1-8/dp/B08P57JSFN/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer extensa 15  </t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>acer extensa 15 ex215-31-p5eq portátil negro 39,6 cm (15.6") 1920 x 1080 pixeles intel® pentium® silver 4 gb ddr4-sdram 128 gb ssd wi-fi 5 (802.11ac) windows 10 pro extensa 15 ex215-31-p5eq,</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-EX215-31-P5EQ-Port%C3%A1til-Pentium%C2%AE-DDR4-SDRAM/dp/B08CNDYS7S/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+15&amp;qid=1631022670&amp;s=electronics&amp;sr=1-27</t>
+          <t>https://www.amazon.es/Plateado-Pantalla-almacenamiento-cu%C3%A1druple-garant%C3%ADa/dp/B08HJGQ9ZS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+8+plata&amp;qid=1631031883&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">oneplus nord gris  </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>oneplus nord 5g - smartphone 256gb, 12gb ram, dual sim, gris ceniza</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Tel%C3%A9fono-OnePlus-NORD-Cu%C3%A1druple-5G/dp/B08BPJB782/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=oneplus+nord+gris&amp;qid=1631031906&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer extensa ex2540  </t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>hdd-2-5inch-2tb-2000gb acer extensa ex2540 i3 15.6 2tb 2tb hdd unidad de disco duro 2.5 sata nuevo</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/hdd-2-5inch-2tb-2000gb-Extensa-ex2540-Unidad-disco/dp/B07DMG8BSV/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+extensa+ex2540&amp;qid=1631022684&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd, gaming laptop 144hz (intel core i7-10750h, 16b ram, 1tb ssd, nvidia geforce rtx3070, sin so) negro - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-300-i7-10750H/dp/B08SWS2PSV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd 144 hz, gaming laptop (intel core i7-10750h, 16b ram, 1tb ssd, nvidia rtx 3060, sin so), pc portátil negro - teclado qwerty</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-300-RTX3060-6GB/dp/B099F6DRKY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 ph315-53 - ordenador portátil gaming 15.6" full hd, gaming laptop (intel core i7-10750h, 16b ram, 1tb ssd, nvidia rtx2060, sin so), pc portátil negro - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-300-Ordenador/dp/B086W6SWQ8/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 gaming laptop, intel i7-10750h, nvidia geforce rtx 3060 6gb, 15.6" fhd 144hz 3ms ips display, 16gb ddr4, 512gb nvme ssd, wifi 6 american english backlit keyboard</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-i7-10750H-American-Keyboard/dp/B08VKV5WQ1/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 ph315-51-76vb - ordenador portátil de 15.6" full hd (intel core i7-8750h, 16gb ram, 128gb ssd, 1tb hdd, nvidia geforce gtx1060, windows 10) negro - teclado español</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-300-PH315-51-76VB/dp/B07G3RY9HS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 - portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx3080-8gb, sin sistema operativo), color negro - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-300-RTX3080-8GB/dp/B09BFQLLL7/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 portátil gaming gtx 1060 with new i7 15.6 inch</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-300-Port%C3%A1til-Gaming/dp/B07FS4N3PR/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 - ordenador portátil gaming de 15.6" fullhd (intel core i7-9750h, 16gb ram, 512gb ssd, nvidia geforce gtx 1660ti 6gb, sin sistema operativo) negro - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-300-Ordenador/dp/B083QW7DS8/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>acer predator helios 300 gaming laptop, intel i7-10750h, nvidia geforce rtx 2070 super, 15.6" fhd 300hz nvidia g-sync display, 16gb ddr4, 512gb nvme ssd, american english backlit keyboard</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-i7-10750H-American-Keyboard/dp/B096W9ZQNL/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer predator helios 300  </t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>acer predator helios 300, 39,62 cm (15,6 zoll), fhd, 240hz, rtx 3070</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Predator-Helios-Zoll-240Hz/dp/B096W6SDV1/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+predator+helios+300&amp;qid=1631022721&amp;s=electronics&amp;sr=1-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>acer swift 3 - ordenador portátil 14" full hd, laptop (amd ryzen 3 3200u, 8gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B08F5JM5ZS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>acer swift 3 - ordenador portátil ultrafino 13.5" qhd (intel core i7-1065g7, 16gb ram, 1tb ssd, intel iris plus graphics, windows 10 home), color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Ordenador-ultrafino-i7-1065G7/dp/B089B3499K/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>acer swift 3 sf314-59-50mz - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08SW2YLVX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>acer swift 3 - portátil 14" fullhd (ryzen 5 3500u , 8gb ram, 512gb ssd, uma graphics, windows 10 home) - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B0936PVXLQ/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>acer swift 3 (sf314-57-55bk) 14" full hd ips, intel i5-1035g1, 8gb ram, 512gb ssd, windows 10</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-SF314-57-55BK-i5-1035G1-Windows/dp/B07WL4J978/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>acer swift 3 sf314-42-r86v plata portátil 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 5 8 gb lpddr4-sdram 256 gb ssd wi-fi 6 (802.11ax) windows 10 home swift 3 sf314-42-r86v, amd ryzen 5, 2,3</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-SF314-42-R86V-Port%C3%A1til-LPDDR4-SDRAM-802-11ax/dp/B0873PG7Y8/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>acer swift 3 sf314-42-r4xj portátil plata 35,6 cm (14") 1920 x 1080 pixeles amd ryzen 7 8 gb lpddr4-sdram 1000 gb ssd wi-fi 6 (802.11ax) windows 10 home swift 3 sf314-42-r4xj, amd ryzen 7, 2</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-SF314-42-R4XJ-Port%C3%A1til-LPDDR4-SDRAM-802-11ax/dp/B085F4HVB4/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>acer swift 5 nu-sf514-55t-5001 - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 512gb ssd, intel evo, iris xe graphics, windows 10 home), pc portátil color negro - qwerty</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08F5JB5NV/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 3  </t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>acer swift 3 sf314-52g - ordenador portátil 14" fhd ips (intel core i5-8250u, 8 gb de ram, 256 gb ssd, nvidia geforce mx150 de 2 gb, windows 10 home) azul - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-SF314-52G-Ordenador-port%C3%A1til/dp/B079NPFRXC/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+3&amp;qid=1631022771&amp;s=electronics&amp;sr=1-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 5  </t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>acer swift 5 nu-sf514-55t-5001 - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 512gb ssd, intel evo, iris xe graphics, windows 10 home), pc portátil color negro - qwerty</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08F5JB5NV/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 5  </t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>acer swift 3 - portátil 14" fullhd (ryzen 5 3500u , 8gb ram, 512gb ssd, uma graphics, windows 10 home) - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B0936PVXLQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 5  </t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>acer swift 3 - ordenador portátil 14" full hd, laptop (amd ryzen 3 3200u, 8gb ram, 512gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-Graphics-Windows/dp/B08F5JM5ZS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 5  </t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>acer swift 3 - ordenador portátil ultrafino 13.5" qhd (intel core i7-1065g7, 16gb ram, 1tb ssd, intel iris plus graphics, windows 10 home), color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Ordenador-ultrafino-i7-1065G7/dp/B089B3499K/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 5  </t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>acer swift 3 (sf314-57-55bk) 14" full hd ips, intel i5-1035g1, 8gb ram, 512gb ssd, windows 10</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-SF314-57-55BK-i5-1035G1-Windows/dp/B07WL4J978/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 5  </t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>acer swift 3 sf314-59-50mz - ordenador portátil 14" full hd, laptop (intel core i5-1135g7, 8gb ram, 256gb ssd, uma graphics, windows 10 home), pc portátil color plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-Swift-Port%C3%A1til-i5-1135G7-Graphics/dp/B08SW2YLVX/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer swift 5  </t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>acer swift 5 sf514-55gt-78fl 14" touch screen i7-1165g7 ram 8gb-ssd 512gb m.2 nvme-nvidia geforce mx350 2gb-win 10 home</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-SWIFT-SF514-55GT-78FL-i7-1165G7-NVMe-NVIDIA/dp/B08NTV2X7V/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+swift+5&amp;qid=1631022785&amp;s=electronics&amp;sr=1-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acer travelmate  </t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>acer travelmate spin b3 tmb311rn-31-p5kk - educación - 29,46 cm (11,6") - intel pentium silver n503</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Acer-TravelMate-TMB311RN-31-P5KK-Pantalla-DDR4-SDRAM/dp/B0896F7S85/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=acer+travelmate&amp;qid=1631022799&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
         <is>
           <t>############################################################################</t>
         </is>

--- a/tablets_matches.xlsx
+++ b/tablets_matches.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,13 +390,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="31.6328125" customWidth="1" min="1" max="1"/>
+    <col width="52.1796875" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -416,7 +420,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0880477I2Y0NU4O8BFX&amp;url=%2FASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador%2Fdp%2FB0883BHSY5%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%2Bchromebook%2Bflip%2Bz3400ft%26qid%3D1631089213%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631089213&amp;id=7481817938442589&amp;widgetName=sp_atf</t>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0880477I2Y0NU4O8BFX&amp;url=%2FASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador%2Fdp%2FB0883BHSY5%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%2Bchromebook%2Bflip%2Bz3400ft%26qid%3D1631089419%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631089419&amp;id=787985031942371&amp;widgetName=sp_atf</t>
         </is>
       </c>
     </row>
@@ -438,7 +442,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador/dp/B0883BHSY5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089213&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador/dp/B0883BHSY5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089419&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
@@ -460,12 +464,1772 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Port%C3%A1til/dp/B097T4F81M/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089213&amp;s=electronics&amp;sr=1-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Port%C3%A1til/dp/B097T4F81M/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089419&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus chromebook flip z7400ff-e10109  </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asus chromebook flip z7400ff-e10109 - ordenador portátil convertible de 14" fullhd (intel core i5-10210u, 16gb ram, 512gb ssd, intel uhd graphics, chrome os) blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A068597228Q4OJS48V4HZ&amp;url=%2FASUS-Chromebook-Flip-Z7400FF-E10109-Ordenador%2Fdp%2FB0883BGPTD%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%2Bchromebook%2Bflip%2Bz7400ff-e10109%26qid%3D1631089432%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1631089432&amp;id=4204683282429597&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus chromebook flip z7400ff-e10109  </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>asus chromebook flip z7400ff-e10109 - ordenador portátil convertible de 14" fullhd (intel core i5-10210u, 16gb ram, 512gb ssd, intel uhd graphics, chrome os) blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z7400FF-E10109-Ordenador/dp/B0883BGPTD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z7400ff-e10109&amp;qid=1631089432&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus e210ma-gj003r  </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>asus e210ma-gj003r - portátil 11.6" hd (celeron n4020, 4gb ram, 64gb emmc, uhd graphics 605, windows 10 pro) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-E210MA-GJ003R-Port%C3%A1til-Celeron-Graphics/dp/B08NXKSS8R/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+e210ma-gj003r&amp;qid=1631089457&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus e410ma-ek007ts  </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asus e410ma-ek007ts - portátil de 14" fullhd (celeron n4020, 4 gb ram, 64 gb emmc, windows 10 home en modo s) azul elétrico - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-E410MA-EK007TS-Port%C3%A1til-Celeron-El%C3%A9trico/dp/B08DNK9PYP/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+e410ma-ek007ts&amp;qid=1631089471&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus f415ea-ek153  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>asus f415ea-ek153 - portátil 14" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) plata transparente - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-F415EA-EK153-i7-1165G7-Operativo-Transparente/dp/B097TR6231/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+f415ea-ek153&amp;qid=1631089484&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus p1511cja-br666r  </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br666r - portátil .6" hd (core i7-1065g7, 8gb ram, 512gb ssd, iris plus graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR666R-i7-1065G7/dp/B08XC1THVC/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+p1511cja-br666r&amp;qid=1631089510&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus proart studiobook w700g1t-av059  </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>asus proart studiobook pro 17 w700g1t-av059 - portátil 17" wuxga (core i7-9750h, 32gb ram, 1tb ssd, quadro t1000 4gb, sin sistema operativo) gris estrella - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ProArt-StudioBook-Pro-W700G1T-AV059/dp/B08CR4SCJY/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+proart+studiobook+w700g1t-av059&amp;qid=1631089523&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf026 - ordenador portátil gaming de 15.6" fullhd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo) gris eclipse-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF026-RTX3060-6GB-Eclipse-Teclado/dp/B0947D2NZJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf246 - portátil gaming de 15.6" full hd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) rosa punk elétrico - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF246-Port%C3%A1til-Operativo/dp/B08CV9T1Z8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf047 - portátil gaming de 15.6" full hd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF047-Port%C3%A1til-Operativo/dp/B0987VNTG5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf070 - portátil gaming de 15.6" full hd 300hz (ryzen 9 5900hx, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF070-Port%C3%A1til-Operativo/dp/B097T45YWX/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn090 - ordenador portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN090/dp/B08DNKJ6PK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn221t - ordenador portátil gaming 15.6 " fullhd 144hz (intel core i7-10870h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, windows 10 home) negro original - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN221T/dp/B08NTQ7VL5/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn221 - portátil gaming 15.6 " fullhd 144hz (intel core i7-10870h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro original - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN221/dp/B08NTQYKFF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn090t - ordenador portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, windows 10 home) negro original - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN090T/dp/B08DNK6ZZX/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401ii-he004t - portátil gaming de 14" full hd 120hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, geforce gtx 1650 ti 4gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401II-HE004T/dp/B08CKGY2N8/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-ha123t - portátil gaming de 14" quad hd (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) blanco lunar con anime matrix - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HA123T/dp/B08CRMZPGQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401ii-he004 - portátil gaming de 14" fullhd 120hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia gtx 1650ti-4gb , sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Vaorwne-DDR3L-memoria-Sodimm-pines/dp/B08CKR4YZJ/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iv-he003 - ordenador portátil gaming 14" fullhd (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IV-HE003/dp/B088PNP4RX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-he118t - portátil gaming de 14" fullhd 120hz (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) blanco lunar con anime matrix - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HE118T/dp/B08CQWDFYH/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-he001 - ordenador portátil gaming 14" fullhd 120hz (ryzen 7 4800hs, 16gb ram, 512gb ssd, gtx1660ti-6gb, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-GA401IU-HE001-GTX1660Ti-6GB/dp/B088PNZ7N2/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-ha134t - portátil gaming de 14" quad hd (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) gris eclipse con anime matrix - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HA134T/dp/B08CRDKR6R/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga502iv-hn020 - ordenador portátil gaming 15,6" fullhd 144hz (ryzen 7 4800hs, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-GA502IV-HN020-ROG-Zephyrus-G15/dp/B087GMG3MV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021 asus_rog zephyrus g15 3070 gaming laptop, 165hz 3ms wqhd 15.6", ryzen 9-5900hs 8-core, rtx 3070 8gb gddr6, 24gb ram, 1tb ssd, rgb kb, mytrix hdmi cable, win 10</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS_ROG-Zephyrus-Gaming-Laptop-9-5900HS/dp/B08XY7W2FM/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga503qr-hq007t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3070 8gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QR-HQ007T/dp/B08CVC33BX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga502iu-al011 - ordenador portátil gaming 15.6" fhd 144hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia gtx1660ti-6gb, sin so) negro cepillado - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA502IU-AL011/dp/B08DNJQGNR/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga503qm-hq046t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, windows 10 home) blanco lunar - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QM-HQ046T/dp/B08D3TZXXS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga503qm-hq008t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QM-HQ008T/dp/B08CVC4YXH/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus s15 gx502lxs-hf012t  </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus s15 gx502lxs-hf012t - portátil gaming de 15.6" fullhd 300hz (i7-10750h, 32gb ram, 1tb ssd, geforce rtx2080 super 8gb gddr6, windows 10 home) negro cepillado - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-S15-GX502LXS-HF012T/dp/B089BLSZ1K/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+s15+gx502lxs-hf012t&amp;qid=1631089637&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus s17 gx701lxs-hg032t  </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus s17 gx701lxs-hg032t - ordenador portátil gaming 17.3" fullhd (intel core i7-10875h, 32gb ram, 1tb ssd, nvidia rtx2080-8gb super, windows 10 home) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-S17-GX701LXS-HG032T/dp/B088PNMDL7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+s17+gx701lxs-hg032t&amp;qid=1631089648&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus tuf gaming a17 fa706qm-hx001  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asus tuf gaming a17 fa706qm-hx001 - portátil gaming de 17.3" full hd 144hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-TUF-Gaming-A17-FA706QM-HX001/dp/B08CV94WTY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+tuf+gaming+a17+fa706qm-hx001&amp;qid=1631089673&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus tuf gaming dash f15 fx516pr-hn002  </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>asus tuf dash f15 fx516pr-hn002 - portátil gaming de 15.6" full hd 144hz (core i7-11370h, 16gb ram, 512gb ssd, geforce rtx 3070 8gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-TUF-Dash-F15-FX516PR-HN002/dp/B097T4MRSZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+tuf+gaming+dash+f15+fx516pr-hn002&amp;qid=1631089686&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 f515ja-br097t - portátil de 15.6" hd (intel core i3-1005g1, 8gb ram, 256gb ssd, intel uhd graphics, windows 10) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-F515JA-BR097T-i3-1005G1/dp/B08BZ5SYQX/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 k513ea-bq684 - portátil .6" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-K513EA-BQ684-i7-1165G7-Operativo/dp/B08WRJCSYH/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 k513ea-bq158t - portátil .6" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-K513EA-BQ158T-i5-1135G7/dp/B08BZ69BY1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 k513ea-bq684t - portátil .6" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-K513EA-BQ684T-i7-1165G7/dp/B08BZ5NSGS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 s513ea-bq689t - portátil .6" full hd (core i3-1115g4, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-S513EA-BQ689T-i3-1115G4/dp/B08BZ5VD6L/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>asus vivobook r565j, portátil de 15.6" fullhd (intel core i3-1005g1, 8gb ram, 256gb ssd, intel uhd graphics 600, sin sistema operativo) gris pizarra, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-R565J-i3-1005G1-Operativo/dp/B08NTNMMMR/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br666r - portátil .6" hd (core i7-1065g7, 8gb ram, 512gb ssd, iris plus graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR666R-i7-1065G7/dp/B08XC1THVC/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 x571gt-bq882 - portátil .6" full hd (core i5-9300h, 16gb ram, 1tb hdd, 256gb ssd, geforce gtx 1650 4gb, sin sistema operativo) negro estrella - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-X571GT-BQ882-Operativo/dp/B0987TZMVV/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br667r - portátil .6" hd (core i5-1035g1, 8gb ram, 256gb ssd, uhd graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR667R-i5-1035G1/dp/B08CR2YWSL/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br668r - portátil .6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR668R-i5-1035G1/dp/B08CR4TSMS/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>asus vivobook f515ja-br137t - portátil 15.6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-F515JA-BR137T-Port%C3%A1til-i5-1035G1/dp/B08BZ5QXW1/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>asus vivobook s15 s533ea-bn147t - portátil 15.6" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S15-S533EA-BN147T-i7-1165G7/dp/B08BZ67SS8/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>asus vivobook s15 s533ea-bn149t - portátil 15.6" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S15-S533EA-BN149T-i5-1135G7/dp/B08BZ5SRYF/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook f515ja-br137t  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>asus vivobook f515ja-br137t - portátil 15.6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-F515JA-BR137T-Port%C3%A1til-i5-1035G1/dp/B08BZ5QXW1/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+f515ja-br137t&amp;qid=1631089790&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook flip 14 tp412fa-ec707t  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>asus vivobook flip tp412fa-ec707t - portátil 14" full hd (core i5-10210u, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris estrella - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-Flip-TP412FA-EC707T-i5-10210U/dp/B08BZ5LQ7M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+flip+14+tp412fa-ec707t&amp;qid=1631089804&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook flip tp412fa-ec649t  </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>asus vivobook flip tp412fa-ec649t - portátil 14" full hd (core i3-10110u, 8gb ram, 256gb ssd, uhd graphics, windows 10 home) azul galaxia - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-Flip-TP412FA-EC649T-i3-10110U/dp/B08BZ58J1D/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+flip+tp412fa-ec649t&amp;qid=1631089818&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook s14 s433ea-am612t  </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>asus vivobook s14 s433ea-am612t - portátil 14" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S14-S433EA-AM612T-i7-1165G7/dp/B08BZ632JZ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s14+s433ea-am612t&amp;qid=1631089831&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook s413fa-eb560t  </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>portatil asus vivobook 14 s413fa-eb560t negro i5-10210u/8gb/ssd 256gb/14 fhd/w10</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-ASUS-14-S413FA-EB560T-I5-10210U/dp/B08HR489MJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s413fa-eb560t&amp;qid=1631089856&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook s433ea-am423t  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>asus vivobook s14 s433ea-am423t - portátil 14" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S14-S433EA-AM423T-i5-1135G7/dp/B08BZ4PWV2/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s433ea-am423t&amp;qid=1631089869&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus x509ja-br252t  </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>asus portatil x509ja-br252t</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-X509JA-BR252T-i3-1005G1-256GB-15-6/dp/B08FCP8YYX/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+x509ja-br252t&amp;qid=1631089882&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ja-em189t - portátil convertible 13.3" fullhd (intel core i5-1035g4, 16gb ram, 512gb ssd, intel iris plus graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363JA-EM189T-Pino-Teclado/dp/B08CS7D3RL/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 ux325ea-kg245t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX325EA-KG245T-Ordenador-Pino-Teclado/dp/B08X7JYDQL/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 ux325ea-eg247 - portátil .3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX325EA-EG247-i7-1165G7-Operativo/dp/B08VJH2VVK/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 um325ua-kg084 - portátil .3" full hd (ryzen 7 5700u, 16gb ram, 512gb ssd, radeon graphics, sin sistema operativo) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-13-UM325UA-KG084-Operativo/dp/B0987T36J2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-em087t - portátil convertible de 13.3" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home ) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-EM087T-Convertible/dp/B08NTSGTRD/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 um325ua-kg073 - portátil de 13.3" full hd (ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, sin so) grey - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-13-UM325UA-KG073-Port%C3%A1til/dp/B08CQVTJ86/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-hp043t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-HP043T-Pino-Teclado/dp/B08BZ5KYK1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm019 - portátil full hd (core i5-1135g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM019-i5-1135G7-Operativo/dp/B08BZ5MHPR/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>asus zenbook um425ia-am006 - ordenador portátil de 14" fullhd (ryzen7 4700u7, 16gb ram, 512gb ssd, radeon graphics, sin sistema operativo) aluminio - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-Zenbook-UM425IA-AM006-Ordenador-operativo/dp/B08BWN5KV8/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm094t - portátil full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX425EA-BM094T-i7-1165G7/dp/B08BZ5Q4LM/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm020 - ordenador portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, sin sistema operativo) lila neblina-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM020-Ordenador-Neblina-Teclado/dp/B08BZ6V9P8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm019 - portátil full hd (core i5-1135g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM019-i5-1135G7-Operativo/dp/B08BZ5MHPR/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 um425ia-am006t - portátil full hd (ryzen 7 4700u, 16gb ram, 512gb ssd, radeon graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UM425IA-AM006T-Port%C3%A1til/dp/B08WWJHKZ7/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ultralight ux435eal-kc096t - portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, 32gb intel optane, intel iris xe graphics, sin so) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Ultralight-UX435EAL-KC096T-i7-1165G7/dp/B08BZ63P8G/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-hm165t - portátil de 14 " fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel uhd graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX425EA-HM165T-i7-1165G7/dp/B08NTQJ8TP/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>asus zenbook um431da-am003, portátil de 14" fullhd (ryzen r5 3500 , 8gb ram, 512gb ssd, amd radeon graphics, sin sistema operativo) metal azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-UM431DA-AM003-Port%C3%A1til-Graphics-Operativo/dp/B07Z6MQ1DB/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux434fac-a5188t - portátil de 14" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, intel graphics, windows 10 home) azul real - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX434FAC-A5188T-i7-10510U/dp/B07YRG78DZ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-ki359t - ordenador portátil 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-KI359T-Ordenador-i7-1165G7/dp/B08CKBS86L/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux431fa-am132t - portátil de 14" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd, windows 10) metal azul plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX431FA-AM132T-i5-10210U/dp/B083WMSLW2/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 bx425ea-bm144r - portátil full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-BX425EA-BM144R-i7-1165G7/dp/B08XBYXXMZ/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 um425ia-hm101t / 14" full hd/amd ryzen 7 4700u / 16gb ram / 512gb ssd/windows 10 / gris</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UM425IA-HM101T-Ryzen-Windows/dp/B08H5TL9YX/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14 ultralight  </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ultralight ux435eal-kc096t - portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, 32gb intel optane, intel iris xe graphics, sin so) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Ultralight-UX435EAL-KC096T-i7-1165G7/dp/B08BZ63P8G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14+ultralight&amp;qid=1631089949&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14 um425ia-am006t  </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 um425ia-am006t - portátil full hd (ryzen 7 4700u, 16gb ram, 512gb ssd, radeon graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UM425IA-AM006T-Port%C3%A1til/dp/B08WWJHKZ7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14+um425ia-am006t&amp;qid=1631089963&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ja-em189t - portátil convertible 13.3" fullhd (intel core i5-1035g4, 16gb ram, 512gb ssd, intel iris plus graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363JA-EM189T-Pino-Teclado/dp/B08CS7D3RL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-em087t - portátil convertible de 13.3" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home ) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-EM087T-Convertible/dp/B08NTSGTRD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-hp043t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-HP043T-Pino-Teclado/dp/B08BZ5KYK1/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 bx363ea-em190r - portátil 13.3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-BX363EA-EM190R-i7-1165G7/dp/B08XBZ2HYB/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip bx363ea-em190r  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 bx363ea-em190r - portátil 13.3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-BX363EA-EM190R-i7-1165G7/dp/B08XBZ2HYB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+bx363ea-em190r&amp;qid=1631089992&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>############################################################################</t>
         </is>

--- a/tablets_matches.xlsx
+++ b/tablets_matches.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,27 +390,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="31.6328125" customWidth="1" min="1" max="1"/>
-    <col width="52.1796875" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus chromebook flip z3400ft  </t>
+          <t xml:space="preserve">dell e5440  </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>asus chromebook flip z3400ft-aj0111 - ordenador portátil de 14" fullhd (intel core m3-8100y, 8gb ram, 64gb emmc, intel uhd graphics 615, chrome os) plata - teclado qwerty español</t>
+          <t>dell latitude e5440 - ordenador portátil empresarial de 14 pulgadas, intel core i5-4300u hasta 2,9 ghz, 8 gb ram, 256 gb ssd, hdmi, dvdrw, 802.11ac wifi más bt, windows 10 professional (renovado)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -420,41 +416,19 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0880477I2Y0NU4O8BFX&amp;url=%2FASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador%2Fdp%2FB0883BHSY5%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%2Bchromebook%2Bflip%2Bz3400ft%26qid%3D1631089419%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631089419&amp;id=787985031942371&amp;widgetName=sp_atf</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus chromebook flip z3400ft  </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>asus chromebook flip z3400ft-aj0111 - ordenador portátil de 14" fullhd (intel core m3-8100y, 8gb ram, 64gb emmc, intel uhd graphics 615, chrome os) plata - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador/dp/B0883BHSY5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089419&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Dell-Latitude-E5440-Ordenador-Professional/dp/B07CZB8SG1/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e5440&amp;qid=1631187079&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus chromebook flip z3400ft  </t>
+          <t xml:space="preserve">dell e6540  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>asus chromebook flip z3400ft-aj0111 - portátil 14" full hd (core m3-8100y, 8gb ram, 64gb emmc, uhd graphics 615, chrome os) plata azul - teclado qwerty español</t>
+          <t>ordenador portátil dell latitude e6540 i5 2,5 ghz 15,6 pulgadas 8 gb windows 7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -464,19 +438,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Port%C3%A1til/dp/B097T4F81M/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089419&amp;s=electronics&amp;sr=1-23</t>
+          <t>https://www.amazon.es/Port%C3%A1tiles-Latitude-E6540-i5-15-6-Pulgadas-Windows/dp/B07DJB9RG4/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e6540&amp;qid=1631187148&amp;s=electronics&amp;sr=1-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus chromebook flip z7400ff-e10109  </t>
+          <t xml:space="preserve">dell e7240  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>asus chromebook flip z7400ff-e10109 - ordenador portátil convertible de 14" fullhd (intel core i5-10210u, 16gb ram, 512gb ssd, intel uhd graphics, chrome os) blanco - teclado qwerty español</t>
+          <t>dell latitude e7240 core i5-4300u, 8gb ram, 128gb ssd (renovado)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -486,41 +460,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A068597228Q4OJS48V4HZ&amp;url=%2FASUS-Chromebook-Flip-Z7400FF-E10109-Ordenador%2Fdp%2FB0883BGPTD%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%2Bchromebook%2Bflip%2Bz7400ff-e10109%26qid%3D1631089432%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1631089432&amp;id=4204683282429597&amp;widgetName=sp_atf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus chromebook flip z7400ff-e10109  </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>asus chromebook flip z7400ff-e10109 - ordenador portátil convertible de 14" fullhd (intel core i5-10210u, 16gb ram, 512gb ssd, intel uhd graphics, chrome os) blanco - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z7400FF-E10109-Ordenador/dp/B0883BGPTD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z7400ff-e10109&amp;qid=1631089432&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Dell-Latitude-E7240-i5-4300U-renovado/dp/B07PV3GDYB/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7240&amp;qid=1631187163&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e7470  </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dell laptop latitude e7470 de 14 pulgadas, color negro, intel core i5 2.4ghz, 16gb ram, 256gb ssd, intel hd graphics 520, windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7470-Port%C3%A1til-pulgadas/dp/B07V9NB2ZS/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus e210ma-gj003r  </t>
+          <t xml:space="preserve">dell e7470  </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>asus e210ma-gj003r - portátil 11.6" hd (celeron n4020, 4gb ram, 64gb emmc, uhd graphics 605, windows 10 pro) blanco sueño - teclado qwerty español</t>
+          <t>dell - portátil latitude e7470 de 14 pulgadas, procesador core i5-6300u de 2,4 ghz, 8 gb de ram, 256 gb de ssd, windows 10 pro de 64 bits (renovado)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -530,19 +504,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-E210MA-GJ003R-Port%C3%A1til-Celeron-Graphics/dp/B08NXKSS8R/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+e210ma-gj003r&amp;qid=1631089457&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-Latitude-Pulgadas-i5-6300U-enchapado/dp/B07GCRHS5V/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e7470  </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dell latitude e7470 14 pulgadas 1920 x 1080 full hd intel core i7 256 gb ssd disco duro 8 gb de memoria windows 10 pro webcam iluminación teclado portátil (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Latitude-pulgadas-iluminaci%C3%B3n-certificado-reacondicionado/dp/B0913F7FP4/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus e410ma-ek007ts  </t>
+          <t xml:space="preserve">dell e7470  </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>asus e410ma-ek007ts - portátil de 14" fullhd (celeron n4020, 4 gb ram, 64 gb emmc, windows 10 home en modo s) azul elétrico - teclado qwerty español</t>
+          <t>dell latitude e7470 2.6ghz i7-6600u 14" 1920 x 1080pixeles negro - ordenador portátil (ultrabook, negro, concha, enterprise, i7-6600u, intel core i7-6xxx)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -552,63 +548,63 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-E410MA-EK007TS-Port%C3%A1til-Celeron-El%C3%A9trico/dp/B08DNK9PYP/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+e410ma-ek007ts&amp;qid=1631089471&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus f415ea-ek153  </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>asus f415ea-ek153 - portátil 14" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) plata transparente - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-F415EA-EK153-i7-1165G7-Operativo-Transparente/dp/B097TR6231/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+f415ea-ek153&amp;qid=1631089484&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus p1511cja-br666r  </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>asus vivobook 15 p1511cja-br666r - portátil .6" hd (core i7-1065g7, 8gb ram, 512gb ssd, iris plus graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR666R-i7-1065G7/dp/B08XC1THVC/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+p1511cja-br666r&amp;qid=1631089510&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Latitude-E7470-2-6GHz-i7-6600U-1080Pixeles/dp/B01BIQTD4S/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron 15 - 3505  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dell inspiron 15 3505 ryz5-3450u/8gb/256ssd/fhd/matt/w10home</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Inspiron-RYZ5-3450U-256SSD-W10Home/dp/B08V4NMXCK/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+15+-+3505&amp;qid=1631187254&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron 5520  </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adaptador de corriente dell 5jdv6 inspiron aio 7459, precision 5510, 5520, 5530, precision m3800, xps 15 9530, 9550, 9560, 9570, optiplex 3050 aio m1myr 130w</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-5JDV6-Adaptador-Corriente-Precision/dp/B07HN8DJTX/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+5520&amp;qid=1631187282&amp;s=electronics&amp;sr=1-11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus proart studiobook w700g1t-av059  </t>
+          <t xml:space="preserve">dell inspiron 5520  </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>asus proart studiobook pro 17 w700g1t-av059 - portátil 17" wuxga (core i7-9750h, 32gb ram, 1tb ssd, quadro t1000 4gb, sin sistema operativo) gris estrella - teclado qwerty español</t>
+          <t>dell inspiron 13 7347, 7348, inspiron aio 7459, precision 15 5510, precision 5520, xps 15 9530, xps 15 9550 130w ac adapter charger + power cables 6tty6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -618,19 +614,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ProArt-StudioBook-Pro-W700G1T-AV059/dp/B08CR4SCJY/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+proart+studiobook+w700g1t-av059&amp;qid=1631089523&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-Inspiron-Precision-Adapter-6TTY6/dp/B078S3M1HN/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+5520&amp;qid=1631187282&amp;s=electronics&amp;sr=1-18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog g513qm  </t>
+          <t xml:space="preserve">dell inspiron 5547  </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>asus rog g513qm-hf026 - ordenador portátil gaming de 15.6" fullhd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo) gris eclipse-teclado qwerty español</t>
+          <t>azerty francés teclado para dell inspiron 5548 5547 5551 5555 5748 5749 5758 5759</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -640,41 +636,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF026-RTX3060-6GB-Eclipse-Teclado/dp/B0947D2NZJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog g513qm  </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>asus rog g513qm-hf246 - portátil gaming de 15.6" full hd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) rosa punk elétrico - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF246-Port%C3%A1til-Operativo/dp/B08CV9T1Z8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/franc%C3%A9s-teclado-Dell-Inspiron-5548-5547-5551-5555-5748-5749-5758-5759/dp/B06WVG2GG7/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+5547&amp;qid=1631187296&amp;s=electronics&amp;sr=1-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog g513qm  </t>
+          <t xml:space="preserve">dell inspiron n5110  </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>asus rog g513qm-hf047 - portátil gaming de 15.6" full hd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) negro - teclado qwerty español</t>
+          <t>dell j1knd – batería original para ordenador portátil dell inspiron m5010 m5030 m5040 n3010 n4010 n5010 n5110 n7010 13r 14r 15r 17r</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -684,19 +658,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF047-Port%C3%A1til-Operativo/dp/B0987VNTG5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/original-ordenador-port%C3%A1til-Dell-M5010-M5030-M5040-N3010-N4010-N5010-N5110-N7010-13R/dp/B007EBBYRQ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+n5110&amp;qid=1631187351&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog g513qm  </t>
+          <t xml:space="preserve">dell inspiron n5110  </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>asus rog g513qm-hf070 - portátil gaming de 15.6" full hd 300hz (ryzen 9 5900hx, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+          <t>nueva batería original original para ordenador dell inspiron 13r 14r 15r 17r n3010 n4010 n5010 n4110 n5110 n7010 n7110 m5010 m5030 m501 m501r n5030 dell vostro 3450 3550 3750j1knd 04yrjh fmhc10 tkv2 yxv2v j4xdh 9tcxn 9t48v 965y7 4t7jn 383cw w7h3n 07xfjj 4yrjy 8nh55 4yrjh j4xdh 7xfjj 9tcxn 9t48v 965y7 4t7jn 11.1v / 48wh 6 cell</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -706,19 +680,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF070-Port%C3%A1til-Operativo/dp/B097T45YWX/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-28</t>
+          <t>https://www.amazon.es/BATER%C3%8DA-ORIGINAL-Ordenador-INSPIRON-3750J1KND/dp/B009U57TOG/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+n5110&amp;qid=1631187351&amp;s=electronics&amp;sr=1-22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog strix g15  </t>
+          <t xml:space="preserve">dell latitude 3330  </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>asus rog strix g15 g512lv-hn090 - ordenador portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -728,19 +702,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN090/dp/B08DNKJ6PK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3330&amp;qid=1631187393&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog strix g15  </t>
+          <t xml:space="preserve">dell latitude 3330  </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>asus rog strix g15 g512lv-hn221t - ordenador portátil gaming 15.6 " fullhd 144hz (intel core i7-10870h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, windows 10 home) negro original - teclado qwerty español</t>
+          <t>dell latitude 3330, 7275, e5250, e5440, e5450, e5540, e5550, e6440, e7240 240 w pa-9e adaptador de alimentación + cable de alimentación fwcrc 0mfk9 ga240pe1-00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -750,41 +724,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN221T/dp/B08NTQ7VL5/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog strix g15  </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>asus rog strix g15 g512lv-hn221 - portátil gaming 15.6 " fullhd 144hz (intel core i7-10870h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro original - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN221/dp/B08NTQYKFF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adaptador-alimentaci%C3%B3n-GA240PE1-00/dp/B077GW3W77/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3330&amp;qid=1631187393&amp;s=electronics&amp;sr=1-26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog strix g15  </t>
+          <t xml:space="preserve">dell latitude 3340  </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>asus rog strix g15 g512lv-hn090t - ordenador portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, windows 10 home) negro original - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -794,19 +746,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN090T/dp/B08DNK6ZZX/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-24</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3340&amp;qid=1631187407&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus g14  </t>
+          <t xml:space="preserve">dell latitude 3380  </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>asus rog zephyrus g14 ga401ii-he004t - portátil gaming de 14" full hd 120hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, geforce gtx 1650 ti 4gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -816,41 +768,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401II-HE004T/dp/B08CKGY2N8/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog zephyrus g14  </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>asus rog zephyrus g14 ga401iu-ha123t - portátil gaming de 14" quad hd (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) blanco lunar con anime matrix - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HA123T/dp/B08CRMZPGQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3380&amp;qid=1631187436&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus g14  </t>
+          <t xml:space="preserve">dell latitude 3460  </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>asus rog zephyrus g14 ga401ii-he004 - portátil gaming de 14" fullhd 120hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia gtx 1650ti-4gb , sin sistema operativo) gris eclipse - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -860,41 +790,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Vaorwne-DDR3L-memoria-Sodimm-pines/dp/B08CKR4YZJ/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog zephyrus g14  </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>asus rog zephyrus g14 ga401iv-he003 - ordenador portátil gaming 14" fullhd (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) gris - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IV-HE003/dp/B088PNP4RX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3460&amp;qid=1631187463&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus g14  </t>
+          <t xml:space="preserve">dell latitude 3470  </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>asus rog zephyrus g14 ga401iu-he118t - portátil gaming de 14" fullhd 120hz (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) blanco lunar con anime matrix - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -904,41 +812,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HE118T/dp/B08CQWDFYH/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog zephyrus g14  </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>asus rog zephyrus g14 ga401iu-he001 - ordenador portátil gaming 14" fullhd 120hz (ryzen 7 4800hs, 16gb ram, 512gb ssd, gtx1660ti-6gb, sin sistema operativo) gris - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-GA401IU-HE001-GTX1660Ti-6GB/dp/B088PNZ7N2/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3470&amp;qid=1631187477&amp;s=electronics&amp;sr=1-16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus g14  </t>
+          <t xml:space="preserve">dell latitude 3480  </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>asus rog zephyrus g14 ga401iu-ha134t - portátil gaming de 14" quad hd (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) gris eclipse con anime matrix - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -948,19 +834,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HA134T/dp/B08CRDKR6R/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-22</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3480&amp;qid=1631187490&amp;s=electronics&amp;sr=1-15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus g15  </t>
+          <t xml:space="preserve">dell latitude 3540  </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>asus rog zephyrus g15 ga502iv-hn020 - ordenador portátil gaming 15,6" fullhd 144hz (ryzen 7 4800hs, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -970,41 +856,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-GA502IV-HN020-ROG-Zephyrus-G15/dp/B087GMG3MV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog zephyrus g15  </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2021 asus_rog zephyrus g15 3070 gaming laptop, 165hz 3ms wqhd 15.6", ryzen 9-5900hs 8-core, rtx 3070 8gb gddr6, 24gb ram, 1tb ssd, rgb kb, mytrix hdmi cable, win 10</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS_ROG-Zephyrus-Gaming-Laptop-9-5900HS/dp/B08XY7W2FM/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3540&amp;qid=1631187531&amp;s=electronics&amp;sr=1-16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus g15  </t>
+          <t xml:space="preserve">dell latitude 3570  </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>asus rog zephyrus g15 ga503qr-hq007t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3070 8gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1014,41 +878,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QR-HQ007T/dp/B08CVC33BX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog zephyrus g15  </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>asus rog zephyrus g15 ga502iu-al011 - ordenador portátil gaming 15.6" fhd 144hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia gtx1660ti-6gb, sin so) negro cepillado - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA502IU-AL011/dp/B08DNJQGNR/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3570&amp;qid=1631187562&amp;s=electronics&amp;sr=1-16</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus g15  </t>
+          <t xml:space="preserve">dell latitude 3580  </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>asus rog zephyrus g15 ga503qm-hq046t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, windows 10 home) blanco lunar - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1058,41 +900,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QM-HQ046T/dp/B08D3TZXXS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus rog zephyrus g15  </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>asus rog zephyrus g15 ga503qm-hq008t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, windows 10 home) gris eclipse - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QM-HQ008T/dp/B08CVC4YXH/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-24</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3580&amp;qid=1631187575&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5280  </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5280&amp;qid=1631187603&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus s15 gx502lxs-hf012t  </t>
+          <t xml:space="preserve">dell latitude 5280  </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>asus rog zephyrus s15 gx502lxs-hf012t - portátil gaming de 15.6" fullhd 300hz (i7-10750h, 32gb ram, 1tb ssd, geforce rtx2080 super 8gb gddr6, windows 10 home) negro cepillado - teclado qwerty español</t>
+          <t>nuevo adaptador de ca original dell la90pm170 usb-c tdk33 0tdk33 20v/12v/9v/5v-4.5a/3a/3a/3a, cargador original de 90 vatios tipo c, la90pm170, para latitude 5280 5480 5580 7280 7480 7380</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1102,19 +944,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-S15-GX502LXS-HF012T/dp/B089BLSZ1K/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+s15+gx502lxs-hf012t&amp;qid=1631089637&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-LA90PM170-Adaptador-Cargador-Original/dp/B07789HG6D/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5280&amp;qid=1631187603&amp;s=electronics&amp;sr=1-22</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus rog zephyrus s17 gx701lxs-hg032t  </t>
+          <t xml:space="preserve">dell latitude 5290  </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>asus rog zephyrus s17 gx701lxs-hg032t - ordenador portátil gaming 17.3" fullhd (intel core i7-10875h, 32gb ram, 1tb ssd, nvidia rtx2080-8gb super, windows 10 home) negro - teclado qwerty español</t>
+          <t>vhbw batería recargable compatible con dell latitude 12 5285 2-in-1, 5290 2-in-1 notebook (5200 mah, 7,6 v, polímero de litio)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1124,19 +966,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-S17-GX701LXS-HG032T/dp/B088PNMDL7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+s17+gx701lxs-hg032t&amp;qid=1631089648&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/vhbw-Recargable-Compatible-Latitude-Notebook/dp/B09BCW6HDQ/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5290&amp;qid=1631187617&amp;s=electronics&amp;sr=1-30</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus tuf gaming a17 fa706qm-hx001  </t>
+          <t xml:space="preserve">dell latitude 5300  </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>asus tuf gaming a17 fa706qm-hx001 - portátil gaming de 17.3" full hd 144hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+          <t>ultrabook dell latitude e7250 intel core i5-5300 8 gb ssd128 gb 12,5 pulgadas – grado a (reacondicionado certificado)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1146,63 +988,63 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-TUF-Gaming-A17-FA706QM-HX001/dp/B08CV94WTY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+tuf+gaming+a17+fa706qm-hx001&amp;qid=1631089673&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus tuf gaming dash f15 fx516pr-hn002  </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>asus tuf dash f15 fx516pr-hn002 - portátil gaming de 15.6" full hd 144hz (core i7-11370h, 16gb ram, 512gb ssd, geforce rtx 3070 8gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-TUF-Dash-F15-FX516PR-HN002/dp/B097T4MRSZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+tuf+gaming+dash+f15+fx516pr-hn002&amp;qid=1631089686&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>asus vivobook 15 f515ja-br097t - portátil de 15.6" hd (intel core i3-1005g1, 8gb ram, 256gb ssd, intel uhd graphics, windows 10) gris - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-F515JA-BR097T-i3-1005G1/dp/B08BZ5SYQX/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Dell-E6420-Ordenador-reacondicionado-Certificado/dp/B07YVJTHMM/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5300&amp;qid=1631187632&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5300  </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dell latitude 5300 t9jdy, notebook schwarz, windows 10 pro 64-bit</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-generaci%C3%B3n-procesadores-DDR4-SDRAM/dp/B07SVS751P/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5300&amp;qid=1631187632&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5410  </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>dell latitude 5410 i5 - ordenador portátil (ssd 256 gb + ram 8 gb, 14 pulgadas, s.o. windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-5410-Ordenador-operativo/dp/B08D5ZRZCY/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5410&amp;qid=1631187659&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 5480  </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>asus vivobook 15 k513ea-bq684 - portátil .6" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) negro indie - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1212,41 +1054,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-K513EA-BQ684-i7-1165G7-Operativo/dp/B08WRJCSYH/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>asus vivobook 15 k513ea-bq158t - portátil .6" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-K513EA-BQ158T-i5-1135G7/dp/B08BZ69BY1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5480&amp;qid=1631187686&amp;s=electronics&amp;sr=1-19</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 5495  </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>asus vivobook 15 k513ea-bq684t - portátil .6" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+          <t>teclado retroiluminado original para portátil dell uk: latitude 5490 latitude 5491 latitude 5495 latitude 7480 latitude 7490: 9170j.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1256,41 +1076,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-K513EA-BQ684T-i7-1165G7/dp/B08BZ5NSGS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>asus vivobook 15 s513ea-bq689t - portátil .6" full hd (core i3-1115g4, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) negro indie - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-S513EA-BQ689T-i3-1115G4/dp/B08BZ5VD6L/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Teclado-retroiluminado-Original-para-port%C3%A1til/dp/B07JZGQQWM/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5495&amp;qid=1631187714&amp;s=electronics&amp;sr=1-23</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 5520  </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>asus vivobook r565j, portátil de 15.6" fullhd (intel core i3-1005g1, 8gb ram, 256gb ssd, intel uhd graphics 600, sin sistema operativo) gris pizarra, teclado qwerty español</t>
+          <t>dell nb latitude 5520 i7 15,6 fhd w10p</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1300,19 +1098,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-R565J-i3-1005G1-Operativo/dp/B08NTNMMMR/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08WWP68CH/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 5520  </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>asus vivobook 15 p1511cja-br666r - portátil .6" hd (core i7-1065g7, 8gb ram, 512gb ssd, iris plus graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+          <t>dell nb latitude 5520 i5 15,6 fhd w10p</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1322,19 +1120,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR666R-i7-1065G7/dp/B08XC1THVC/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-9</t>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08XNHYJZ4/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 5520  </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>asus vivobook 15 x571gt-bq882 - portátil .6" full hd (core i5-9300h, 16gb ram, 1tb hdd, 256gb ssd, geforce gtx 1650 4gb, sin sistema operativo) negro estrella - teclado qwerty español</t>
+          <t>nb dell latitude 5520 i5 15,6 fhd w10p</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1344,19 +1142,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-X571GT-BQ882-Operativo/dp/B0987TZMVV/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08XNG33M3/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-3</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 5520  </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>asus vivobook 15 p1511cja-br667r - portátil .6" hd (core i5-1035g1, 8gb ram, 256gb ssd, uhd graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+          <t>dell nb latitude 5520 i5 15,6 fhd w10p</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1366,41 +1164,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR667R-i5-1035G1/dp/B08CR2YWSL/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>asus vivobook 15 p1511cja-br668r - portátil .6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR668R-i5-1035G1/dp/B08CR4TSMS/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-24</t>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08XNJ4JCF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 5580  </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>asus vivobook f515ja-br137t - portátil 15.6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris pizarra - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1410,41 +1186,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-F515JA-BR137T-Port%C3%A1til-i5-1035G1/dp/B08BZ5QXW1/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>asus vivobook s15 s533ea-bn147t - portátil 15.6" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-S15-S533EA-BN147T-i7-1165G7/dp/B08BZ67SS8/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-26</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5580&amp;qid=1631187742&amp;s=electronics&amp;sr=1-16</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook 15  </t>
+          <t xml:space="preserve">dell latitude 7270  </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>asus vivobook s15 s533ea-bn149t - portátil 15.6" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+          <t>ellenbogenorthese-lq nuevo teclado retroiluminado en negro de ee. uu.compatible con dell latitude e7270 / 7270 sin puntero</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1454,19 +1208,41 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-S15-S533EA-BN149T-i5-1135G7/dp/B08BZ5SRYF/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-27</t>
+          <t>https://www.amazon.es/Ellenbogenorthese-LQ-Teclado-retroiluminado-UU-Compatible-Latitude/dp/B0994F26DG/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7270&amp;qid=1631187797&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7270  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>dell latitude e7270 intel core i5-6300u x2 2.4ghz 8gb 256gb ssd 12.5' win10, negro (renovado)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-i5-6300U-2-4GHz-renovado/dp/B07KWFVRQ6/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7270&amp;qid=1631187797&amp;s=electronics&amp;sr=1-18</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook f515ja-br137t  </t>
+          <t xml:space="preserve">dell latitude 7270  </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>asus vivobook f515ja-br137t - portátil 15.6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris pizarra - teclado qwerty español</t>
+          <t>kapsolo - filtro de privacidad de 2 vías para dell latitude 12 e7250 / 7270 touc</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1476,19 +1252,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-F515JA-BR137T-Port%C3%A1til-i5-1035G1/dp/B08BZ5QXW1/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+f515ja-br137t&amp;qid=1631089790&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/KAPSOLO-Filtro-privacidad-Latitude-E7250/dp/B07X2HTCZD/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7270&amp;qid=1631187797&amp;s=electronics&amp;sr=1-29</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook flip 14 tp412fa-ec707t  </t>
+          <t xml:space="preserve">dell latitude 7280  </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>asus vivobook flip tp412fa-ec707t - portátil 14" full hd (core i5-10210u, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris estrella - teclado qwerty español</t>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1498,19 +1274,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-Flip-TP412FA-EC707T-i5-10210U/dp/B08BZ5LQ7M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+flip+14+tp412fa-ec707t&amp;qid=1631089804&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7280&amp;qid=1631187811&amp;s=electronics&amp;sr=1-15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook flip tp412fa-ec649t  </t>
+          <t xml:space="preserve">dell latitude 7300  </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>asus vivobook flip tp412fa-ec649t - portátil 14" full hd (core i3-10110u, 8gb ram, 256gb ssd, uhd graphics, windows 10 home) azul galaxia - teclado qwerty español</t>
+          <t>dell latitude 7300 fullhd 13.3” laptop - intel core i5 8365u, ddr4 16gb, ssd nvme de 1tb, wireless 11ac y bluetooth 5.0, nfc, windows 10 pro - distribución del teclado en el reino unido</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1520,19 +1296,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-Flip-TP412FA-EC649T-i3-10110U/dp/B08BZ58J1D/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+flip+tp412fa-ec649t&amp;qid=1631089818&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-QL41112-05252-W-Network-Adapter/dp/B07WF8F7PC/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7300&amp;qid=1631187901&amp;s=electronics&amp;sr=1-11</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook s14 s433ea-am612t  </t>
+          <t xml:space="preserve">dell latitude 7390  </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>asus vivobook s14 s433ea-am612t - portátil 14" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+          <t>dell latitude 7390 notebook i5-8250u ssd full hd windows 10 pro</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1542,19 +1318,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-S14-S433EA-AM612T-i7-1165G7/dp/B08BZ632JZ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s14+s433ea-am612t&amp;qid=1631089831&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-Latitude-Notebook-i5-8250U-Windows/dp/B079D9NSX5/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7390&amp;qid=1631187929&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook s413fa-eb560t  </t>
+          <t xml:space="preserve">dell latitude 7470  </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>portatil asus vivobook 14 s413fa-eb560t negro i5-10210u/8gb/ssd 256gb/14 fhd/w10</t>
+          <t>dell - portátil latitude e7470 de 14 pulgadas, procesador core i5-6300u de 2,4 ghz, 8 gb de ram, 256 gb de ssd, windows 10 pro de 64 bits (renovado)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1564,19 +1340,41 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PORTATIL-ASUS-14-S413FA-EB560T-I5-10210U/dp/B08HR489MJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s413fa-eb560t&amp;qid=1631089856&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-Latitude-Pulgadas-i5-6300U-enchapado/dp/B07GCRHS5V/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7470&amp;qid=1631187943&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7470  </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>dell laptop latitude e7470 de 14 pulgadas, color negro, intel core i5 2.4ghz, 16gb ram, 256gb ssd, intel hd graphics 520, windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7470-Port%C3%A1til-pulgadas/dp/B07V9NB2ZS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7470&amp;qid=1631187943&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus vivobook s433ea-am423t  </t>
+          <t xml:space="preserve">dell latitude 7470  </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>asus vivobook s14 s433ea-am423t - portátil 14" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+          <t>dell latitude e7470 2.6ghz i7-6600u 14" 1920 x 1080pixeles negro - ordenador portátil (ultrabook, negro, concha, enterprise, i7-6600u, intel core i7-6xxx)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1586,19 +1384,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-VivoBook-S14-S433EA-AM423T-i5-1135G7/dp/B08BZ4PWV2/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s433ea-am423t&amp;qid=1631089869&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Latitude-E7470-2-6GHz-i7-6600U-1080Pixeles/dp/B01BIQTD4S/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7470&amp;qid=1631187943&amp;s=electronics&amp;sr=1-18</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus x509ja-br252t  </t>
+          <t xml:space="preserve">dell latitude 7480  </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>asus portatil x509ja-br252t</t>
+          <t>dell latitude 7480 intel i5-7200u, 16 gb ram, 250 gb nvme, pantalla táctil fhd ips de 14"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1608,41 +1406,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-X509JA-BR252T-i3-1005G1-256GB-15-6/dp/B08FCP8YYX/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+x509ja-br252t&amp;qid=1631089882&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>asus zenbook flip 13 ux363ja-em189t - portátil convertible 13.3" fullhd (intel core i5-1035g4, 16gb ram, 512gb ssd, intel iris plus graphics, windows 10 home) gris pino-teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363JA-EM189T-Pino-Teclado/dp/B08CS7D3RL/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/Dell-Latitude-7480-Business-Laptop/dp/B01N155FQI/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7480&amp;qid=1631187957&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7480  </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7480&amp;qid=1631187957&amp;s=electronics&amp;sr=1-15</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
+          <t xml:space="preserve">dell latitude 7490  </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>asus zenbook 13 ux325ea-kg245t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+          <t>portatil dell latitude 7490 i5 8350u - win 10 pro - 8 gb- 256ssd - 14/1- negro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1652,41 +1450,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-UX325EA-KG245T-Ordenador-Pino-Teclado/dp/B08X7JYDQL/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>asus zenbook 13 ux325ea-eg247 - portátil .3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-UX325EA-EG247-i7-1165G7-Operativo/dp/B08VJH2VVK/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Latitude-1-7GHz-i5-8350U-1080Pixeles-Port%C3%A1til/dp/B079PN525C/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7490&amp;qid=1631187972&amp;s=electronics&amp;sr=1-1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
+          <t xml:space="preserve">dell latitude e5250  </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>asus zenbook 13 um325ua-kg084 - portátil .3" full hd (ryzen 7 5700u, 16gb ram, 512gb ssd, radeon graphics, sin sistema operativo) gris pino - teclado qwerty español</t>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1696,41 +1472,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-13-UM325UA-KG084-Operativo/dp/B0987T36J2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>asus zenbook flip 13 ux363ea-em087t - portátil convertible de 13.3" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home ) gris pino - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-EM087T-Convertible/dp/B08NTSGTRD/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5250&amp;qid=1631188026&amp;s=electronics&amp;sr=1-13</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
+          <t xml:space="preserve">dell latitude e5270  </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>asus zenbook 13 um325ua-kg073 - portátil de 13.3" full hd (ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, sin so) grey - teclado qwerty español</t>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1740,19 +1494,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-13-UM325UA-KG073-Port%C3%A1til/dp/B08CQVTJ86/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5270&amp;qid=1631188040&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
+          <t xml:space="preserve">dell latitude e5270  </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>asus zenbook flip 13 ux363ea-hp043t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+          <t>dell batería original latitude 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), 15 e5570</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1762,41 +1516,41 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-HP043T-Pino-Teclado/dp/B08BZ5KYK1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 13  </t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 ux425ea-bm019 - portátil full hd (core i5-1135g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM019-i5-1135G7-Operativo/dp/B08BZ5MHPR/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-17</t>
+          <t>https://www.amazon.es/Dell-Bater%C3%ADa-original-Latitude-E5250/dp/B07CQKGX16/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5270&amp;qid=1631188040&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5280  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>|_consejo_| batería compatible con dell latitude e5280 e5480 series tablet laptop 3dddg 03vc9y 11.4v 42wh</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/_Consejo_-Bater%C3%ADa-compatible-Latitude-Tablet/dp/B083FLWWTT/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5280&amp;qid=1631188054&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5280  </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>asus zenbook um425ia-am006 - ordenador portátil de 14" fullhd (ryzen7 4700u7, 16gb ram, 512gb ssd, radeon graphics, sin sistema operativo) aluminio - teclado qwerty español</t>
+          <t>p prettyia conector hdd para computadora portátil accesorio para dell latitude e5280</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1806,41 +1560,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-Zenbook-UM425IA-AM006-Ordenador-operativo/dp/B08BWN5KV8/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 ux425ea-bm094t - portátil full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) gris pino - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-14-UX425EA-BM094T-i7-1165G7/dp/B08BZ5Q4LM/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Prettyia-Conector-Computadora-Port%C3%A1til-Accesorio/dp/B07NTZNHFG/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5280&amp;qid=1631188054&amp;s=electronics&amp;sr=1-26</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5410  </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>asus zenbook 14 ux425ea-bm020 - ordenador portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, sin sistema operativo) lila neblina-teclado qwerty español</t>
+          <t>dell 56whr, 6-cell - batería/pila recargable (6-cell, notebook/tablet, ión de litio, negro, latitude e5400, e5410, e5410 n-series, e5500, e5510)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1850,41 +1582,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM020-Ordenador-Neblina-Teclado/dp/B08BZ6V9P8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 ux425ea-bm019 - portátil full hd (core i5-1135g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM019-i5-1135G7-Operativo/dp/B08BZ5MHPR/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/DELL-56WHr-6-Cell-recargable-Notebook/dp/B0038M5QVA/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5410&amp;qid=1631188069&amp;s=electronics&amp;sr=1-30</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5440  </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>asus zenbook 14 um425ia-am006t - portátil full hd (ryzen 7 4700u, 16gb ram, 512gb ssd, radeon graphics, windows 10 home) gris pino - teclado qwerty español</t>
+          <t>dell latitude e5440 - ordenador portátil empresarial de 14 pulgadas, intel core i5-4300u hasta 2,9 ghz, 8 gb ram, 256 gb ssd, hdmi, dvdrw, 802.11ac wifi más bt, windows 10 professional (renovado)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1894,41 +1604,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-14-UM425IA-AM006T-Port%C3%A1til/dp/B08WWJHKZ7/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 ultralight ux435eal-kc096t - portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, 32gb intel optane, intel iris xe graphics, sin so) gris pino - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Ultralight-UX435EAL-KC096T-i7-1165G7/dp/B08BZ63P8G/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Dell-Latitude-E5440-Ordenador-Professional/dp/B07CZB8SG1/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5440&amp;qid=1631188110&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5450  </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>asus zenbook 14 ux425ea-hm165t - portátil de 14 " fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel uhd graphics, windows 10 home) gris pino - teclado qwerty español</t>
+          <t>dell latitude e5450 portátil de 14 pulgadas - intel core i5-5300u 2.3 ghz, 8 gb ram, 256 gb ssd, wlan, cámara web, gráficos integrados, windows 10 pro (reacondicionado)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1938,19 +1626,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-14-UX425EA-HM165T-i7-1165G7/dp/B08NTQJ8TP/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-9</t>
+          <t>https://www.amazon.es/Dell-Latitude-E5450-integrados-reacondicionado/dp/B08463MRB5/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5450&amp;qid=1631188124&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5450  </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>asus zenbook um431da-am003, portátil de 14" fullhd (ryzen r5 3500 , 8gb ram, 512gb ssd, amd radeon graphics, sin sistema operativo) metal azul - teclado qwerty español</t>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1960,41 +1648,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-UM431DA-AM003-Port%C3%A1til-Graphics-Operativo/dp/B07Z6MQ1DB/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 ux434fac-a5188t - portátil de 14" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, intel graphics, windows 10 home) azul real - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-14-UX434FAC-A5188T-i7-10510U/dp/B07YRG78DZ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-12</t>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5450&amp;qid=1631188124&amp;s=electronics&amp;sr=1-21</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5470  </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>asus zenbook 14 ux425ea-ki359t - ordenador portátil 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) lila neblina - teclado qwerty español</t>
+          <t>dell latitude e5470 – intel core i5 – 6200u | 8 gb de ram | 250 gb ssd | pantalla de 14,1 pulgadas | windows 10 multi-language | usb 3.2 | hdmi | wifi | teclado alemán (qwertz) reacondicionado</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2004,19 +1670,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-KI359T-Ordenador-i7-1165G7/dp/B08CKBS86L/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-23</t>
+          <t>https://www.amazon.es/Dell-Latitude-E5470-Multi-Language-reacondicionado/dp/B0949MBL9S/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5470&amp;qid=1631188139&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5470  </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>asus zenbook 14 ux431fa-am132t - portátil de 14" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd, windows 10) metal azul plata - teclado qwerty español</t>
+          <t>dell latitude e5470 14" pantalla táctil, intel core i5-6300u 2,4 ghz (3,0 ghz turbo), 8 gb de ram, 128 gb ssd, wlan, webcam, gráfica integrada, lte, windows 10 professional (reacondicionado) - qwerty</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2026,41 +1692,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-14-UX431FA-AM132T-i5-10210U/dp/B083WMSLW2/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 bx425ea-bm144r - portátil full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-14-BX425EA-BM144R-i7-1165G7/dp/B08XBYXXMZ/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-26</t>
+          <t>https://www.amazon.es/Dell-Latitude-E5470-Professional-reacondicionado/dp/B01IFYZDWC/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5470&amp;qid=1631188139&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook 14  </t>
+          <t xml:space="preserve">dell latitude e5480  </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>asus zenbook 14 um425ia-hm101t / 14" full hd/amd ryzen 7 4700u / 16gb ram / 512gb ssd/windows 10 / gris</t>
+          <t>lexiang ordenador portátil, piezas de reparación de portátiles, línea de cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2070,85 +1714,85 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-UM425IA-HM101T-Ryzen-Windows/dp/B08H5TL9YX/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 14 ultralight  </t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 ultralight ux435eal-kc096t - portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, 32gb intel optane, intel iris xe graphics, sin so) gris pino - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Ultralight-UX435EAL-KC096T-i7-1165G7/dp/B08BZ63P8G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14+ultralight&amp;qid=1631089949&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook 14 um425ia-am006t  </t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>asus zenbook 14 um425ia-am006t - portátil full hd (ryzen 7 4700u, 16gb ram, 512gb ssd, radeon graphics, windows 10 home) gris pino - teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-14-UM425IA-AM006T-Port%C3%A1til/dp/B08WWJHKZ7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14+um425ia-am006t&amp;qid=1631089963&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">asus zenbook flip 13  </t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>asus zenbook flip 13 ux363ja-em189t - portátil convertible 13.3" fullhd (intel core i5-1035g4, 16gb ram, 512gb ssd, intel iris plus graphics, windows 10 home) gris pino-teclado qwerty español</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363JA-EM189T-Pino-Teclado/dp/B08CS7D3RL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-1</t>
+          <t>https://www.amazon.es/LEXIANG-Ordenador-port%C3%A1til-reparaci%C3%B3n-port%C3%A1tiles/dp/B08YR8FZH9/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5480&amp;qid=1631188154&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5480  </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CD83VV1/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5480&amp;qid=1631188154&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5550  </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5550&amp;qid=1631188168&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5570  </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>lexiang ordenador portátil, piezas de reparación de portátiles, línea de cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LEXIANG-Ordenador-port%C3%A1til-reparaci%C3%B3n-port%C3%A1tiles/dp/B08YR8FZH9/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5570&amp;qid=1631188182&amp;s=electronics&amp;sr=1-21</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook flip 13  </t>
+          <t xml:space="preserve">dell latitude e5580  </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>asus zenbook flip 13 ux363ea-em087t - portátil convertible de 13.3" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home ) gris pino - teclado qwerty español</t>
+          <t>lexiang ordenador portátil, piezas de reparación de portátiles, línea de cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2158,19 +1802,19 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-EM087T-Convertible/dp/B08NTSGTRD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/LEXIANG-Ordenador-port%C3%A1til-reparaci%C3%B3n-port%C3%A1tiles/dp/B08YR8FZH9/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook flip 13  </t>
+          <t xml:space="preserve">dell latitude e5580  </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>asus zenbook flip 13 ux363ea-hp043t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2180,19 +1824,19 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-HP043T-Pino-Teclado/dp/B08BZ5KYK1/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CD83VV1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-8</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook flip 13  </t>
+          <t xml:space="preserve">dell latitude e5580  </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>asus zenbook flip 13 bx363ea-em190r - portátil 13.3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2202,19 +1846,41 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-BX363EA-EM190R-i7-1165G7/dp/B08XBZ2HYB/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CCF3544/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5580  </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CD6JYZX/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-29</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">asus zenbook flip bx363ea-em190r  </t>
+          <t xml:space="preserve">dell latitude e5580  </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>asus zenbook flip 13 bx363ea-em190r - portátil 13.3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2224,12 +1890,848 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-ZenBook-Flip-BX363EA-EM190R-i7-1165G7/dp/B08XBZ2HYB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+bx363ea-em190r&amp;qid=1631089992&amp;s=electronics&amp;sr=1-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CCXVFNK/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e6330  </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>dell replicador de puertos avanzado 452-11421 e-port ii para latitude e5440/e5450/e5520/e5550/e6330/e6440/e6540/e7240/e7250/e7440/e7450</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11421-Advanced-Port-Adapter/dp/B0183T35QK/ref=sr_1_31?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e6330&amp;qid=1631188239&amp;s=electronics&amp;sr=1-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e6540  </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ordenador portátil dell latitude e6540 i5 2,5 ghz 15,6 pulgadas 8 gb windows 7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1tiles-Latitude-E6540-i5-15-6-Pulgadas-Windows/dp/B07DJB9RG4/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e6540&amp;qid=1631188363&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7280  </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>portátil dell latitude e7280 de ocasión - ci5-6300u/8gb/12.5" led/ssd256gb/w10prof</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Dell-Latitude-E7280-ocasi%C3%B3n/dp/B01N7W9ZEM/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7280&amp;qid=1631188391&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7280  </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>hottopstar - batería de ordenador portátil compatible con dell latitude e7280, e7480, e7290, 7380, 7390 7480 7490, dell latitude 12 7000 notebook series dm3wc 2x39g 451-bbye (7,6 v, 60 wh)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HotTopStar-ordenador-port%C3%A1til-compatible-Latitude/dp/B08P168D6V/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7280&amp;qid=1631188391&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7280  </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>fske f3ygt batería para portátil para portátil dell latitude e7480 e7280 0f3ygt dm3wc dm6wc 0dm3wc 2x39g kg7vf v4940 451-bbye 12 7000 7280 7290 latitude 7380 7390 7480 7490</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/FSKE-Bater%C3%ADa-port%C3%A1til-Latitude-451-BBYE/dp/B08PQDPBZ9/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7280&amp;qid=1631188391&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7440  </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>dell latitude 14 e7440 ultrabook (intel core i5, 8 gb ram, 128 gb ssd + 500 gb hdd windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7440-Professional-7440-i5-8-128/dp/B07N6BPX5S/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7440&amp;qid=1631188418&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7450  </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>dell replicador de puertos avanzado 452-11421 e-port ii para latitude e5440/e5450/e5520/e5550/e6330/e6440/e6540/e7240/e7250/e7440/e7450</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11421-Advanced-Port-Adapter/dp/B0183T35QK/ref=sr_1_32?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7450&amp;qid=1631188432&amp;s=electronics&amp;sr=1-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7470  </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>dell laptop latitude e7470 de 14 pulgadas, color negro, intel core i5 2.4ghz, 16gb ram, 256gb ssd, intel hd graphics 520, windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7470-Port%C3%A1til-pulgadas/dp/B07V9NB2ZS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7470&amp;qid=1631188447&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7470  </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>dell - portátil latitude e7470 de 14 pulgadas, procesador core i5-6300u de 2,4 ghz, 8 gb de ram, 256 gb de ssd, windows 10 pro de 64 bits (renovado)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Pulgadas-i5-6300U-enchapado/dp/B07GCRHS5V/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7470&amp;qid=1631188447&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>dell precision 15 7510, precision 17 7710 91 whr batería primaria de 9 celdas rdyct twcpg mfkvp 451-bbsf</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Precision-Primaria-RDYCTTWCPG-451-BBSF/dp/B076623STF/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell alienware 15 r1 r2 dell precision 7510 precision 17 7710 m4600 m4700 m4800 74x5j jvf3v da180pm111 optiplex 3011 aio inspiron 15 7577</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Alienware-Precision-DA180PM111/dp/B08S7QY5K8/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell precision 7520 7530 7510 m4600 m4700 m4800 m6600 inspiron one 2320 2350 7577 da180pm111 fa180pm111 p74f p74f001 p53f</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Precision-DA180PM111-FA180PM111/dp/B08S7RDD2S/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>dell - batería original para dell precision 7510 7710 (72 whr t05w1 p/n gr5d3)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Original-Precision-7510-7710-battery-gr5d3-New/dp/B01N79H0KI/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7520  </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ettech - cargador adaptador para dell precision 7730, precision 7720, precision 7520, alienware 17 r5, alienware 15 r4, la240pm180, da240pm180, 7xcr6, ryj9, 450-agcx (240 w, 19,5 v, 12,3 a)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ETTECH-Adaptador-Precision-LA240PM180-DA240PM180/dp/B07Q3DRL1S/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7520&amp;qid=1631188501&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7520  </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell precision 7520 7530 7510 m4600 m4700 m4800 m6600 inspiron one 2320 2350 7577 da180pm111 fa180pm111 p74f p74f001 p53f</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Precision-DA180PM111-FA180PM111/dp/B08S7RDD2S/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7520&amp;qid=1631188501&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4600  </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>replicador de puertos e-port ii avanzado dell 452-11512 para estación de trabajo móvil precision m4600/m4700/m4800/m6600/m6700/m6800 negro negro</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11520-Negro-Acoplamiento-Precision/dp/B0183T3470/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4600&amp;qid=1631188516&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4600  </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell alienware 15 r1 r2 dell precision 7510 precision 17 7710 m4600 m4700 m4800 74x5j jvf3v da180pm111 optiplex 3011 aio inspiron 15 7577</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Alienware-Precision-DA180PM111/dp/B08S7QY5K8/ref=sr_1_32?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4600&amp;qid=1631188516&amp;s=electronics&amp;sr=1-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4800  </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>xcj placa base gaming atx cuaderno placa principal fit for dell precision m4800 placera portátil placa base vaq10 la-9772p edp platabon placa madre</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/XCJ-Cuaderno-Principal-Precision-Port%C3%A1til/dp/B09BZGV5FG/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4800&amp;qid=1631188530&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4800  </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>replicador de puertos e-port ii avanzado dell 452-11512 para estación de trabajo móvil precision m4600/m4700/m4800/m6600/m6700/m6800 negro negro</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11520-Negro-Acoplamiento-Precision/dp/B0183T3470/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4800&amp;qid=1631188530&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4800  </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell alienware 15 r1 r2 dell precision 7510 precision 17 7710 m4600 m4700 m4800 74x5j jvf3v da180pm111 optiplex 3011 aio inspiron 15 7577</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Alienware-Precision-DA180PM111/dp/B08S7QY5K8/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4800&amp;qid=1631188530&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>nueva tarjeta gráfica de 8 gb de reemplazo para la estación de trabajo portátil dell precision m6700 m6800 7710 7720, nvidia quadro m5000m gddr5 8 gb, mxm vga placa gpu</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/tarjeta-reemplazo-estaci%C3%B3n-port%C3%A1til-Precision/dp/B0867FQVGJ/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>disco duro ssd de 960 gb compatible con dell precision m4300 m6300 m6700 (dual-core) – componente alternativo</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Disco-compatible-Precision-M4300-Dual-Core/dp/B09CDZRKJN/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>disco duro ssd de 960 gb compatible con dell precision m4300 m6400 m6700 (quad-core) – componente alternativo</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Disco-compatible-Precision-M4300-Quad-Core/dp/B09CDZC58Y/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>dell 452-11510 - base (acoplamiento, usb tipo a, dell precision m4700, m6700, 240 w, negro, 288 mm)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11510-Negro-Acoplamiento-Type/dp/B0168BRRR8/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>nueva tarjeta gráfica de 4 gb de reemplazo de tarjeta de vídeo gpu para dell precision m6700 m6800 7710 7720 m7710 estación de trabajo portátil, nvidia quadro m4000m gddr5 mxm vga placa de reparación</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/reemplazo-Precision-Estaci%C3%B3n-port%C3%A1til-reparaci%C3%B3n/dp/B086J6WNF3/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 - ordenador portátil de 15.6" full hd (core i5 1135g7 2.4 ghz, 8 gb ram, 256 gb ssd nvme, iris xe graphics, win 10 pro 64 bits, bluetooth 5, bts) negro</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-Ordenador-Bluetooth/dp/B08X37NGGJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 - ordenador portátil de 15.6 " fullhd (intel core i5-1135g7, 8 gb ram, 512 gb m2, gráfica intel iris xe, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-Ordenador-i5-1135G7/dp/B08X32T951/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 - ordenador portátil de 15.6" full hd (core i3 1115g4 3 ghz, 8 gb ram, 256 gb ssd nvme, uhd graphics, win 10 pro 64 bits, bluetooth 5, bts) negro</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-Ordenador-Bluetooth/dp/B08Z39STMQ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 i7-1165g7 8 512 15 w10p</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-I7-1165g7-W10p/dp/B08Z6TG1RN/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 15.6" 1920x1080 pixel intel core i5-1135g7 8gb ddr4-sdram 256gb ssd wi-fi 5 windows 10 professional black 6xpy4</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/1920X1080-I5-1135G7-DDR4-SDRAM-PROFESSIONAL-6XPY4/dp/B08Z6381L9/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3550  </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>nueva batería original original para ordenador dell inspiron 13r 14r 15r 17r n3010 n4010 n5010 n4110 n5110 n7010 n7110 m5010 m5030 m501 m501r n5030 dell vostro 3450 3550 3750j1knd 04yrjh fmhc10 tkv2 yxv2v j4xdh 9tcxn 9t48v 965y7 4t7jn 383cw w7h3n 07xfjj 4yrjy 8nh55 4yrjh j4xdh 7xfjj 9tcxn 9t48v 965y7 4t7jn 11.1v / 48wh 6 cell</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/BATER%C3%8DA-ORIGINAL-Ordenador-INSPIRON-3750J1KND/dp/B009U57TOG/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3550&amp;qid=1631188626&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3558  </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>green cell ultra batería para dell latitude p63g001 vostro 14 3458 3459 15 3558 3559 3568 3578 p45f p45f001 p52f p52f001 p52f003 p65g p65g001 portátil (3400mah 14.8v negro)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Green-Cell-Bater%C3%ADa-Latitude-Port%C3%A1til/dp/B08L7QRRY9/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3558&amp;qid=1631188641&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3559  </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>green cell ultra batería para dell latitude p63g001 vostro 14 3458 3459 15 3558 3559 3568 3578 p45f p45f001 p52f p52f001 p52f003 p65g p65g001 portátil (3400mah 14.8v negro)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Green-Cell-Bater%C3%ADa-Latitude-Port%C3%A1til/dp/B08L7QRRY9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3559&amp;qid=1631188655&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3568  </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>green cell ultra batería para dell latitude p63g001 vostro 14 3458 3459 15 3558 3559 3568 3578 p45f p45f001 p52f p52f001 p52f003 p65g p65g001 portátil (3400mah 14.8v negro)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Green-Cell-Bater%C3%ADa-Latitude-Port%C3%A1til/dp/B08L7QRRY9/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3568&amp;qid=1631188683&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro v131  </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>dell - producto oficial nuevo 6 celulas 65whr bateria para vostro v131 latitude e3330 inspiron 14z n411z 14r n4010 n311z tipo 268x5 p/n m0p7p sku 451-11845 por returns-excess</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-6-Cells-litio-bater%C3%ADa-recargable/dp/B00KT3P6C0/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+v131&amp;qid=1631188738&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro v131  </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>cargador / adaptador original para dell inspiron 1318, 13r, 13z, 1440, 14r, 14r-n4110, 15 n5040, 15, 1501, 1520, 1521, 1525, 1526, 15-3521, 1545, 1564, 15r, 15r-5520, 15r-7520, 15z, 1747, 1750, 1764, 17r, 17r-5720, 3521, 6400, 640m, 7720, e1405, e1505, m101z, m301z, m5010, m501r, n3010, n4010, n5010, n7010, n7110 / latitude 13, 2120, e5400, e5410, e5520, e6220, e6320, e6500, e6530, x1, xfr d630 / precision m65 / studio 14, 1435, 1436, 1450, 1457, 1537, 1558 / vostro 500, v131 / xps m1330</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Cargador-adaptador-Dell-14R-N4110-Precision/dp/B00AQTWJDQ/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+v131&amp;qid=1631188738&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell xps 13  </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>dell xps 13 9310 negro, platino, plata - 13.4" - intel core i7-11xxx - 16gb - 1000gb ssd - w10 pro</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-9310-Negro-Platino-Plata/dp/B093B68FZV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+xps+13&amp;qid=1631188767&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell xps 13  </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>nb dell xps 13 9300 i7 w10p</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/NB-Dell-XPS-9300-W10P/dp/B08W75R1DX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+xps+13&amp;qid=1631188767&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>############################################################################</t>
         </is>
